--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/work/workspace_microservices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="1840" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="12960" yWindow="1845" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="316">
   <si>
     <t>微博账号</t>
   </si>
@@ -886,17 +883,139 @@
   </si>
   <si>
     <t>丘小霞</t>
+  </si>
+  <si>
+    <t>CSDN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>站内私信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JerryLiangWN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有到微服务的请求都通过API Gateway 转发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ask.csdn.net/questions/376236?locationNum=2&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.csdn.net/topics/392056224?locationNum=3&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云计算时代，微服务用什么优势吸引着我们？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>havrad</t>
+  </si>
+  <si>
+    <t>http://bbs.csdn.net/topics/391954749?locationNum=8&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于普元的微服务架构的答疑解惑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaozhu12371237</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速换轮：Uber如何用微服务重构工程系统？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.csdn.net/topics/391954899?locationNum=9&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbaplus2015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般微服务用什么架构组合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.csdn.net/topics/391932657?locationNum=10&amp;fps=wzwdev1980</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说微服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/enzoy/article/details/52489439</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enzoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>论微服务安全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/linlzk/article/details/65437352?locationNum=2&amp;fps=1</t>
+  </si>
+  <si>
+    <t>林志Ke</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/winsonyuan/article/details/53939070?locationNum=3&amp;fps=1</t>
+  </si>
+  <si>
+    <t>微服务架构简说</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>winsonyuan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/kiwi_coder/article/details/59252893?locationNum=4&amp;fps=1</t>
+  </si>
+  <si>
+    <t>三问微服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiwi小白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u010039929/article/details/70156576?locationNum=5&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务演化策略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_Aires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -904,7 +1023,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -912,6 +1031,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -942,14 +1068,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1224,16 +1353,16 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>273</v>
       </c>
@@ -1250,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="15">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -1265,6 +1394,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1277,16 +1407,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1361,7 +1491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1383,7 +1513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -1405,7 +1535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -1416,7 +1546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -1427,7 +1557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -1449,7 +1579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -1471,7 +1601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1482,7 +1612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -1493,7 +1623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -1504,7 +1634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -1515,7 +1645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>67</v>
       </c>
@@ -1526,7 +1656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -1537,7 +1667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>73</v>
       </c>
@@ -1548,7 +1678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -1559,7 +1689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>78</v>
       </c>
@@ -1570,7 +1700,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -1581,7 +1711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>83</v>
       </c>
@@ -1592,7 +1722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>85</v>
       </c>
@@ -1603,7 +1733,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -1614,7 +1744,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>90</v>
       </c>
@@ -1625,7 +1755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>92</v>
       </c>
@@ -1636,7 +1766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
         <v>94</v>
       </c>
@@ -1647,7 +1777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>96</v>
       </c>
@@ -1658,7 +1788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>99</v>
       </c>
@@ -1669,7 +1799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>101</v>
       </c>
@@ -1680,7 +1810,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>103</v>
       </c>
@@ -1691,7 +1821,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>105</v>
       </c>
@@ -1702,7 +1832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>108</v>
       </c>
@@ -1713,7 +1843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>110</v>
       </c>
@@ -1724,7 +1854,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>113</v>
       </c>
@@ -1735,7 +1865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>116</v>
       </c>
@@ -1746,7 +1876,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
         <v>68</v>
       </c>
@@ -1757,7 +1887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>120</v>
       </c>
@@ -1768,7 +1898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6">
       <c r="B44" t="s">
         <v>123</v>
       </c>
@@ -1779,7 +1909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>126</v>
       </c>
@@ -1790,7 +1920,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
         <v>129</v>
       </c>
@@ -1801,7 +1931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>131</v>
       </c>
@@ -1812,7 +1942,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
         <v>134</v>
       </c>
@@ -1823,7 +1953,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -1834,7 +1964,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1845,7 +1975,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
         <v>139</v>
       </c>
@@ -1856,7 +1986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>142</v>
       </c>
@@ -1867,7 +1997,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>145</v>
       </c>
@@ -1878,7 +2008,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
         <v>147</v>
       </c>
@@ -1889,7 +2019,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
         <v>150</v>
       </c>
@@ -1900,7 +2030,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
         <v>153</v>
       </c>
@@ -1911,7 +2041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>156</v>
       </c>
@@ -1922,7 +2052,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6">
       <c r="B58" t="s">
         <v>158</v>
       </c>
@@ -1933,7 +2063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>161</v>
       </c>
@@ -1944,7 +2074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>164</v>
       </c>
@@ -1955,7 +2085,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6">
       <c r="B61" t="s">
         <v>166</v>
       </c>
@@ -1966,7 +2096,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6">
       <c r="B62" t="s">
         <v>169</v>
       </c>
@@ -1977,7 +2107,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6">
       <c r="B63" t="s">
         <v>171</v>
       </c>
@@ -1988,7 +2118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6">
       <c r="B64" t="s">
         <v>174</v>
       </c>
@@ -1999,7 +2129,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="B65" t="s">
         <v>176</v>
       </c>
@@ -2010,7 +2140,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
         <v>178</v>
       </c>
@@ -2021,7 +2151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
         <v>181</v>
       </c>
@@ -2032,7 +2162,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" t="s">
         <v>184</v>
       </c>
@@ -2043,7 +2173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
         <v>187</v>
       </c>
@@ -2054,7 +2184,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="B70" t="s">
         <v>190</v>
       </c>
@@ -2065,7 +2195,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="B71" t="s">
         <v>124</v>
       </c>
@@ -2076,7 +2206,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6">
       <c r="B72" t="s">
         <v>194</v>
       </c>
@@ -2087,7 +2217,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6">
       <c r="B73" t="s">
         <v>197</v>
       </c>
@@ -2098,7 +2228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6">
       <c r="B74" t="s">
         <v>199</v>
       </c>
@@ -2109,7 +2239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6">
       <c r="B75" t="s">
         <v>178</v>
       </c>
@@ -2120,7 +2250,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6">
       <c r="B76" t="s">
         <v>202</v>
       </c>
@@ -2131,7 +2261,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="B77" t="s">
         <v>205</v>
       </c>
@@ -2142,7 +2272,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6">
       <c r="B78" t="s">
         <v>207</v>
       </c>
@@ -2153,7 +2283,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="B79" t="s">
         <v>209</v>
       </c>
@@ -2164,7 +2294,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6">
       <c r="B80" t="s">
         <v>212</v>
       </c>
@@ -2175,7 +2305,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6">
       <c r="B81" t="s">
         <v>214</v>
       </c>
@@ -2186,7 +2316,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6">
       <c r="B82" t="s">
         <v>216</v>
       </c>
@@ -2197,7 +2327,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6">
       <c r="B83" t="s">
         <v>219</v>
       </c>
@@ -2208,7 +2338,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6">
       <c r="B84" t="s">
         <v>222</v>
       </c>
@@ -2219,7 +2349,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6">
       <c r="B85" t="s">
         <v>224</v>
       </c>
@@ -2230,7 +2360,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6">
       <c r="B86" t="s">
         <v>226</v>
       </c>
@@ -2241,7 +2371,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6">
       <c r="B87" t="s">
         <v>228</v>
       </c>
@@ -2252,7 +2382,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6">
       <c r="B88" t="s">
         <v>230</v>
       </c>
@@ -2263,7 +2393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6">
       <c r="B89" t="s">
         <v>232</v>
       </c>
@@ -2274,7 +2404,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6">
       <c r="B90" t="s">
         <v>235</v>
       </c>
@@ -2285,7 +2415,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6">
       <c r="B91" t="s">
         <v>238</v>
       </c>
@@ -2296,7 +2426,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6">
       <c r="B92" t="s">
         <v>240</v>
       </c>
@@ -2307,7 +2437,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6">
       <c r="B93" t="s">
         <v>243</v>
       </c>
@@ -2318,7 +2448,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6">
       <c r="B94" t="s">
         <v>246</v>
       </c>
@@ -2329,7 +2459,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6">
       <c r="B95" t="s">
         <v>249</v>
       </c>
@@ -2340,7 +2470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6">
       <c r="B96" t="s">
         <v>251</v>
       </c>
@@ -2351,7 +2481,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6">
       <c r="B97" t="s">
         <v>216</v>
       </c>
@@ -2362,7 +2492,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6">
       <c r="B98" t="s">
         <v>255</v>
       </c>
@@ -2374,6 +2504,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2386,14 +2517,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>261</v>
       </c>
@@ -2416,6 +2547,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2428,14 +2560,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>266</v>
       </c>
@@ -2446,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>263</v>
       </c>
@@ -2455,6 +2587,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
@@ -2470,13 +2603,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>271</v>
       </c>
@@ -2490,31 +2623,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F2"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="85.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>268</v>
       </c>
@@ -2524,16 +2660,196 @@
       <c r="D1" t="s">
         <v>265</v>
       </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>269</v>
       </c>
     </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2546,9 +2862,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>259</v>
       </c>
@@ -2560,6 +2876,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2568,16 +2885,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>281</v>
       </c>
@@ -2588,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>282</v>
       </c>
@@ -2600,6 +2917,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="1845" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="13890" yWindow="1845" windowWidth="28800" windowHeight="17595" tabRatio="822" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="330">
   <si>
     <t>微博账号</t>
   </si>
@@ -1005,12 +1005,55 @@
   </si>
   <si>
     <t>A_Aires</t>
+  </si>
+  <si>
+    <t>contact@nilportugues.com</t>
+  </si>
+  <si>
+    <t>smallnest@gmail.com</t>
+  </si>
+  <si>
+    <t>josh@joshlong.com</t>
+  </si>
+  <si>
+    <t>fehmican.saglam@gmail.com</t>
+  </si>
+  <si>
+    <t>me@tobi.sh</t>
+  </si>
+  <si>
+    <t>liusenmiao@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umermk3@gmail.com </t>
+  </si>
+  <si>
+    <t>eacdy0000@126.com</t>
+  </si>
+  <si>
+    <t>caihongwei2008@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.cnblogs.com/loveis715/p/4644266.html</t>
+  </si>
+  <si>
+    <t>silverfox715@sina.com</t>
+  </si>
+  <si>
+    <t>loveis715</t>
+  </si>
+  <si>
+    <t>博客园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microservice架构模式简介</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -1061,11 +1104,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1353,8 +1399,9 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
@@ -1379,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -1407,8 +1454,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
@@ -2517,8 +2565,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="2"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
@@ -2560,8 +2609,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="5" width="17.375" bestFit="1" customWidth="1"/>
@@ -2597,16 +2647,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E2"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -2627,27 +2680,98 @@
       <c r="B2" t="s">
         <v>272</v>
       </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
     <col min="4" max="4" width="85.125" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -2837,6 +2961,23 @@
       </c>
       <c r="F12" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2849,6 +2990,7 @@
     <hyperlink ref="D7" r:id="rId5"/>
     <hyperlink ref="D8" r:id="rId6"/>
     <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8" display="http://home.cnblogs.com/u/loveis715/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2862,7 +3004,10 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
@@ -2889,8 +3034,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="1845" windowWidth="28800" windowHeight="17595" tabRatio="822" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="13890" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="409">
   <si>
     <t>微博账号</t>
   </si>
@@ -1048,12 +1048,325 @@
   </si>
   <si>
     <t>Microservice架构模式简介</t>
+  </si>
+  <si>
+    <t>Infoq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/do-you-really-understand-what-is-service</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天都在谈SOA和微服务，但你真的理解什么是服务吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+PuROHNz463utrLnplZeJdm2uMXvYbZQi@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2013/12/micro-service-architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构解析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+AprEOwPTNaOODbi9AWWboNUUX2UOLNrw@c4media.com</t>
+  </si>
+  <si>
+    <t>张龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/basis-frameworkto-implement-micro-service</t>
+  </si>
+  <si>
+    <t>实施微服务，我们需要哪些基础框架？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+FIz1rnUjD4rTbbhEyQiG8ReM7qogPDVo@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个完整的微服务系统，应该包含哪些功能？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/what-complete-micro-service-system-should-include</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+5WQxhAa0AYzOXDNzBpMQWz4DVok4QhnK@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘彦夫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈谈后端业务系统的微服务化改造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/the-back-end-business-systems-service-transformation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+1hvDpm5g9QekbsEcfMGTl1A4NqdfA0oO@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张旭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建高性能微服务架构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+RTqrhDdZEBy2A9WeqCEXEcE0nrH5yTMv@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/building-a-high-performance-micro-service-architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/analysis-the-architecture-of-microservice-part-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析微服务架构（一）单块架构系统以及其面临的挑战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王磊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+cwHLtXa4f2H1kZJJEUtRUCoX41CXuX4U@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构的设计模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2015/04/micro-service-architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+WgkgeMrOfBQhLyX9VmbZ5vyk5uBQVhOq@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢丽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务可靠性设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/micro-service-reliability-design</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林锋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+q8iPdrU8uvu5vQB21Ky2QOTteQ75Mqqt@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务的团队应对之道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/micro-service-team-deal-with-problems</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禚娴静</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuoxianjing@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个经过优化的微服务架构案例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/an-optimized-micro-service-architecture-case</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ericyanglei@sina.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构：Kafka的崛起</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/micro-service-architecture-the-rise-of-kafka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+S03IHrUOeoTQJH8EQfLdWXLyLoG5jIEs@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务：Java EE的掘墓人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2016/11/Micro-service-java-EE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛命灯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+qw8qKciQjwWnmpMe5uKeldZNbII2Q2FL@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务的漫长历史</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2016/11/microservices-history</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+7HEX9VQZoC6yDU9ifbanhIxJRVGvz7zh@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周元昊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netflix Conductor : 一个微服务的编排器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/netflix-conductor-a-micro-service-orchestration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志勇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>glave@mail.nankai.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务的未来：功能性服务设计和可观测性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2017/02/microservices-design-observe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗远航</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+d32685ecb165c0be8a145095c3585a94@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel.bryant@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel Bryant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/profile/Daniel-Bryant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构下，如何实现分布式跟踪？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/how-to-realize-distributed-tracking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张德阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+s6SyJ1HhbYywbrjxgZFvgSdeV0C25kEx@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务的好处</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abel Avram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2015/03/benefits-microservices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abel@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>董晓杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persocial+8ierXE8kEJ3ON2hKLF5OdbBr5lUl5fOi@c4media.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2015/04/benefits-microservices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -1399,7 +1712,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -1426,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" ht="15">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -1454,7 +1767,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -2565,7 +2878,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -2609,7 +2922,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -2653,7 +2966,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -2758,18 +3071,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="85.125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
@@ -2978,6 +3291,346 @@
       </c>
       <c r="F13" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" t="s">
+        <v>357</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" t="s">
+        <v>362</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23" t="s">
+        <v>369</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E31" t="s">
+        <v>400</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" t="s">
+        <v>403</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2991,8 +3644,47 @@
     <hyperlink ref="D8" r:id="rId6"/>
     <hyperlink ref="D12" r:id="rId7"/>
     <hyperlink ref="E13" r:id="rId8" display="http://home.cnblogs.com/u/loveis715/"/>
+    <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="F17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="F20" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="F21" r:id="rId22"/>
+    <hyperlink ref="D22" r:id="rId23"/>
+    <hyperlink ref="F22" r:id="rId24"/>
+    <hyperlink ref="D23" r:id="rId25"/>
+    <hyperlink ref="F23" r:id="rId26"/>
+    <hyperlink ref="D24" r:id="rId27"/>
+    <hyperlink ref="F24" r:id="rId28"/>
+    <hyperlink ref="D25" r:id="rId29"/>
+    <hyperlink ref="F25" r:id="rId30"/>
+    <hyperlink ref="D26" r:id="rId31"/>
+    <hyperlink ref="F26" r:id="rId32"/>
+    <hyperlink ref="D28" r:id="rId33"/>
+    <hyperlink ref="F28" r:id="rId34"/>
+    <hyperlink ref="D29" r:id="rId35"/>
+    <hyperlink ref="F29" r:id="rId36"/>
+    <hyperlink ref="D27" r:id="rId37"/>
+    <hyperlink ref="F27" r:id="rId38"/>
+    <hyperlink ref="F30" r:id="rId39"/>
+    <hyperlink ref="D30" r:id="rId40"/>
+    <hyperlink ref="D31" r:id="rId41"/>
+    <hyperlink ref="F31" r:id="rId42"/>
+    <hyperlink ref="D32" r:id="rId43"/>
+    <hyperlink ref="F32" r:id="rId44"/>
+    <hyperlink ref="F33" r:id="rId45"/>
+    <hyperlink ref="D33" r:id="rId46" display="http://www.infoq.com/cn/news/2015/03/benefits-microservices"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -3004,7 +3696,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -3034,7 +3726,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="374">
   <si>
     <t>微博账号</t>
   </si>
@@ -1054,148 +1054,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.infoq.com/cn/articles/do-you-really-understand-what-is-service</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天都在谈SOA和微服务，但你真的理解什么是服务吗？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+PuROHNz463utrLnplZeJdm2uMXvYbZQi@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/news/2013/12/micro-service-architecture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务架构解析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+AprEOwPTNaOODbi9AWWboNUUX2UOLNrw@c4media.com</t>
-  </si>
-  <si>
-    <t>张龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/basis-frameworkto-implement-micro-service</t>
-  </si>
-  <si>
-    <t>实施微服务，我们需要哪些基础框架？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+FIz1rnUjD4rTbbhEyQiG8ReM7qogPDVo@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个完整的微服务系统，应该包含哪些功能？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/what-complete-micro-service-system-should-include</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+5WQxhAa0AYzOXDNzBpMQWz4DVok4QhnK@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘彦夫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谈谈后端业务系统的微服务化改造</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/the-back-end-business-systems-service-transformation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+1hvDpm5g9QekbsEcfMGTl1A4NqdfA0oO@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张旭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建高性能微服务架构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+RTqrhDdZEBy2A9WeqCEXEcE0nrH5yTMv@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/building-a-high-performance-micro-service-architecture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/analysis-the-architecture-of-microservice-part-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析微服务架构（一）单块架构系统以及其面临的挑战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王磊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+cwHLtXa4f2H1kZJJEUtRUCoX41CXuX4U@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务架构的设计模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/news/2015/04/micro-service-architecture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+WgkgeMrOfBQhLyX9VmbZ5vyk5uBQVhOq@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢丽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务可靠性设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/micro-service-reliability-design</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林锋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+q8iPdrU8uvu5vQB21Ky2QOTteQ75Mqqt@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微服务的团队应对之道</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1228,38 +1086,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>微服务架构：Kafka的崛起</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/micro-service-architecture-the-rise-of-kafka</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王庆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+S03IHrUOeoTQJH8EQfLdWXLyLoG5jIEs@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务：Java EE的掘墓人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/news/2016/11/Micro-service-java-EE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛命灯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+qw8qKciQjwWnmpMe5uKeldZNbII2Q2FL@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微服务的漫长历史</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1268,14 +1094,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>persocial+7HEX9VQZoC6yDU9ifbanhIxJRVGvz7zh@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周元昊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Netflix Conductor : 一个微服务的编排器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1296,15 +1114,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.infoq.com/cn/news/2017/02/microservices-design-observe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗远航</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+d32685ecb165c0be8a145095c3585a94@c4media.com</t>
+    <t>Daniel Bryant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/profile/Daniel-Bryant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务的好处</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abel Avram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2015/03/benefits-microservices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abel@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jan.stenberg@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan Stenberg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1312,55 +1150,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Daniel Bryant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/profile/Daniel-Bryant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务架构下，如何实现分布式跟踪？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/articles/how-to-realize-distributed-tracking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张德阳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+s6SyJ1HhbYywbrjxgZFvgSdeV0C25kEx@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务的好处</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abel Avram</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/news/2015/03/benefits-microservices</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>abel@infoq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董晓杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>persocial+8ierXE8kEJ3ON2hKLF5OdbBr5lUl5fOi@c4media.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/news/2015/04/benefits-microservices</t>
+    <t>mark@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark Little</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务部署面临的挑战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2016/04/msa-deployment-challenges</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ben@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ben Linders</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务意味着分布式系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2016/09/microservices-distributed-system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gary@infoq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭蕾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先把平台做扎实，再来微服务吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/articles/how-to-understand-microservice-architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloFresh迁移至新的API网关，实现微服务架构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2017/04/hellofresh-api-migration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张卫滨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinzhang1981@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>talonx@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hrishikesh Barua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2017/05/hellofresh-api-migration</t>
   </si>
 </sst>
 </file>
@@ -3071,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3298,16 +3160,16 @@
         <v>330</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -3315,16 +3177,16 @@
         <v>330</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F15" t="s">
-        <v>337</v>
+        <v>360</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -3332,16 +3194,16 @@
         <v>330</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>339</v>
+        <v>365</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="E16" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3349,16 +3211,16 @@
         <v>330</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3366,16 +3228,16 @@
         <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="E18" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -3383,16 +3245,16 @@
         <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -3400,16 +3262,16 @@
         <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E20" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -3417,16 +3279,16 @@
         <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E21" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3434,16 +3296,16 @@
         <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="E22" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -3451,16 +3313,16 @@
         <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3468,169 +3330,16 @@
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E24" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>330</v>
-      </c>
-      <c r="C25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" t="s">
-        <v>379</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E26" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" t="s">
-        <v>391</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E28" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29" t="s">
-        <v>389</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" t="s">
-        <v>391</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E30" t="s">
-        <v>396</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" t="s">
-        <v>398</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E31" t="s">
-        <v>400</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" t="s">
-        <v>402</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" t="s">
-        <v>403</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C33" t="s">
-        <v>402</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E33" t="s">
-        <v>406</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3644,47 +3353,31 @@
     <hyperlink ref="D8" r:id="rId6"/>
     <hyperlink ref="D12" r:id="rId7"/>
     <hyperlink ref="E13" r:id="rId8" display="http://home.cnblogs.com/u/loveis715/"/>
-    <hyperlink ref="D14" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="D15" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="F17" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="F18" r:id="rId16"/>
-    <hyperlink ref="F19" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="F20" r:id="rId20"/>
-    <hyperlink ref="D21" r:id="rId21"/>
-    <hyperlink ref="F21" r:id="rId22"/>
-    <hyperlink ref="D22" r:id="rId23"/>
-    <hyperlink ref="F22" r:id="rId24"/>
-    <hyperlink ref="D23" r:id="rId25"/>
-    <hyperlink ref="F23" r:id="rId26"/>
-    <hyperlink ref="D24" r:id="rId27"/>
-    <hyperlink ref="F24" r:id="rId28"/>
-    <hyperlink ref="D25" r:id="rId29"/>
-    <hyperlink ref="F25" r:id="rId30"/>
-    <hyperlink ref="D26" r:id="rId31"/>
-    <hyperlink ref="F26" r:id="rId32"/>
-    <hyperlink ref="D28" r:id="rId33"/>
-    <hyperlink ref="F28" r:id="rId34"/>
-    <hyperlink ref="D29" r:id="rId35"/>
-    <hyperlink ref="F29" r:id="rId36"/>
-    <hyperlink ref="D27" r:id="rId37"/>
-    <hyperlink ref="F27" r:id="rId38"/>
-    <hyperlink ref="F30" r:id="rId39"/>
-    <hyperlink ref="D30" r:id="rId40"/>
-    <hyperlink ref="D31" r:id="rId41"/>
-    <hyperlink ref="F31" r:id="rId42"/>
-    <hyperlink ref="D32" r:id="rId43"/>
-    <hyperlink ref="F32" r:id="rId44"/>
-    <hyperlink ref="F33" r:id="rId45"/>
-    <hyperlink ref="D33" r:id="rId46" display="http://www.infoq.com/cn/news/2015/03/benefits-microservices"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="F19" r:id="rId10"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12"/>
+    <hyperlink ref="D21" r:id="rId13"/>
+    <hyperlink ref="F21" r:id="rId14"/>
+    <hyperlink ref="D22" r:id="rId15"/>
+    <hyperlink ref="F22" r:id="rId16"/>
+    <hyperlink ref="F23" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="F24" r:id="rId20"/>
+    <hyperlink ref="F14" r:id="rId21"/>
+    <hyperlink ref="D14" r:id="rId22"/>
+    <hyperlink ref="F15" r:id="rId23"/>
+    <hyperlink ref="D15" r:id="rId24"/>
+    <hyperlink ref="F16" r:id="rId25"/>
+    <hyperlink ref="D16" r:id="rId26"/>
+    <hyperlink ref="D17" r:id="rId27"/>
+    <hyperlink ref="F17" r:id="rId28"/>
+    <hyperlink ref="F18" r:id="rId29"/>
+    <hyperlink ref="D18" r:id="rId30" display="http://www.infoq.com/cn/news/2017/04/hellofresh-api-migration"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="404">
   <si>
     <t>微博账号</t>
   </si>
@@ -1223,6 +1223,123 @@
   </si>
   <si>
     <t>http://www.infoq.com/cn/news/2017/05/hellofresh-api-migration</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/enweitech/article/details/51819784</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构(Microservices)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府云创</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 微服务分享</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/yuxinchen/article/details/70156518?locationNum=14&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuxinchen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Cloud构建微服务架构（五）服务网关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/zl1zl2zl3/article/details/58623636?locationNum=13&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zl1zl2zl3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小雷-多面手</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/dream_an/article/details/51967471?locationNum=12&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端基于Docker的微服务与持续交付实践</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构入门</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/a60782885/article/details/68923007?locationNum=11&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a60782885</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀罗犬穆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/wurenhai/article/details/37659335?locationNum=9&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 微服务(Microservices)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨士超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火到爆的微服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/YSC1123/article/details/60140532?locationNum=8&amp;fps=1</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/kenkao/article/details/54171437?locationNum=7&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kenkao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务实战系列文章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅天下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/songhaifengshuaige/article/details/68940952?locationNum=6&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠事件实现微服务下最终一致性事务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u011537073/article/details/69663858?locationNum=1&amp;fps=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构中服务注册与发现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LarryHai6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1279,13 +1396,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2933,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F24"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3340,6 +3460,176 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" t="s">
+        <v>382</v>
+      </c>
+      <c r="F27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" t="s">
+        <v>389</v>
+      </c>
+      <c r="F30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3375,9 +3665,20 @@
     <hyperlink ref="F17" r:id="rId28"/>
     <hyperlink ref="F18" r:id="rId29"/>
     <hyperlink ref="D18" r:id="rId30" display="http://www.infoq.com/cn/news/2017/04/hellofresh-api-migration"/>
+    <hyperlink ref="D25" r:id="rId31"/>
+    <hyperlink ref="D26" r:id="rId32"/>
+    <hyperlink ref="D27" r:id="rId33"/>
+    <hyperlink ref="E28" r:id="rId34" display="http://my.csdn.net/dream_an"/>
+    <hyperlink ref="D28" r:id="rId35"/>
+    <hyperlink ref="C29" r:id="rId36" display="http://blog.csdn.net/a60782885/article/details/68923007"/>
+    <hyperlink ref="D29" r:id="rId37"/>
+    <hyperlink ref="D30" r:id="rId38"/>
+    <hyperlink ref="D32" r:id="rId39"/>
+    <hyperlink ref="D33" r:id="rId40"/>
+    <hyperlink ref="D34" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="14820" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="441">
   <si>
     <t>微博账号</t>
   </si>
@@ -1340,12 +1340,123 @@
   <si>
     <t>LarryHai6</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yidongnan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/yidongnan</t>
+  </si>
+  <si>
+    <t>https://github.com/buptmiao</t>
+  </si>
+  <si>
+    <t>buptmiao@gmail.com</t>
+  </si>
+  <si>
+    <t>jagasantagostino@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/kandros</t>
+  </si>
+  <si>
+    <t>clement@apache.org</t>
+  </si>
+  <si>
+    <t>https://github.com/cescoffier</t>
+  </si>
+  <si>
+    <t>joobn72@naver.com</t>
+  </si>
+  <si>
+    <t>https://github.com/joobn72/microservices</t>
+  </si>
+  <si>
+    <t>gelipp@gmail.com</t>
+  </si>
+  <si>
+    <t>vdemedes@gmail.com</t>
+  </si>
+  <si>
+    <t>paul@paulstovell.com</t>
+  </si>
+  <si>
+    <t>jason.mulligan@avoidwork.com</t>
+  </si>
+  <si>
+    <t>https://github.com/avoidwork/tenso</t>
+  </si>
+  <si>
+    <t>kb@socialmoon.com</t>
+  </si>
+  <si>
+    <t>https://github.com/nicholasjackson/go-microservice-template</t>
+  </si>
+  <si>
+    <t>https://github.com/PaulStovell/ServiceBouncer</t>
+  </si>
+  <si>
+    <t>chiuchunkin@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/prontera/spring-cloud-rest-tcc</t>
+  </si>
+  <si>
+    <t>justin@justinsullard.com</t>
+  </si>
+  <si>
+    <t>ryandavidhartman@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ryandavidhartman/Microservice</t>
+  </si>
+  <si>
+    <t>https://github.com/justinsullard/microservice</t>
+  </si>
+  <si>
+    <t>sqshq@sqshq.com</t>
+  </si>
+  <si>
+    <t>https://github.com/sqshq/PiggyMetrics</t>
+  </si>
+  <si>
+    <t>marc.fornos@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/mfornos/awesome-microservices</t>
+  </si>
+  <si>
+    <t>jeff.barczewski@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/jeffbski</t>
+  </si>
+  <si>
+    <t>fredgeorge@acm.org</t>
+  </si>
+  <si>
+    <t>https://github.com/fredgeorge/microservice_workshop</t>
+  </si>
+  <si>
+    <t>edwin_uestc@163.com</t>
+  </si>
+  <si>
+    <t>https://github.com/wanghaisheng</t>
+  </si>
+  <si>
+    <t>https://github.com/fehmicansaglam/progressed.io</t>
+  </si>
+  <si>
+    <t>heidsoft@qq.com</t>
+  </si>
+  <si>
+    <t>https://github.com/heidsoft/DevOps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -1383,11 +1494,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEAECEF"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1396,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1406,6 +1526,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1694,7 +1817,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -1721,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -1749,7 +1872,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -2860,7 +2983,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -2904,7 +3027,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -2942,18 +3065,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="53.625" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3044,10 +3167,223 @@
         <v>324</v>
       </c>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" thickBot="1">
+      <c r="D29" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="D30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" display="mailto:jason.mulligan@avoidwork.com"/>
+    <hyperlink ref="E23" r:id="rId2" display="mailto:ryandavidhartman@gmail.com"/>
+    <hyperlink ref="E30" r:id="rId3" display="mailto:heidsoft@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3055,11 +3391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -3690,7 +4026,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -3720,7 +4056,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="493">
   <si>
     <t>微博账号</t>
   </si>
@@ -1451,12 +1451,188 @@
   </si>
   <si>
     <t>https://github.com/heidsoft/DevOps</t>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orgs/microservices/people</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bess@curationexperts.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chris@cbeer.info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jkeck@stanford.edu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>russ@russmiles.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/russmiles</t>
+  </si>
+  <si>
+    <t>jasonrichardsmith@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/microservices-demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodearth@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wpreul@gmail.com</t>
+  </si>
+  <si>
+    <t>wpreul@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcdonnelldean@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>glenkeane.94@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/senecajs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>martin@etmajer.com</t>
+  </si>
+  <si>
+    <t>asotobu@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.bakker.nl@gmail.com</t>
+  </si>
+  <si>
+    <t>roland@jolokia.org</t>
+  </si>
+  <si>
+    <t>ivar.grimstad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/arun-gupta/microservices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccarneiroj@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/microservices-from-day-one</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin@microservices.agency</t>
+  </si>
+  <si>
+    <t>https://github.com/msagency</t>
+  </si>
+  <si>
+    <t>https://github.com/geek</t>
+  </si>
+  <si>
+    <t>jackson.nic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/nicholasjackson</t>
+  </si>
+  <si>
+    <t>ademagalhaes@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/microservices-api</t>
+  </si>
+  <si>
+    <t>hharnisc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/hharnisc</t>
+  </si>
+  <si>
+    <t>joe8bit@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/microservicesday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnandre.nunes@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/andrecn13</t>
+  </si>
+  <si>
+    <t>namngology@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/geeknam</t>
+  </si>
+  <si>
+    <t>me@lukasmartinelli.ch</t>
+  </si>
+  <si>
+    <t>https://github.com/lukasmartinelli</t>
+  </si>
+  <si>
+    <t>davenkin@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/davenkin</t>
+  </si>
+  <si>
+    <t>https://github.com/redhat-reactive-msa/redhat-reactive-msa</t>
+  </si>
+  <si>
+    <t>gophermonk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/shijuvar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rafabene@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni.ferraro@gmail.com</t>
+  </si>
+  <si>
+    <t>martin@etmajer.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edson@yanaga.com.br</t>
+  </si>
+  <si>
+    <t>https://github.com/redhat-helloworld-msa/api-gateway</t>
+  </si>
+  <si>
+    <t>https://github.com/Mehonoshin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ejabberd@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -1817,7 +1993,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -1844,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" ht="15">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -1872,7 +2048,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -2983,7 +3159,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -3027,7 +3203,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -3065,13 +3241,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E30"/>
+  <dimension ref="B1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E29:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -3238,7 +3414,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="16.5" thickBot="1">
+    <row r="18" spans="2:5" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -3282,7 +3458,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1">
+    <row r="22" spans="2:5" ht="15" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -3359,7 +3535,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16.5" thickBot="1">
+    <row r="29" spans="2:5" ht="15" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -3373,6 +3549,358 @@
       </c>
       <c r="E30" s="6" t="s">
         <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>441</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>441</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" t="s">
+        <v>447</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>441</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>441</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E44" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" t="s">
+        <v>466</v>
+      </c>
+      <c r="E48" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" t="s">
+        <v>468</v>
+      </c>
+      <c r="E49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>441</v>
+      </c>
+      <c r="D50" t="s">
+        <v>470</v>
+      </c>
+      <c r="E50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" t="s">
+        <v>472</v>
+      </c>
+      <c r="E51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" t="s">
+        <v>476</v>
+      </c>
+      <c r="E53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" t="s">
+        <v>478</v>
+      </c>
+      <c r="E54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>441</v>
+      </c>
+      <c r="D55" t="s">
+        <v>480</v>
+      </c>
+      <c r="E55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>441</v>
+      </c>
+      <c r="D56" t="s">
+        <v>482</v>
+      </c>
+      <c r="E56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" thickBot="1">
+      <c r="B57" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" t="s">
+        <v>483</v>
+      </c>
+      <c r="E57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" t="s">
+        <v>490</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>441</v>
+      </c>
+      <c r="D60" t="s">
+        <v>490</v>
+      </c>
+      <c r="E60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>441</v>
+      </c>
+      <c r="D61" t="s">
+        <v>490</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>441</v>
+      </c>
+      <c r="D62" t="s">
+        <v>490</v>
+      </c>
+      <c r="E62" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3381,9 +3909,32 @@
     <hyperlink ref="E19" r:id="rId1" display="mailto:jason.mulligan@avoidwork.com"/>
     <hyperlink ref="E23" r:id="rId2" display="mailto:ryandavidhartman@gmail.com"/>
     <hyperlink ref="E30" r:id="rId3" display="mailto:heidsoft@qq.com"/>
+    <hyperlink ref="D31" r:id="rId4"/>
+    <hyperlink ref="E31" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId6"/>
+    <hyperlink ref="E33" r:id="rId7"/>
+    <hyperlink ref="D32:D33" r:id="rId8" display="https://github.com/orgs/microservices/people"/>
+    <hyperlink ref="E35" r:id="rId9"/>
+    <hyperlink ref="D36" r:id="rId10"/>
+    <hyperlink ref="E37" r:id="rId11"/>
+    <hyperlink ref="E38" r:id="rId12"/>
+    <hyperlink ref="E39" r:id="rId13"/>
+    <hyperlink ref="E40" r:id="rId14"/>
+    <hyperlink ref="D37" r:id="rId15"/>
+    <hyperlink ref="D38:D40" r:id="rId16" display="https://github.com/senecajs"/>
+    <hyperlink ref="D41" r:id="rId17"/>
+    <hyperlink ref="D42:D45" r:id="rId18" display="https://github.com/arun-gupta/microservices"/>
+    <hyperlink ref="D46" r:id="rId19"/>
+    <hyperlink ref="D52" r:id="rId20"/>
+    <hyperlink ref="E58" r:id="rId21" display="mailto:gophermonk@gmail.com"/>
+    <hyperlink ref="D58" r:id="rId22"/>
+    <hyperlink ref="E59" r:id="rId23"/>
+    <hyperlink ref="E61" r:id="rId24"/>
+    <hyperlink ref="D34" r:id="rId25"/>
+    <hyperlink ref="E34" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -3391,11 +3942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -4026,7 +4577,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -4056,7 +4607,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="16680" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="591">
   <si>
     <t>微博账号</t>
   </si>
@@ -1627,13 +1627,320 @@
   <si>
     <t>ejabberd@gmail.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>869827095@qq.com</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/cyfonly/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyfonly</t>
+  </si>
+  <si>
+    <t>492794628@qq.com</t>
+  </si>
+  <si>
+    <t>失足程序员</t>
+  </si>
+  <si>
+    <t>loogn</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/savorboard/p/microservices.html</t>
+  </si>
+  <si>
+    <t>权衡微服务</t>
+  </si>
+  <si>
+    <t>杨晓东</t>
+  </si>
+  <si>
+    <t>沧海一滴</t>
+  </si>
+  <si>
+    <t>初识微服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/quchunhui/p/6127246.html</t>
+  </si>
+  <si>
+    <t>大墨垂杨</t>
+  </si>
+  <si>
+    <t>站内信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindwind</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wuya/p/jhipster-microservice-intro.html</t>
+  </si>
+  <si>
+    <t>向晚</t>
+  </si>
+  <si>
+    <t>jhipser微服务架构介绍</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/davenkin/p/microservices-and-domain-events.html#3671478</t>
+  </si>
+  <si>
+    <t>在微服务中使用领域事件</t>
+  </si>
+  <si>
+    <t>田园里的蟋蟀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/xinxinwang/p/4838347.html</t>
+  </si>
+  <si>
+    <t>欣欣王</t>
+  </si>
+  <si>
+    <t>微服务架构思考</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/oneapm/p/5629579.html</t>
+  </si>
+  <si>
+    <t>如何在Ruby中编写微服务？</t>
+  </si>
+  <si>
+    <t>OneAPM官方技术博客</t>
+  </si>
+  <si>
+    <t>https://home.cnblogs.com/u/java-zhao/</t>
+  </si>
+  <si>
+    <t>赵计刚</t>
+  </si>
+  <si>
+    <t>第二章 微服务架构搭建 + 服务启动注册</t>
+  </si>
+  <si>
+    <t>风的姿态</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/fengzheng/p/5847441.html</t>
+  </si>
+  <si>
+    <t>我所理解的SOA和微服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wintersun/p/5136385.html</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/lazio10000/p/5510852.html#3547163</t>
+  </si>
+  <si>
+    <t>[译]Spring构建微服务</t>
+  </si>
+  <si>
+    <t>lazio</t>
+  </si>
+  <si>
+    <t>407691511@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>793059909@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/ty408/p/6639199.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务--webapi实现，脱离iis，脱离tomcat</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/loogn/p/6664594.html#3667327</t>
+  </si>
+  <si>
+    <t>微服务架构的简单实现-Stardust</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/softidea/p/6700254.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Spring Cloud与Docker微服务架构实战》配套代码</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/mindwind/p/5231986.html</t>
+  </si>
+  <si>
+    <t>Raft 为什么是更易理解的分布式一致性算法</t>
+  </si>
+  <si>
+    <t>微服务与Docker介绍</t>
+  </si>
+  <si>
+    <t>PeterLiu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1738387@qq.com</t>
+  </si>
+  <si>
+    <t>darkprince</t>
+  </si>
+  <si>
+    <t>https://home.cnblogs.com/u/darkprince/</t>
+  </si>
+  <si>
+    <t>基于Docker的CaaS容器云平台架构设计及市场分析</t>
+  </si>
+  <si>
+    <t>yjmyzz@126.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于spring-boot的rest微服务框架</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/yjmyzz/p/spring-boot-rest-framework.html</t>
+  </si>
+  <si>
+    <t>杨俊明</t>
+  </si>
+  <si>
+    <t>Javi.zhu@outlook.com </t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/Javi/p/6649824.html</t>
+  </si>
+  <si>
+    <t>Javi</t>
+  </si>
+  <si>
+    <t>微服务 Micro services</t>
+  </si>
+  <si>
+    <t>isxl@vip.qq.com</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/gudi/p/6686277.html</t>
+  </si>
+  <si>
+    <t>gudi</t>
+  </si>
+  <si>
+    <t>规模化微服务——《微服务设计》读书笔记</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/supernebula/p/6732076.html</t>
+  </si>
+  <si>
+    <t>Joysoul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22257443@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/hk315523748/p/6003268.html</t>
+  </si>
+  <si>
+    <t>微服务架构的分布式事务解决方案</t>
+  </si>
+  <si>
+    <t>qingfeng_Fy</t>
+  </si>
+  <si>
+    <t>站内信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/40406-jun/p/6535443.html</t>
+  </si>
+  <si>
+    <t>解析微服务架构(一)：什么是微服务</t>
+  </si>
+  <si>
+    <t>王党军</t>
+  </si>
+  <si>
+    <t>为什么Docker适合微服务架构？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/luzizhuo/p/4974254.html</t>
+  </si>
+  <si>
+    <t>璐子琢</t>
+  </si>
+  <si>
+    <t>微服务和SOA服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/InCsharp/p/5908160.html</t>
+  </si>
+  <si>
+    <t>疯狂的果子</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/lyl2016/p/5908613.html</t>
+  </si>
+  <si>
+    <t>瞬间永恒成功</t>
+  </si>
+  <si>
+    <t>慎用“微服务”架构</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/gavntery/p/microservice-should-be-used-with-caution.html</t>
+  </si>
+  <si>
+    <t>沙袋</t>
+  </si>
+  <si>
+    <t>战狂粗人张</t>
+  </si>
+  <si>
+    <t>聊聊微服务架构</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/ZJOE80/p/5788351.html</t>
+  </si>
+  <si>
+    <t>我也谈谈微服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/zhukunrong/p/5727587.html</t>
+  </si>
+  <si>
+    <t>祝坤荣</t>
+  </si>
+  <si>
+    <t>Jersey +jetty 实现微服务(一)</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/shouhongxiao/p/5824961.html</t>
+  </si>
+  <si>
+    <t>一点点水</t>
+  </si>
+  <si>
+    <t>如果蜗牛有爱情</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/hehe520/p/6147617.html</t>
+  </si>
+  <si>
+    <t>微服务架构实践感悟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1660,6 +1967,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1692,7 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1706,6 +2019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1993,7 +2307,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -2020,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -2048,7 +2362,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -3159,7 +3473,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -3203,7 +3517,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -3243,11 +3557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -3414,7 +3728,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1">
+    <row r="18" spans="2:5" ht="16.5" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -3458,7 +3772,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -3535,7 +3849,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1">
+    <row r="29" spans="2:5" ht="16.5" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -3837,7 +4151,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -3940,19 +4254,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F34"/>
+  <dimension ref="B1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4517,6 +4831,423 @@
       </c>
       <c r="F34" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="D35" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E35" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="C36" t="s">
+        <v>533</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E36" t="s">
+        <v>497</v>
+      </c>
+      <c r="F36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="C37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D37" t="s">
+        <v>534</v>
+      </c>
+      <c r="E37" t="s">
+        <v>498</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="C38" t="s">
+        <v>500</v>
+      </c>
+      <c r="D38" t="s">
+        <v>499</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="C39" t="s">
+        <v>537</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E39" t="s">
+        <v>502</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="C40" t="s">
+        <v>503</v>
+      </c>
+      <c r="D40" t="s">
+        <v>504</v>
+      </c>
+      <c r="E40" t="s">
+        <v>505</v>
+      </c>
+      <c r="F40" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="C41" t="s">
+        <v>539</v>
+      </c>
+      <c r="D41" t="s">
+        <v>538</v>
+      </c>
+      <c r="E41" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="C42" t="s">
+        <v>510</v>
+      </c>
+      <c r="D42" t="s">
+        <v>508</v>
+      </c>
+      <c r="E42" t="s">
+        <v>509</v>
+      </c>
+      <c r="F42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="C43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D43" t="s">
+        <v>511</v>
+      </c>
+      <c r="E43" t="s">
+        <v>513</v>
+      </c>
+      <c r="F43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="C44" t="s">
+        <v>516</v>
+      </c>
+      <c r="D44" t="s">
+        <v>514</v>
+      </c>
+      <c r="E44" t="s">
+        <v>515</v>
+      </c>
+      <c r="F44" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="C45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D45" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" t="s">
+        <v>519</v>
+      </c>
+      <c r="F45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" t="s">
+        <v>522</v>
+      </c>
+      <c r="D46" t="s">
+        <v>520</v>
+      </c>
+      <c r="E46" t="s">
+        <v>521</v>
+      </c>
+      <c r="F46" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="C47" t="s">
+        <v>525</v>
+      </c>
+      <c r="D47" t="s">
+        <v>524</v>
+      </c>
+      <c r="E47" t="s">
+        <v>523</v>
+      </c>
+      <c r="F47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="C48" t="s">
+        <v>528</v>
+      </c>
+      <c r="D48" t="s">
+        <v>527</v>
+      </c>
+      <c r="E48" t="s">
+        <v>529</v>
+      </c>
+      <c r="F48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" t="s">
+        <v>540</v>
+      </c>
+      <c r="D49" t="s">
+        <v>526</v>
+      </c>
+      <c r="E49" t="s">
+        <v>541</v>
+      </c>
+      <c r="F49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" t="s">
+        <v>545</v>
+      </c>
+      <c r="D50" t="s">
+        <v>544</v>
+      </c>
+      <c r="E50" t="s">
+        <v>543</v>
+      </c>
+      <c r="F50" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D51" t="s">
+        <v>548</v>
+      </c>
+      <c r="E51" t="s">
+        <v>549</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" t="s">
+        <v>553</v>
+      </c>
+      <c r="D52" t="s">
+        <v>551</v>
+      </c>
+      <c r="E52" t="s">
+        <v>552</v>
+      </c>
+      <c r="F52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" t="s">
+        <v>557</v>
+      </c>
+      <c r="D53" t="s">
+        <v>555</v>
+      </c>
+      <c r="E53" t="s">
+        <v>556</v>
+      </c>
+      <c r="F53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" t="s">
+        <v>512</v>
+      </c>
+      <c r="D54" t="s">
+        <v>558</v>
+      </c>
+      <c r="E54" t="s">
+        <v>559</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" t="s">
+        <v>562</v>
+      </c>
+      <c r="D55" t="s">
+        <v>561</v>
+      </c>
+      <c r="E55" t="s">
+        <v>563</v>
+      </c>
+      <c r="F55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" t="s">
+        <v>566</v>
+      </c>
+      <c r="D56" t="s">
+        <v>565</v>
+      </c>
+      <c r="E56" t="s">
+        <v>567</v>
+      </c>
+      <c r="F56" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" t="s">
+        <v>568</v>
+      </c>
+      <c r="D57" t="s">
+        <v>569</v>
+      </c>
+      <c r="E57" t="s">
+        <v>570</v>
+      </c>
+      <c r="F57" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" t="s">
+        <v>571</v>
+      </c>
+      <c r="D58" t="s">
+        <v>572</v>
+      </c>
+      <c r="E58" t="s">
+        <v>573</v>
+      </c>
+      <c r="F58" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" t="s">
+        <v>562</v>
+      </c>
+      <c r="D59" t="s">
+        <v>574</v>
+      </c>
+      <c r="E59" t="s">
+        <v>575</v>
+      </c>
+      <c r="F59" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" t="s">
+        <v>576</v>
+      </c>
+      <c r="D60" t="s">
+        <v>577</v>
+      </c>
+      <c r="E60" t="s">
+        <v>578</v>
+      </c>
+      <c r="F60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" t="s">
+        <v>580</v>
+      </c>
+      <c r="D61" t="s">
+        <v>581</v>
+      </c>
+      <c r="E61" t="s">
+        <v>579</v>
+      </c>
+      <c r="F61" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" t="s">
+        <v>582</v>
+      </c>
+      <c r="D62" t="s">
+        <v>583</v>
+      </c>
+      <c r="E62" t="s">
+        <v>584</v>
+      </c>
+      <c r="F62" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" t="s">
+        <v>585</v>
+      </c>
+      <c r="D63" t="s">
+        <v>586</v>
+      </c>
+      <c r="E63" t="s">
+        <v>587</v>
+      </c>
+      <c r="F63" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" t="s">
+        <v>590</v>
+      </c>
+      <c r="D64" t="s">
+        <v>589</v>
+      </c>
+      <c r="E64" t="s">
+        <v>588</v>
+      </c>
+      <c r="F64" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -4563,9 +5294,17 @@
     <hyperlink ref="D32" r:id="rId39"/>
     <hyperlink ref="D33" r:id="rId40"/>
     <hyperlink ref="D34" r:id="rId41"/>
+    <hyperlink ref="D35" r:id="rId42"/>
+    <hyperlink ref="F37" r:id="rId43"/>
+    <hyperlink ref="F39" r:id="rId44"/>
+    <hyperlink ref="D36" r:id="rId45"/>
+    <hyperlink ref="F38" r:id="rId46"/>
+    <hyperlink ref="D39" r:id="rId47"/>
+    <hyperlink ref="F51" r:id="rId48"/>
+    <hyperlink ref="F54" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -4577,7 +5316,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -4607,7 +5346,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="592">
   <si>
     <t>微博账号</t>
   </si>
@@ -1934,12 +1934,16 @@
   </si>
   <si>
     <t>微服务架构实践感悟</t>
+  </si>
+  <si>
+    <t>博客园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -2307,7 +2311,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -2334,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" ht="15">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -2362,7 +2366,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -3473,7 +3477,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -3517,7 +3521,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -3561,7 +3565,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -3728,7 +3732,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="16.5" thickBot="1">
+    <row r="18" spans="2:5" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1">
+    <row r="22" spans="2:5" ht="15" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16.5" thickBot="1">
+    <row r="29" spans="2:5" ht="15" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1">
+    <row r="57" spans="2:5" ht="15" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -4256,14 +4260,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="39.125" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
@@ -4845,6 +4849,9 @@
       </c>
     </row>
     <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>591</v>
+      </c>
       <c r="C36" t="s">
         <v>533</v>
       </c>
@@ -4859,6 +4866,9 @@
       </c>
     </row>
     <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>591</v>
+      </c>
       <c r="C37" t="s">
         <v>535</v>
       </c>
@@ -4873,6 +4883,9 @@
       </c>
     </row>
     <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>591</v>
+      </c>
       <c r="C38" t="s">
         <v>500</v>
       </c>
@@ -4887,6 +4900,9 @@
       </c>
     </row>
     <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>591</v>
+      </c>
       <c r="C39" t="s">
         <v>537</v>
       </c>
@@ -4901,6 +4917,9 @@
       </c>
     </row>
     <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>591</v>
+      </c>
       <c r="C40" t="s">
         <v>503</v>
       </c>
@@ -4915,6 +4934,9 @@
       </c>
     </row>
     <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>591</v>
+      </c>
       <c r="C41" t="s">
         <v>539</v>
       </c>
@@ -4929,6 +4951,9 @@
       </c>
     </row>
     <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>591</v>
+      </c>
       <c r="C42" t="s">
         <v>510</v>
       </c>
@@ -4943,6 +4968,9 @@
       </c>
     </row>
     <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>591</v>
+      </c>
       <c r="C43" t="s">
         <v>512</v>
       </c>
@@ -4957,6 +4985,9 @@
       </c>
     </row>
     <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>591</v>
+      </c>
       <c r="C44" t="s">
         <v>516</v>
       </c>
@@ -4971,6 +5002,9 @@
       </c>
     </row>
     <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>591</v>
+      </c>
       <c r="C45" t="s">
         <v>518</v>
       </c>
@@ -4985,6 +5019,9 @@
       </c>
     </row>
     <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>591</v>
+      </c>
       <c r="C46" t="s">
         <v>522</v>
       </c>
@@ -4999,6 +5036,9 @@
       </c>
     </row>
     <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>591</v>
+      </c>
       <c r="C47" t="s">
         <v>525</v>
       </c>
@@ -5013,6 +5053,9 @@
       </c>
     </row>
     <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>591</v>
+      </c>
       <c r="C48" t="s">
         <v>528</v>
       </c>
@@ -5026,7 +5069,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>591</v>
+      </c>
       <c r="C49" t="s">
         <v>540</v>
       </c>
@@ -5040,7 +5086,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>591</v>
+      </c>
       <c r="C50" t="s">
         <v>545</v>
       </c>
@@ -5054,7 +5103,10 @@
         <v>542</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>591</v>
+      </c>
       <c r="C51" t="s">
         <v>547</v>
       </c>
@@ -5068,7 +5120,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>591</v>
+      </c>
       <c r="C52" t="s">
         <v>553</v>
       </c>
@@ -5082,7 +5137,10 @@
         <v>550</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>591</v>
+      </c>
       <c r="C53" t="s">
         <v>557</v>
       </c>
@@ -5096,7 +5154,10 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>591</v>
+      </c>
       <c r="C54" t="s">
         <v>512</v>
       </c>
@@ -5110,7 +5171,10 @@
         <v>560</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>591</v>
+      </c>
       <c r="C55" t="s">
         <v>562</v>
       </c>
@@ -5124,7 +5188,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="56" spans="3:6">
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>591</v>
+      </c>
       <c r="C56" t="s">
         <v>566</v>
       </c>
@@ -5138,7 +5205,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>591</v>
+      </c>
       <c r="C57" t="s">
         <v>568</v>
       </c>
@@ -5152,7 +5222,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>591</v>
+      </c>
       <c r="C58" t="s">
         <v>571</v>
       </c>
@@ -5166,7 +5239,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="59" spans="3:6">
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>591</v>
+      </c>
       <c r="C59" t="s">
         <v>562</v>
       </c>
@@ -5180,7 +5256,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>591</v>
+      </c>
       <c r="C60" t="s">
         <v>576</v>
       </c>
@@ -5194,7 +5273,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>591</v>
+      </c>
       <c r="C61" t="s">
         <v>580</v>
       </c>
@@ -5208,7 +5290,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>591</v>
+      </c>
       <c r="C62" t="s">
         <v>582</v>
       </c>
@@ -5222,7 +5307,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>591</v>
+      </c>
       <c r="C63" t="s">
         <v>585</v>
       </c>
@@ -5236,7 +5324,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="3:6">
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>591</v>
+      </c>
       <c r="C64" t="s">
         <v>590</v>
       </c>
@@ -5316,7 +5407,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -5346,7 +5437,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="16680" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="625">
   <si>
     <t>微博账号</t>
   </si>
@@ -1597,346 +1597,477 @@
     <t>https://github.com/redhat-reactive-msa/redhat-reactive-msa</t>
   </si>
   <si>
+    <t>https://github.com/shijuvar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rafabene@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni.ferraro@gmail.com</t>
+  </si>
+  <si>
+    <t>martin@etmajer.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edson@yanaga.com.br</t>
+  </si>
+  <si>
+    <t>https://github.com/redhat-helloworld-msa/api-gateway</t>
+  </si>
+  <si>
+    <t>https://github.com/Mehonoshin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ejabberd@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>869827095@qq.com</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/cyfonly/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyfonly</t>
+  </si>
+  <si>
+    <t>492794628@qq.com</t>
+  </si>
+  <si>
+    <t>失足程序员</t>
+  </si>
+  <si>
+    <t>loogn</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/savorboard/p/microservices.html</t>
+  </si>
+  <si>
+    <t>权衡微服务</t>
+  </si>
+  <si>
+    <t>杨晓东</t>
+  </si>
+  <si>
+    <t>沧海一滴</t>
+  </si>
+  <si>
+    <t>初识微服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/quchunhui/p/6127246.html</t>
+  </si>
+  <si>
+    <t>大墨垂杨</t>
+  </si>
+  <si>
+    <t>站内信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindwind</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wuya/p/jhipster-microservice-intro.html</t>
+  </si>
+  <si>
+    <t>向晚</t>
+  </si>
+  <si>
+    <t>jhipser微服务架构介绍</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/davenkin/p/microservices-and-domain-events.html#3671478</t>
+  </si>
+  <si>
+    <t>在微服务中使用领域事件</t>
+  </si>
+  <si>
+    <t>田园里的蟋蟀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/xinxinwang/p/4838347.html</t>
+  </si>
+  <si>
+    <t>欣欣王</t>
+  </si>
+  <si>
+    <t>微服务架构思考</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/oneapm/p/5629579.html</t>
+  </si>
+  <si>
+    <t>如何在Ruby中编写微服务？</t>
+  </si>
+  <si>
+    <t>OneAPM官方技术博客</t>
+  </si>
+  <si>
+    <t>https://home.cnblogs.com/u/java-zhao/</t>
+  </si>
+  <si>
+    <t>赵计刚</t>
+  </si>
+  <si>
+    <t>第二章 微服务架构搭建 + 服务启动注册</t>
+  </si>
+  <si>
+    <t>风的姿态</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/fengzheng/p/5847441.html</t>
+  </si>
+  <si>
+    <t>我所理解的SOA和微服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wintersun/p/5136385.html</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/lazio10000/p/5510852.html#3547163</t>
+  </si>
+  <si>
+    <t>[译]Spring构建微服务</t>
+  </si>
+  <si>
+    <t>lazio</t>
+  </si>
+  <si>
+    <t>407691511@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>793059909@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/ty408/p/6639199.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务--webapi实现，脱离iis，脱离tomcat</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/loogn/p/6664594.html#3667327</t>
+  </si>
+  <si>
+    <t>微服务架构的简单实现-Stardust</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/softidea/p/6700254.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Spring Cloud与Docker微服务架构实战》配套代码</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/mindwind/p/5231986.html</t>
+  </si>
+  <si>
+    <t>Raft 为什么是更易理解的分布式一致性算法</t>
+  </si>
+  <si>
+    <t>微服务与Docker介绍</t>
+  </si>
+  <si>
+    <t>PeterLiu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1738387@qq.com</t>
+  </si>
+  <si>
+    <t>darkprince</t>
+  </si>
+  <si>
+    <t>https://home.cnblogs.com/u/darkprince/</t>
+  </si>
+  <si>
+    <t>基于Docker的CaaS容器云平台架构设计及市场分析</t>
+  </si>
+  <si>
+    <t>yjmyzz@126.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于spring-boot的rest微服务框架</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/yjmyzz/p/spring-boot-rest-framework.html</t>
+  </si>
+  <si>
+    <t>杨俊明</t>
+  </si>
+  <si>
+    <t>Javi.zhu@outlook.com </t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/Javi/p/6649824.html</t>
+  </si>
+  <si>
+    <t>Javi</t>
+  </si>
+  <si>
+    <t>微服务 Micro services</t>
+  </si>
+  <si>
+    <t>isxl@vip.qq.com</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/gudi/p/6686277.html</t>
+  </si>
+  <si>
+    <t>gudi</t>
+  </si>
+  <si>
+    <t>规模化微服务——《微服务设计》读书笔记</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/supernebula/p/6732076.html</t>
+  </si>
+  <si>
+    <t>Joysoul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22257443@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/hk315523748/p/6003268.html</t>
+  </si>
+  <si>
+    <t>微服务架构的分布式事务解决方案</t>
+  </si>
+  <si>
+    <t>qingfeng_Fy</t>
+  </si>
+  <si>
+    <t>站内信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/40406-jun/p/6535443.html</t>
+  </si>
+  <si>
+    <t>解析微服务架构(一)：什么是微服务</t>
+  </si>
+  <si>
+    <t>王党军</t>
+  </si>
+  <si>
+    <t>为什么Docker适合微服务架构？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/luzizhuo/p/4974254.html</t>
+  </si>
+  <si>
+    <t>璐子琢</t>
+  </si>
+  <si>
+    <t>微服务和SOA服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/InCsharp/p/5908160.html</t>
+  </si>
+  <si>
+    <t>疯狂的果子</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/lyl2016/p/5908613.html</t>
+  </si>
+  <si>
+    <t>瞬间永恒成功</t>
+  </si>
+  <si>
+    <t>慎用“微服务”架构</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/gavntery/p/microservice-should-be-used-with-caution.html</t>
+  </si>
+  <si>
+    <t>沙袋</t>
+  </si>
+  <si>
+    <t>战狂粗人张</t>
+  </si>
+  <si>
+    <t>聊聊微服务架构</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/ZJOE80/p/5788351.html</t>
+  </si>
+  <si>
+    <t>我也谈谈微服务</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/zhukunrong/p/5727587.html</t>
+  </si>
+  <si>
+    <t>祝坤荣</t>
+  </si>
+  <si>
+    <t>Jersey +jetty 实现微服务(一)</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/shouhongxiao/p/5824961.html</t>
+  </si>
+  <si>
+    <t>一点点水</t>
+  </si>
+  <si>
+    <t>如果蜗牛有爱情</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/hehe520/p/6147617.html</t>
+  </si>
+  <si>
+    <t>微服务架构实践感悟</t>
+  </si>
+  <si>
+    <t>博客园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dancarl758@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/DanCarl857</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>michal.brzuchalski@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/brzuchal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.voznenko@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/pvoznenko</t>
+  </si>
+  <si>
+    <t>bburke@redhat.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsigal@redhat.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l.weinan@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>norman.maurer@googlemail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajlyon@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexey.ogarkov@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail@johannes-beck.name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git@meeuw.org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmitry.Bedrin@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abhirockzz@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rafal.osiecki@devlab.pl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arun.neelicattu@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cristitalau@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaoromi@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdeschen@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlad@arkhipov.ru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabian@equivalence.ch</t>
+  </si>
+  <si>
+    <t>mail@lars-francke.de</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sduskis@google.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adam@grummen.net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareddy@jboss.org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleverson.sacramento@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eric.wittmann@redhat.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeroen@hierynomus.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/microservicesinpractice/Resteasy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>gophermonk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/shijuvar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rafabene@gmail.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ni.ferraro@gmail.com</t>
-  </si>
-  <si>
-    <t>martin@etmajer.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>edson@yanaga.com.br</t>
-  </si>
-  <si>
-    <t>https://github.com/redhat-helloworld-msa/api-gateway</t>
-  </si>
-  <si>
-    <t>https://github.com/Mehonoshin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ejabberd@gmail.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>869827095@qq.com</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/cyfonly/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyfonly</t>
-  </si>
-  <si>
-    <t>492794628@qq.com</t>
-  </si>
-  <si>
-    <t>失足程序员</t>
-  </si>
-  <si>
-    <t>loogn</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/savorboard/p/microservices.html</t>
-  </si>
-  <si>
-    <t>权衡微服务</t>
-  </si>
-  <si>
-    <t>杨晓东</t>
-  </si>
-  <si>
-    <t>沧海一滴</t>
-  </si>
-  <si>
-    <t>初识微服务</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/quchunhui/p/6127246.html</t>
-  </si>
-  <si>
-    <t>大墨垂杨</t>
-  </si>
-  <si>
-    <t>站内信</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mindwind</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/wuya/p/jhipster-microservice-intro.html</t>
-  </si>
-  <si>
-    <t>向晚</t>
-  </si>
-  <si>
-    <t>jhipser微服务架构介绍</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/davenkin/p/microservices-and-domain-events.html#3671478</t>
-  </si>
-  <si>
-    <t>在微服务中使用领域事件</t>
-  </si>
-  <si>
-    <t>田园里的蟋蟀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/xinxinwang/p/4838347.html</t>
-  </si>
-  <si>
-    <t>欣欣王</t>
-  </si>
-  <si>
-    <t>微服务架构思考</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/oneapm/p/5629579.html</t>
-  </si>
-  <si>
-    <t>如何在Ruby中编写微服务？</t>
-  </si>
-  <si>
-    <t>OneAPM官方技术博客</t>
-  </si>
-  <si>
-    <t>https://home.cnblogs.com/u/java-zhao/</t>
-  </si>
-  <si>
-    <t>赵计刚</t>
-  </si>
-  <si>
-    <t>第二章 微服务架构搭建 + 服务启动注册</t>
-  </si>
-  <si>
-    <t>风的姿态</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/fengzheng/p/5847441.html</t>
-  </si>
-  <si>
-    <t>我所理解的SOA和微服务</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/wintersun/p/5136385.html</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/lazio10000/p/5510852.html#3547163</t>
-  </si>
-  <si>
-    <t>[译]Spring构建微服务</t>
-  </si>
-  <si>
-    <t>lazio</t>
-  </si>
-  <si>
-    <t>407691511@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>793059909@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/ty408/p/6639199.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务--webapi实现，脱离iis，脱离tomcat</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/loogn/p/6664594.html#3667327</t>
-  </si>
-  <si>
-    <t>微服务架构的简单实现-Stardust</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/softidea/p/6700254.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Spring Cloud与Docker微服务架构实战》配套代码</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/mindwind/p/5231986.html</t>
-  </si>
-  <si>
-    <t>Raft 为什么是更易理解的分布式一致性算法</t>
-  </si>
-  <si>
-    <t>微服务与Docker介绍</t>
-  </si>
-  <si>
-    <t>PeterLiu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1738387@qq.com</t>
-  </si>
-  <si>
-    <t>darkprince</t>
-  </si>
-  <si>
-    <t>https://home.cnblogs.com/u/darkprince/</t>
-  </si>
-  <si>
-    <t>基于Docker的CaaS容器云平台架构设计及市场分析</t>
-  </si>
-  <si>
-    <t>yjmyzz@126.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于spring-boot的rest微服务框架</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/yjmyzz/p/spring-boot-rest-framework.html</t>
-  </si>
-  <si>
-    <t>杨俊明</t>
-  </si>
-  <si>
-    <t>Javi.zhu@outlook.com </t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/Javi/p/6649824.html</t>
-  </si>
-  <si>
-    <t>Javi</t>
-  </si>
-  <si>
-    <t>微服务 Micro services</t>
-  </si>
-  <si>
-    <t>isxl@vip.qq.com</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/gudi/p/6686277.html</t>
-  </si>
-  <si>
-    <t>gudi</t>
-  </si>
-  <si>
-    <t>规模化微服务——《微服务设计》读书笔记</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/supernebula/p/6732076.html</t>
-  </si>
-  <si>
-    <t>Joysoul</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22257443@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/hk315523748/p/6003268.html</t>
-  </si>
-  <si>
-    <t>微服务架构的分布式事务解决方案</t>
-  </si>
-  <si>
-    <t>qingfeng_Fy</t>
-  </si>
-  <si>
-    <t>站内信</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/40406-jun/p/6535443.html</t>
-  </si>
-  <si>
-    <t>解析微服务架构(一)：什么是微服务</t>
-  </si>
-  <si>
-    <t>王党军</t>
-  </si>
-  <si>
-    <t>为什么Docker适合微服务架构？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/luzizhuo/p/4974254.html</t>
-  </si>
-  <si>
-    <t>璐子琢</t>
-  </si>
-  <si>
-    <t>微服务和SOA服务</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/InCsharp/p/5908160.html</t>
-  </si>
-  <si>
-    <t>疯狂的果子</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/lyl2016/p/5908613.html</t>
-  </si>
-  <si>
-    <t>瞬间永恒成功</t>
-  </si>
-  <si>
-    <t>慎用“微服务”架构</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/gavntery/p/microservice-should-be-used-with-caution.html</t>
-  </si>
-  <si>
-    <t>沙袋</t>
-  </si>
-  <si>
-    <t>战狂粗人张</t>
-  </si>
-  <si>
-    <t>聊聊微服务架构</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/ZJOE80/p/5788351.html</t>
-  </si>
-  <si>
-    <t>我也谈谈微服务</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/zhukunrong/p/5727587.html</t>
-  </si>
-  <si>
-    <t>祝坤荣</t>
-  </si>
-  <si>
-    <t>Jersey +jetty 实现微服务(一)</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/shouhongxiao/p/5824961.html</t>
-  </si>
-  <si>
-    <t>一点点水</t>
-  </si>
-  <si>
-    <t>如果蜗牛有爱情</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/hehe520/p/6147617.html</t>
-  </si>
-  <si>
-    <t>微服务架构实践感悟</t>
-  </si>
-  <si>
-    <t>博客园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lutz.huehnken@reactivesystems.eu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/lutzh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3559,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E62"/>
+  <dimension ref="B1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3907,10 +4038,10 @@
         <v>441</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -4171,10 +4302,10 @@
         <v>441</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>484</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -4182,10 +4313,10 @@
         <v>441</v>
       </c>
       <c r="D59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -4193,10 +4324,10 @@
         <v>441</v>
       </c>
       <c r="D60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -4204,10 +4335,10 @@
         <v>441</v>
       </c>
       <c r="D61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -4215,10 +4346,318 @@
         <v>441</v>
       </c>
       <c r="D62" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E62" t="s">
-        <v>489</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>441</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" t="s">
+        <v>596</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>441</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>441</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>441</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>441</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>441</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>441</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>441</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>441</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>441</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>441</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>441</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>441</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>441</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>441</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E82" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>441</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>441</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>441</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>441</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>441</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -4244,15 +4683,47 @@
     <hyperlink ref="D42:D45" r:id="rId18" display="https://github.com/arun-gupta/microservices"/>
     <hyperlink ref="D46" r:id="rId19"/>
     <hyperlink ref="D52" r:id="rId20"/>
-    <hyperlink ref="E58" r:id="rId21" display="mailto:gophermonk@gmail.com"/>
+    <hyperlink ref="E58" r:id="rId21"/>
     <hyperlink ref="D58" r:id="rId22"/>
     <hyperlink ref="E59" r:id="rId23"/>
     <hyperlink ref="E61" r:id="rId24"/>
     <hyperlink ref="D34" r:id="rId25"/>
     <hyperlink ref="E34" r:id="rId26"/>
+    <hyperlink ref="E63" r:id="rId27"/>
+    <hyperlink ref="D63" r:id="rId28"/>
+    <hyperlink ref="E64" r:id="rId29"/>
+    <hyperlink ref="D64" r:id="rId30"/>
+    <hyperlink ref="E65" r:id="rId31"/>
+    <hyperlink ref="E66" r:id="rId32"/>
+    <hyperlink ref="E67" r:id="rId33"/>
+    <hyperlink ref="E68" r:id="rId34"/>
+    <hyperlink ref="E69" r:id="rId35"/>
+    <hyperlink ref="E70" r:id="rId36"/>
+    <hyperlink ref="E71" r:id="rId37"/>
+    <hyperlink ref="E72" r:id="rId38"/>
+    <hyperlink ref="E73" r:id="rId39"/>
+    <hyperlink ref="E74" r:id="rId40"/>
+    <hyperlink ref="E75" r:id="rId41"/>
+    <hyperlink ref="E76" r:id="rId42"/>
+    <hyperlink ref="E77" r:id="rId43"/>
+    <hyperlink ref="E78" r:id="rId44"/>
+    <hyperlink ref="E79" r:id="rId45"/>
+    <hyperlink ref="E80" r:id="rId46"/>
+    <hyperlink ref="E81" r:id="rId47"/>
+    <hyperlink ref="E83" r:id="rId48"/>
+    <hyperlink ref="E84" r:id="rId49"/>
+    <hyperlink ref="E85" r:id="rId50"/>
+    <hyperlink ref="E86" r:id="rId51"/>
+    <hyperlink ref="E87" r:id="rId52"/>
+    <hyperlink ref="E88" r:id="rId53"/>
+    <hyperlink ref="E89" r:id="rId54"/>
+    <hyperlink ref="D66" r:id="rId55"/>
+    <hyperlink ref="D67:D89" r:id="rId56" display="https://github.com/microservicesinpractice/Resteasy"/>
+    <hyperlink ref="E90" r:id="rId57"/>
+    <hyperlink ref="D90" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 
@@ -4260,7 +4731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:B64"/>
     </sheetView>
   </sheetViews>
@@ -4839,61 +5310,61 @@
     </row>
     <row r="35" spans="2:6">
       <c r="D35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" t="s">
         <v>494</v>
       </c>
-      <c r="E35" t="s">
-        <v>495</v>
-      </c>
       <c r="F35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>498</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="D38" t="s">
-        <v>499</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>351</v>
@@ -4901,444 +5372,444 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C40" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" t="s">
         <v>503</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>504</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>505</v>
-      </c>
-      <c r="F40" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D42" t="s">
+        <v>507</v>
+      </c>
+      <c r="E42" t="s">
         <v>508</v>
       </c>
-      <c r="E42" t="s">
-        <v>509</v>
-      </c>
       <c r="F42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C43" t="s">
+        <v>511</v>
+      </c>
+      <c r="D43" t="s">
+        <v>510</v>
+      </c>
+      <c r="E43" t="s">
         <v>512</v>
       </c>
-      <c r="D43" t="s">
-        <v>511</v>
-      </c>
-      <c r="E43" t="s">
-        <v>513</v>
-      </c>
       <c r="F43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C44" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D44" t="s">
+        <v>513</v>
+      </c>
+      <c r="E44" t="s">
         <v>514</v>
       </c>
-      <c r="E44" t="s">
-        <v>515</v>
-      </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45" t="s">
+        <v>516</v>
+      </c>
+      <c r="E45" t="s">
         <v>518</v>
       </c>
-      <c r="D45" t="s">
-        <v>517</v>
-      </c>
-      <c r="E45" t="s">
-        <v>519</v>
-      </c>
       <c r="F45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D46" t="s">
+        <v>519</v>
+      </c>
+      <c r="E46" t="s">
         <v>520</v>
       </c>
-      <c r="E46" t="s">
-        <v>521</v>
-      </c>
       <c r="F46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C48" t="s">
+        <v>527</v>
+      </c>
+      <c r="D48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E48" t="s">
         <v>528</v>
       </c>
-      <c r="D48" t="s">
-        <v>527</v>
-      </c>
-      <c r="E48" t="s">
-        <v>529</v>
-      </c>
       <c r="F48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C49" t="s">
+        <v>539</v>
+      </c>
+      <c r="D49" t="s">
+        <v>525</v>
+      </c>
+      <c r="E49" t="s">
         <v>540</v>
       </c>
-      <c r="D49" t="s">
-        <v>526</v>
-      </c>
-      <c r="E49" t="s">
-        <v>541</v>
-      </c>
       <c r="F49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C51" t="s">
+        <v>546</v>
+      </c>
+      <c r="D51" t="s">
         <v>547</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>548</v>
       </c>
-      <c r="E51" t="s">
-        <v>549</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D52" t="s">
+        <v>550</v>
+      </c>
+      <c r="E52" t="s">
         <v>551</v>
       </c>
-      <c r="E52" t="s">
-        <v>552</v>
-      </c>
       <c r="F52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D53" t="s">
+        <v>554</v>
+      </c>
+      <c r="E53" t="s">
         <v>555</v>
       </c>
-      <c r="E53" t="s">
-        <v>556</v>
-      </c>
       <c r="F53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D54" t="s">
+        <v>557</v>
+      </c>
+      <c r="E54" t="s">
         <v>558</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C55" t="s">
+        <v>561</v>
+      </c>
+      <c r="D55" t="s">
+        <v>560</v>
+      </c>
+      <c r="E55" t="s">
         <v>562</v>
       </c>
-      <c r="D55" t="s">
-        <v>561</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>563</v>
-      </c>
-      <c r="F55" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C56" t="s">
+        <v>565</v>
+      </c>
+      <c r="D56" t="s">
+        <v>564</v>
+      </c>
+      <c r="E56" t="s">
         <v>566</v>
       </c>
-      <c r="D56" t="s">
-        <v>565</v>
-      </c>
-      <c r="E56" t="s">
-        <v>567</v>
-      </c>
       <c r="F56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C57" t="s">
+        <v>567</v>
+      </c>
+      <c r="D57" t="s">
         <v>568</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>569</v>
       </c>
-      <c r="E57" t="s">
-        <v>570</v>
-      </c>
       <c r="F57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C58" t="s">
+        <v>570</v>
+      </c>
+      <c r="D58" t="s">
         <v>571</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>572</v>
       </c>
-      <c r="E58" t="s">
-        <v>573</v>
-      </c>
       <c r="F58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C59" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D59" t="s">
+        <v>573</v>
+      </c>
+      <c r="E59" t="s">
         <v>574</v>
       </c>
-      <c r="E59" t="s">
-        <v>575</v>
-      </c>
       <c r="F59" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C60" t="s">
+        <v>575</v>
+      </c>
+      <c r="D60" t="s">
         <v>576</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>577</v>
       </c>
-      <c r="E60" t="s">
-        <v>578</v>
-      </c>
       <c r="F60" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C61" t="s">
+        <v>579</v>
+      </c>
+      <c r="D61" t="s">
         <v>580</v>
       </c>
-      <c r="D61" t="s">
-        <v>581</v>
-      </c>
       <c r="E61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C62" t="s">
+        <v>581</v>
+      </c>
+      <c r="D62" t="s">
         <v>582</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>583</v>
       </c>
-      <c r="E62" t="s">
-        <v>584</v>
-      </c>
       <c r="F62" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C63" t="s">
+        <v>584</v>
+      </c>
+      <c r="D63" t="s">
         <v>585</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>586</v>
       </c>
-      <c r="E63" t="s">
-        <v>587</v>
-      </c>
       <c r="F63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="17610" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="656">
   <si>
     <t>微博账号</t>
   </si>
@@ -2069,13 +2069,109 @@
   <si>
     <t>https://github.com/lutzh</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiashengjie2014@126.com</t>
+  </si>
+  <si>
+    <t>Jackersons</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u013816709/article/details/70240151</t>
+  </si>
+  <si>
+    <t>MicroService 微服务架构模式简述</t>
+  </si>
+  <si>
+    <t>刘迎光</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/gsying1474/article/details/70226961?locationNum=8&amp;fps=1</t>
+  </si>
+  <si>
+    <t>微服务指南走北（四）：你不愿意做微服务架构的十个理由</t>
+  </si>
+  <si>
+    <t>liuyg@liuyingguang.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>linlzk@163.com</t>
+  </si>
+  <si>
+    <t>林志K</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/linlzk/article/details/65630678</t>
+  </si>
+  <si>
+    <t>部署微服务：Spring Cloud vs. Kubernetes</t>
+  </si>
+  <si>
+    <t>247697090@qq.com</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u010820702/article/details/62434385?locationNum=5&amp;fps=1</t>
+  </si>
+  <si>
+    <t>Spring Cloud 基于eureka 服务注册中心</t>
+  </si>
+  <si>
+    <t>it小奋</t>
+  </si>
+  <si>
+    <t>jjm1437@163.com</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/jjm1437/article/details/64440683</t>
+  </si>
+  <si>
+    <t>我理解的微服务</t>
+  </si>
+  <si>
+    <t>chenlin2@ms9.hinet.net</t>
+  </si>
+  <si>
+    <t>chenjaulin</t>
+  </si>
+  <si>
+    <t>在Bluemix 使用OpenWhisk &amp; Node-red 開發Event-Driven 應用系</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/chenjaulin/article/details/51818148?locationNum=1&amp;fps=1</t>
+  </si>
+  <si>
+    <t>a05111993@163.com</t>
+  </si>
+  <si>
+    <t>唯鹿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retrofit结合RxJava使用说明</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/qq_17766199/article/details/50932687?locationNum=2&amp;fps=1</t>
+  </si>
+  <si>
+    <t>zhanglong217[at]yahoo.com.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张龙</t>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2013/12/micro-service-architecture</t>
+  </si>
+  <si>
+    <t>微服务架构解析</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2109,6 +2205,26 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2140,7 +2256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2155,6 +2271,9 @@
       <alignment vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2442,7 +2561,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -2469,7 +2588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -2497,7 +2616,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -3608,7 +3727,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -3652,7 +3771,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -3692,11 +3811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -3863,7 +3982,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1">
+    <row r="18" spans="2:5" ht="16.5" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -3907,7 +4026,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -3984,7 +4103,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1">
+    <row r="29" spans="2:5" ht="16.5" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -4286,7 +4405,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -4729,18 +4848,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F64"/>
+  <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B64"/>
+    <sheetView tabSelected="1" topLeftCell="E61" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="4" max="4" width="54.125" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
@@ -5810,6 +5929,118 @@
       </c>
       <c r="F64" t="s">
         <v>563</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="16.5">
+      <c r="C65" t="s">
+        <v>628</v>
+      </c>
+      <c r="D65" t="s">
+        <v>627</v>
+      </c>
+      <c r="E65" t="s">
+        <v>626</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="16.5">
+      <c r="C66" t="s">
+        <v>631</v>
+      </c>
+      <c r="D66" t="s">
+        <v>630</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="16.5">
+      <c r="C67" t="s">
+        <v>636</v>
+      </c>
+      <c r="D67" t="s">
+        <v>635</v>
+      </c>
+      <c r="E67" t="s">
+        <v>634</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="16.5">
+      <c r="C68" t="s">
+        <v>639</v>
+      </c>
+      <c r="D68" t="s">
+        <v>638</v>
+      </c>
+      <c r="E68" t="s">
+        <v>640</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="16.5">
+      <c r="C69" t="s">
+        <v>643</v>
+      </c>
+      <c r="D69" t="s">
+        <v>642</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="16.5">
+      <c r="C70" t="s">
+        <v>646</v>
+      </c>
+      <c r="D70" t="s">
+        <v>647</v>
+      </c>
+      <c r="E70" t="s">
+        <v>645</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="16.5">
+      <c r="C71" t="s">
+        <v>650</v>
+      </c>
+      <c r="D71" t="s">
+        <v>651</v>
+      </c>
+      <c r="E71" t="s">
+        <v>649</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" t="s">
+        <v>655</v>
+      </c>
+      <c r="D72" t="s">
+        <v>654</v>
+      </c>
+      <c r="E72" t="s">
+        <v>653</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -5864,9 +6095,10 @@
     <hyperlink ref="D39" r:id="rId47"/>
     <hyperlink ref="F51" r:id="rId48"/>
     <hyperlink ref="F54" r:id="rId49"/>
+    <hyperlink ref="F66" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -5878,7 +6110,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -5908,7 +6140,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="668">
   <si>
     <t>微博账号</t>
   </si>
@@ -2068,6 +2068,178 @@
   </si>
   <si>
     <t>https://github.com/lutzh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/alextanhongpin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alextan220990@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/HaiTo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thewordr2.ver.xes@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/DanCarl857</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dancarl758@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/brzuchal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>michal.brzuchalski@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chris@joywebb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>morgan@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nijikokun@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shashi@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aghi@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrico@theetrain.ca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marco@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thijs@thijsschreijer.nl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-nodejs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nijikokun@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahmad@ahmadnassri.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-nodejs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maan.harry@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>niusheng@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schranz.m@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marco@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>felix@erbridge.co.uk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>srushti@ambekallu.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>steven.edouard1@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>davidjanes@iotdb.org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mot@mot.la</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>andreykvital@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikko@nikkobautista.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quentin.pleple@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>falundir@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kieran@gifs.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsullivan09@gmail.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3690,10 +3862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E90"/>
+  <dimension ref="B1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4658,6 +4830,336 @@
       </c>
       <c r="E90" s="1" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>625</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>628</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>631</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>634</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>634</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>634</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>634</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>634</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>631</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>631</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>628</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>628</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>628</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>628</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>631</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>631</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>631</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>631</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>631</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>631</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>631</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>631</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>631</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>631</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>631</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>631</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>631</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>631</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
+        <v>631</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" t="s">
+        <v>631</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -4721,9 +5223,49 @@
     <hyperlink ref="D67:D89" r:id="rId56" display="https://github.com/microservicesinpractice/Resteasy"/>
     <hyperlink ref="E90" r:id="rId57"/>
     <hyperlink ref="D90" r:id="rId58"/>
+    <hyperlink ref="E91" r:id="rId59"/>
+    <hyperlink ref="D91" r:id="rId60"/>
+    <hyperlink ref="E92" r:id="rId61"/>
+    <hyperlink ref="D92" r:id="rId62"/>
+    <hyperlink ref="E93" r:id="rId63"/>
+    <hyperlink ref="D93" r:id="rId64"/>
+    <hyperlink ref="E94" r:id="rId65"/>
+    <hyperlink ref="D94" r:id="rId66"/>
+    <hyperlink ref="E95" r:id="rId67"/>
+    <hyperlink ref="D95" r:id="rId68"/>
+    <hyperlink ref="E96" r:id="rId69"/>
+    <hyperlink ref="E97" r:id="rId70"/>
+    <hyperlink ref="E98" r:id="rId71"/>
+    <hyperlink ref="E100" r:id="rId72"/>
+    <hyperlink ref="E101" r:id="rId73"/>
+    <hyperlink ref="E102" r:id="rId74"/>
+    <hyperlink ref="D96:D102" r:id="rId75" display="https://github.com/Mashape"/>
+    <hyperlink ref="E103" r:id="rId76"/>
+    <hyperlink ref="E104" r:id="rId77"/>
+    <hyperlink ref="E105" r:id="rId78"/>
+    <hyperlink ref="E106" r:id="rId79"/>
+    <hyperlink ref="E107" r:id="rId80"/>
+    <hyperlink ref="E108" r:id="rId81"/>
+    <hyperlink ref="E109" r:id="rId82"/>
+    <hyperlink ref="E110" r:id="rId83"/>
+    <hyperlink ref="E111" r:id="rId84"/>
+    <hyperlink ref="E112" r:id="rId85"/>
+    <hyperlink ref="E113" r:id="rId86"/>
+    <hyperlink ref="D103" r:id="rId87"/>
+    <hyperlink ref="D104:D113" r:id="rId88" display="https://github.com/Mashape/unirest-nodejs"/>
+    <hyperlink ref="E114" r:id="rId89"/>
+    <hyperlink ref="E115" r:id="rId90"/>
+    <hyperlink ref="E116" r:id="rId91"/>
+    <hyperlink ref="E117" r:id="rId92"/>
+    <hyperlink ref="E118" r:id="rId93"/>
+    <hyperlink ref="E119" r:id="rId94"/>
+    <hyperlink ref="E120" r:id="rId95"/>
+    <hyperlink ref="D114" r:id="rId96"/>
+    <hyperlink ref="D115:D120" r:id="rId97" display="https://github.com/Mashape/unirest-php"/>
+    <hyperlink ref="E99" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
 

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="18540" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="698">
   <si>
     <t>微博账号</t>
   </si>
@@ -2165,13 +2165,178 @@
   </si>
   <si>
     <t>微服务架构解析</t>
+  </si>
+  <si>
+    <t>campergue@campergue.de</t>
+  </si>
+  <si>
+    <t>wesolveitsolutions.hr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Campergue</t>
+  </si>
+  <si>
+    <t>https://github.com/wesolveitsolutions</t>
+  </si>
+  <si>
+    <t>ryan.bolton-smith@zopa.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ryanbolton92</t>
+  </si>
+  <si>
+    <t>kusum@calance.com</t>
+  </si>
+  <si>
+    <t>https://github.com/kusumgaur</t>
+  </si>
+  <si>
+    <t>sanjeebbose@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>https://github.com/sanjeebbose</t>
+  </si>
+  <si>
+    <t>kristof@schockaertks.com</t>
+  </si>
+  <si>
+    <t>https://github.com/schockaertks</t>
+  </si>
+  <si>
+    <t>Bmistry1818@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Bmistry1818</t>
+  </si>
+  <si>
+    <t> stan001212@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/rooby-lang</t>
+  </si>
+  <si>
+    <t>steinegger@kit.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/steineggerroland</t>
+  </si>
+  <si>
+    <t>michal@e-szafranski.com</t>
+  </si>
+  <si>
+    <t>https://github.com/mobilesoftwarecreate</t>
+  </si>
+  <si>
+    <t>airdata@abv.bg</t>
+  </si>
+  <si>
+    <t>https://github.com/airdata</t>
+  </si>
+  <si>
+    <t>waajid21@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://github.com/waajid21</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorfuleco@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/pilotown</t>
+  </si>
+  <si>
+    <t>hitechdinesh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/dineshtripathi</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nick@squeezer.io</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/SqueezerIO</t>
+  </si>
+  <si>
+    <t>dwaip@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://github.com/dwai1714</t>
+  </si>
+  <si>
+    <t>https://github.com/demichev78</t>
+  </si>
+  <si>
+    <t>demichev@gmail.com</t>
+  </si>
+  <si>
+    <t> aetherboard@daemon.co.za</t>
+  </si>
+  <si>
+    <t>https://github.com/AetherBoard</t>
+  </si>
+  <si>
+    <t>https://github.com/chandantp</t>
+  </si>
+  <si>
+    <t>chandan.tp@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hello@thisissoon.com</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/thisissoon-fm</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeli11</t>
+  </si>
+  <si>
+    <t>mikejlyh@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2225,6 +2390,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2256,7 +2429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2274,6 +2447,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3809,10 +3988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E90"/>
+  <dimension ref="B1:E113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E113" sqref="E91:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4768,7 +4947,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" ht="16.5" thickBot="1">
       <c r="B90" t="s">
         <v>441</v>
       </c>
@@ -4777,6 +4956,190 @@
       </c>
       <c r="E90" s="1" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="16.5" thickBot="1">
+      <c r="D91" t="s">
+        <v>658</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="16.5" thickBot="1">
+      <c r="D92" t="s">
+        <v>659</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="16.5" thickBot="1">
+      <c r="D93" t="s">
+        <v>661</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="16.5" thickBot="1">
+      <c r="D94" t="s">
+        <v>663</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="D95" t="s">
+        <v>665</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="D96" t="s">
+        <v>667</v>
+      </c>
+      <c r="E96" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97" t="s">
+        <v>669</v>
+      </c>
+      <c r="E97" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" t="s">
+        <v>667</v>
+      </c>
+      <c r="E98" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" t="s">
+        <v>671</v>
+      </c>
+      <c r="E99" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" t="s">
+        <v>669</v>
+      </c>
+      <c r="E100" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" t="s">
+        <v>673</v>
+      </c>
+      <c r="E101" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" ht="16.5" thickBot="1">
+      <c r="D102" t="s">
+        <v>675</v>
+      </c>
+      <c r="E102" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" ht="16.5" thickBot="1">
+      <c r="D103" t="s">
+        <v>677</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104" t="s">
+        <v>679</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" ht="16.5" thickBot="1">
+      <c r="D105" t="s">
+        <v>681</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="D106" t="s">
+        <v>683</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" ht="16.5" thickBot="1">
+      <c r="D107" t="s">
+        <v>685</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="D108" t="s">
+        <v>688</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5">
+      <c r="D109" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" ht="16.5" thickBot="1">
+      <c r="D110" t="s">
+        <v>691</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="D111" t="s">
+        <v>692</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" ht="16.5" thickBot="1">
+      <c r="D112" t="s">
+        <v>695</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" t="s">
+        <v>696</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -4840,9 +5203,24 @@
     <hyperlink ref="D67:D89" r:id="rId56" display="https://github.com/microservicesinpractice/Resteasy"/>
     <hyperlink ref="E90" r:id="rId57"/>
     <hyperlink ref="D90" r:id="rId58"/>
+    <hyperlink ref="E91" r:id="rId59" display="mailto:campergue@campergue.de"/>
+    <hyperlink ref="E92" r:id="rId60" display="mailto:wesolveitsolutions.hr@gmail.com"/>
+    <hyperlink ref="E93" r:id="rId61" display="mailto:ryan.bolton-smith@zopa.com"/>
+    <hyperlink ref="E94" r:id="rId62" display="mailto:kusum@calance.com"/>
+    <hyperlink ref="E95" r:id="rId63" display="mailto:sanjeebbose@yahoo.co.in"/>
+    <hyperlink ref="E103" r:id="rId64" display="mailto:airdata@abv.bg"/>
+    <hyperlink ref="E104" r:id="rId65" display="mailto:waajid21@yahoo.com"/>
+    <hyperlink ref="E105" r:id="rId66" display="mailto:colorfuleco@gmail.com"/>
+    <hyperlink ref="E106" r:id="rId67" display="mailto:hitechdinesh@gmail.com"/>
+    <hyperlink ref="E107" r:id="rId68" display="mailto:nick@squeezer.io"/>
+    <hyperlink ref="E108" r:id="rId69" display="mailto:demichev@gmail.com"/>
+    <hyperlink ref="E110" r:id="rId70" display="mailto:aetherboard@daemon.co.za"/>
+    <hyperlink ref="E111" r:id="rId71" display="mailto:chandan.tp@gmail.com"/>
+    <hyperlink ref="E112" r:id="rId72" display="mailto:hello@thisissoon.com"/>
+    <hyperlink ref="E113" r:id="rId73" display="mailto:mikejlyh@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
 
@@ -4850,7 +5228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" workbookViewId="0">
+    <sheetView topLeftCell="E61" workbookViewId="0">
       <selection activeCell="F65" sqref="F65:F72"/>
     </sheetView>
   </sheetViews>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="17610" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="815">
   <si>
     <t>微博账号</t>
   </si>
@@ -2071,172 +2071,330 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>jiashengjie2014@126.com</t>
-  </si>
-  <si>
-    <t>Jackersons</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/u013816709/article/details/70240151</t>
-  </si>
-  <si>
-    <t>MicroService 微服务架构模式简述</t>
-  </si>
-  <si>
-    <t>刘迎光</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/gsying1474/article/details/70226961?locationNum=8&amp;fps=1</t>
-  </si>
-  <si>
-    <t>微服务指南走北（四）：你不愿意做微服务架构的十个理由</t>
-  </si>
-  <si>
-    <t>liuyg@liuyingguang.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>linlzk@163.com</t>
-  </si>
-  <si>
-    <t>林志K</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/linlzk/article/details/65630678</t>
-  </si>
-  <si>
-    <t>部署微服务：Spring Cloud vs. Kubernetes</t>
-  </si>
-  <si>
-    <t>247697090@qq.com</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/u010820702/article/details/62434385?locationNum=5&amp;fps=1</t>
-  </si>
-  <si>
-    <t>Spring Cloud 基于eureka 服务注册中心</t>
-  </si>
-  <si>
-    <t>it小奋</t>
-  </si>
-  <si>
-    <t>jjm1437@163.com</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/jjm1437/article/details/64440683</t>
-  </si>
-  <si>
-    <t>我理解的微服务</t>
-  </si>
-  <si>
-    <t>chenlin2@ms9.hinet.net</t>
-  </si>
-  <si>
-    <t>chenjaulin</t>
-  </si>
-  <si>
-    <t>在Bluemix 使用OpenWhisk &amp; Node-red 開發Event-Driven 應用系</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/chenjaulin/article/details/51818148?locationNum=1&amp;fps=1</t>
-  </si>
-  <si>
-    <t>a05111993@163.com</t>
-  </si>
-  <si>
-    <t>唯鹿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retrofit结合RxJava使用说明</t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/qq_17766199/article/details/50932687?locationNum=2&amp;fps=1</t>
-  </si>
-  <si>
-    <t>zhanglong217[at]yahoo.com.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张龙</t>
-  </si>
-  <si>
-    <t>http://www.infoq.com/cn/news/2013/12/micro-service-architecture</t>
-  </si>
-  <si>
-    <t>微服务架构解析</t>
-  </si>
-  <si>
-    <t>campergue@campergue.de</t>
-  </si>
-  <si>
-    <t>wesolveitsolutions.hr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/Campergue</t>
-  </si>
-  <si>
-    <t>https://github.com/wesolveitsolutions</t>
-  </si>
-  <si>
-    <t>ryan.bolton-smith@zopa.com</t>
-  </si>
-  <si>
-    <t>https://github.com/ryanbolton92</t>
-  </si>
-  <si>
-    <t>kusum@calance.com</t>
-  </si>
-  <si>
-    <t>https://github.com/kusumgaur</t>
-  </si>
-  <si>
-    <t>sanjeebbose@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>https://github.com/sanjeebbose</t>
-  </si>
-  <si>
-    <t>kristof@schockaertks.com</t>
-  </si>
-  <si>
-    <t>https://github.com/schockaertks</t>
-  </si>
-  <si>
-    <t>Bmistry1818@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/Bmistry1818</t>
-  </si>
-  <si>
-    <t> stan001212@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/rooby-lang</t>
-  </si>
-  <si>
-    <t>steinegger@kit.edu</t>
-  </si>
-  <si>
-    <t>https://github.com/steineggerroland</t>
-  </si>
-  <si>
-    <t>michal@e-szafranski.com</t>
-  </si>
-  <si>
-    <t>https://github.com/mobilesoftwarecreate</t>
-  </si>
-  <si>
-    <t>airdata@abv.bg</t>
-  </si>
-  <si>
-    <t>https://github.com/airdata</t>
-  </si>
-  <si>
-    <t>waajid21@yahoo.com</t>
-  </si>
-  <si>
-    <t>https://github.com/waajid21</t>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/alextanhongpin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alextan220990@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/HaiTo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thewordr2.ver.xes@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/DanCarl857</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dancarl758@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/brzuchal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>michal.brzuchalski@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chris@joywebb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>morgan@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nijikokun@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shashi@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aghi@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrico@theetrain.ca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marco@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thijs@thijsschreijer.nl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-nodejs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nijikokun@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahmad@ahmadnassri.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-nodejs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maan.harry@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>niusheng@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schranz.m@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marco@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>felix@erbridge.co.uk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>srushti@ambekallu.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>steven.edouard1@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>davidjanes@iotdb.org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mot@mot.la</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>andreykvital@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikko@nikkobautista.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quentin.pleple@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>falundir@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kieran@gifs.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsullivan09@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rinkuvatscs</t>
+  </si>
+  <si>
+    <t> rinkuvatscs@gmail.com------</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/fals</t>
+  </si>
+  <si>
+    <t>fals.xp@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/pchamakura</t>
+  </si>
+  <si>
+    <t>preetham_reddy@hotmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/actolap</t>
+  </si>
+  <si>
+    <t>udit@actolap.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ReaperUnreal</t>
+  </si>
+  <si>
+    <t>guillaumecl@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/edwardjrp</t>
+  </si>
+  <si>
+    <t>edwardjrp@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/pssilva</t>
+  </si>
+  <si>
+    <t>pss1suporte@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/dalareo</t>
+  </si>
+  <si>
+    <t>dalareo@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/freirejuan</t>
+  </si>
+  <si>
+    <t>juan.freire@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/fitz123</t>
+  </si>
+  <si>
+    <t>anton.lugovoi@outlook.com</t>
+  </si>
+  <si>
+    <t>https://github.com/humbe1984</t>
+  </si>
+  <si>
+    <t>humbe1984@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/dmtr</t>
+  </si>
+  <si>
+    <t>podotkos@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/tndavidson</t>
+  </si>
+  <si>
+    <t>tndavidson@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/chaokunyang</t>
+  </si>
+  <si>
+    <t>chaokunyang@qq.com</t>
+  </si>
+  <si>
+    <t>https://github.com/joshgillies</t>
+  </si>
+  <si>
+    <t>github@josh.gl</t>
+  </si>
+  <si>
+    <t>https://github.com/SomeoneWeird</t>
+  </si>
+  <si>
+    <t>adam@boxxen.org</t>
+  </si>
+  <si>
+    <t>https://github.com/davefreitag</t>
+  </si>
+  <si>
+    <t>dcfreita@us.ibm.com</t>
+  </si>
+  <si>
+    <t>https://github.com/malyalal</t>
+  </si>
+  <si>
+    <t>latha.malyala@centrica.com</t>
+  </si>
+  <si>
+    <t>https://github.com/kjanshair</t>
+  </si>
+  <si>
+    <t>kjanshair@outlook.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ochoaluis92</t>
+  </si>
+  <si>
+    <t>ochoaluis92@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/stephank</t>
+  </si>
+  <si>
+    <t>gh@stephank.nl</t>
+  </si>
+  <si>
+    <t>https://github.com/skorokithakis</t>
+  </si>
+  <si>
+    <t>hi@stavros.io</t>
+  </si>
+  <si>
+    <t>https://github.com/onli</t>
+  </si>
+  <si>
+    <t>onli@paskuda.biz</t>
+  </si>
+  <si>
+    <t>https://github.com/jleclanche</t>
+  </si>
+  <si>
+    <t>jerome@leclan.ch</t>
+  </si>
+  <si>
+    <t>https://github.com/buro9</t>
+  </si>
+  <si>
+    <t>whois@david.kitchen</t>
+  </si>
+  <si>
+    <t>https://github.com/redhat-dotnet-msa</t>
   </si>
   <si>
     <r>
@@ -2251,17 +2409,169 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>colorfuleco@gmail.com</t>
+      <t>dschenck@redhat.com</t>
     </r>
   </si>
   <si>
-    <t>https://github.com/pilotown</t>
-  </si>
-  <si>
-    <t>hitechdinesh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/dineshtripathi</t>
+    <t>https://github.com/rmzoni</t>
+  </si>
+  <si>
+    <t>rmzoni@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/scottcrespo</t>
+  </si>
+  <si>
+    <t>screspo@highcornergroup.com</t>
+  </si>
+  <si>
+    <t>https://github.com/devframe</t>
+  </si>
+  <si>
+    <t>david.sun@devframe.org</t>
+  </si>
+  <si>
+    <t>https://github.com/olafmol</t>
+  </si>
+  <si>
+    <t>olaf@magnetic.io</t>
+  </si>
+  <si>
+    <t>https://github.com/hottelet</t>
+  </si>
+  <si>
+    <t>info@technologyventureslimited.com;‎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/aaron-hsu</t>
+  </si>
+  <si>
+    <t>ice.aaron@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/cloudade</t>
+  </si>
+  <si>
+    <t>yohany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/sunys99</t>
+  </si>
+  <si>
+    <t>https://github.com/knasim</t>
+  </si>
+  <si>
+    <t>khurrum.nasim@quadrature.io</t>
+  </si>
+  <si>
+    <t>https://github.com/nbuechler</t>
+  </si>
+  <si>
+    <t>natebuechler@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ssharma</t>
+  </si>
+  <si>
+    <t>sharmasiddharth@hotmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/nishina555</t>
+  </si>
+  <si>
+    <t>n.toshi.1.014@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@technologyventureslimited.com </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/stojanovic</t>
+  </si>
+  <si>
+    <t>slobodan@cloudhorizon.com</t>
+  </si>
+  <si>
+    <t>https://github.com/simalexan</t>
+  </si>
+  <si>
+    <t>alexander.simovic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/gonet2</t>
+  </si>
+  <si>
+    <t>459420581@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/marcelosv</t>
+  </si>
+  <si>
+    <t>marcelosouzav@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/reasn</t>
+  </si>
+  <si>
+    <t>me@alexthiel.de</t>
+  </si>
+  <si>
+    <t>https://github.com/dan9186</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dan9186@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/nirnanaaa</t>
+  </si>
+  <si>
+    <t>mosny@zyg.li</t>
+  </si>
+  <si>
+    <t>https://github.com/yunspace</t>
+  </si>
+  <si>
+    <t>yun@yunspace.com</t>
+  </si>
+  <si>
+    <t>https://github.com/geek</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/mcdonnelldean</t>
+  </si>
+  <si>
+    <t>mcdonnelldean@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/thekemkid</t>
+  </si>
+  <si>
+    <t>glenkeane.94@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ldemailly</t>
+  </si>
+  <si>
+    <t>ldemailly@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/liamawhite</t>
+  </si>
+  <si>
+    <t>liamwhite@uk.ibm.com</t>
+  </si>
+  <si>
+    <t>https://github.com/kodizant</t>
+  </si>
+  <si>
+    <t>aahmad1811@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/GoACK</t>
   </si>
   <si>
     <r>
@@ -2276,60 +2586,138 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nick@squeezer.io</t>
+      <t>yamiodymel@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>https://github.com/SqueezerIO</t>
-  </si>
-  <si>
-    <t>dwaip@yahoo.com</t>
-  </si>
-  <si>
-    <t>https://github.com/dwai1714</t>
-  </si>
-  <si>
-    <t>https://github.com/demichev78</t>
-  </si>
-  <si>
-    <t>demichev@gmail.com</t>
-  </si>
-  <si>
-    <t> aetherboard@daemon.co.za</t>
-  </si>
-  <si>
-    <t>https://github.com/AetherBoard</t>
-  </si>
-  <si>
-    <t>https://github.com/chandantp</t>
-  </si>
-  <si>
-    <t>chandan.tp@gmail.com</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hello@thisissoon.com</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/thisissoon-fm</t>
-  </si>
-  <si>
-    <t>https://github.com/mikeli11</t>
-  </si>
-  <si>
-    <t>mikejlyh@gmail.com</t>
+    <t>https://github.com/gvenkat650</t>
+  </si>
+  <si>
+    <t>gvenkat650@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/FedeG</t>
+  </si>
+  <si>
+    <t>federicogonzalez761@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/madnificent</t>
+  </si>
+  <si>
+    <t>madnificent@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/langens-jonathan</t>
+  </si>
+  <si>
+    <t>flowofcontrol@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/erikap</t>
+  </si>
+  <si>
+    <t>erika.pauwels@gmail.com</t>
+  </si>
+  <si>
+    <t>MicroService 微服务架构模式简述</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u013816709/article/details/70240151</t>
+  </si>
+  <si>
+    <t>Jackersons</t>
+  </si>
+  <si>
+    <t>jiashengjie2014@126.com</t>
+  </si>
+  <si>
+    <t>微服务指南走北（四）：你不愿意做微服务架构的十个理由</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/gsying1474/article/details/70226961?locationNum=8&amp;fps=1</t>
+  </si>
+  <si>
+    <t>刘迎光</t>
+  </si>
+  <si>
+    <t>liuyg@liuyingguang.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署微服务：Spring Cloud vs. Kubernetes</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/linlzk/article/details/65630678</t>
+  </si>
+  <si>
+    <t>林志K</t>
+  </si>
+  <si>
+    <t>linlzk@163.com</t>
+  </si>
+  <si>
+    <t>Spring Cloud 基于eureka 服务注册中心</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u010820702/article/details/62434385?locationNum=5&amp;fps=1</t>
+  </si>
+  <si>
+    <t>it小奋</t>
+  </si>
+  <si>
+    <t>247697090@qq.com</t>
+  </si>
+  <si>
+    <t>我理解的微服务</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/jjm1437/article/details/64440683</t>
+  </si>
+  <si>
+    <t>jjm1437@163.com</t>
+  </si>
+  <si>
+    <t>在Bluemix 使用OpenWhisk &amp; Node-red 開發Event-Driven 應用系</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/chenjaulin/article/details/51818148?locationNum=1&amp;fps=1</t>
+  </si>
+  <si>
+    <t>chenjaulin</t>
+  </si>
+  <si>
+    <t>chenlin2@ms9.hinet.net</t>
+  </si>
+  <si>
+    <t>Retrofit结合RxJava使用说明</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/qq_17766199/article/details/50932687?locationNum=2&amp;fps=1</t>
+  </si>
+  <si>
+    <t>唯鹿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a05111993@163.com</t>
+  </si>
+  <si>
+    <t>微服务架构解析</t>
+  </si>
+  <si>
+    <t>http://www.infoq.com/cn/news/2013/12/micro-service-architecture</t>
+  </si>
+  <si>
+    <t>张龙</t>
+  </si>
+  <si>
+    <t>zhanglong217[at]yahoo.com.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2371,6 +2759,14 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Microsoft YaHei"/>
@@ -2389,14 +2785,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2429,7 +2817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2444,15 +2832,22 @@
       <alignment vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3902,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3988,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E113"/>
+  <dimension ref="B1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E113" sqref="E91:E113"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4947,7 +5342,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="16.5" thickBot="1">
+    <row r="90" spans="2:5">
       <c r="B90" t="s">
         <v>441</v>
       </c>
@@ -4958,188 +5353,1005 @@
         <v>623</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="16.5" thickBot="1">
-      <c r="D91" t="s">
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>625</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>628</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>631</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>634</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>634</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>634</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>634</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>634</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>631</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>631</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>628</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>628</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>628</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>628</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>631</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>631</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>631</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>631</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>631</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>631</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>631</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>631</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="16.5" thickBot="1">
-      <c r="D92" t="s">
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>631</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="16.5" thickBot="1">
-      <c r="D93" t="s">
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>631</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="E93" s="6" t="s">
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>631</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" ht="16.5" thickBot="1">
-      <c r="D94" t="s">
+      <c r="E115" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>631</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="D95" t="s">
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>631</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>631</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="D96" t="s">
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
+        <v>631</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" t="s">
+        <v>631</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E96" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5">
-      <c r="D97" t="s">
+    </row>
+    <row r="121" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B121" t="s">
+        <v>631</v>
+      </c>
+      <c r="D121" t="s">
+        <v>668</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E97" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5">
-      <c r="D98" t="s">
-        <v>667</v>
-      </c>
-      <c r="E98" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5">
-      <c r="D99" t="s">
+    </row>
+    <row r="122" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B122" t="s">
+        <v>631</v>
+      </c>
+      <c r="D122" t="s">
+        <v>670</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="E99" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5">
-      <c r="D100" t="s">
-        <v>669</v>
-      </c>
-      <c r="E100" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5">
-      <c r="D101" t="s">
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" t="s">
+        <v>631</v>
+      </c>
+      <c r="D123" t="s">
+        <v>672</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="E101" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" ht="16.5" thickBot="1">
-      <c r="D102" t="s">
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>631</v>
+      </c>
+      <c r="D124" t="s">
+        <v>674</v>
+      </c>
+      <c r="E124" t="s">
         <v>675</v>
       </c>
-      <c r="E102" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" ht="16.5" thickBot="1">
-      <c r="D103" t="s">
+    </row>
+    <row r="125" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B125" t="s">
+        <v>631</v>
+      </c>
+      <c r="D125" t="s">
+        <v>676</v>
+      </c>
+      <c r="E125" t="s">
         <v>677</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5">
-      <c r="D104" t="s">
+    </row>
+    <row r="126" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B126" t="s">
+        <v>631</v>
+      </c>
+      <c r="D126" t="s">
+        <v>678</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E104" s="6" t="s">
+    </row>
+    <row r="127" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B127" t="s">
+        <v>631</v>
+      </c>
+      <c r="D127" t="s">
+        <v>680</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B128" t="s">
+        <v>631</v>
+      </c>
+      <c r="D128" t="s">
+        <v>682</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B129" t="s">
+        <v>631</v>
+      </c>
+      <c r="D129" t="s">
+        <v>684</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B130" t="s">
+        <v>631</v>
+      </c>
+      <c r="D130" t="s">
+        <v>686</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" t="s">
+        <v>631</v>
+      </c>
+      <c r="D131" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="105" spans="4:5" ht="16.5" thickBot="1">
-      <c r="D105" t="s">
-        <v>681</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5">
-      <c r="D106" t="s">
-        <v>683</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" ht="16.5" thickBot="1">
-      <c r="D107" t="s">
-        <v>685</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5">
-      <c r="D108" t="s">
+      <c r="E131" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B132" t="s">
+        <v>631</v>
+      </c>
+      <c r="D132" t="s">
         <v>688</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E132" s="10" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="4:5">
-      <c r="D109" t="s">
-        <v>687</v>
-      </c>
-      <c r="E109" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" ht="16.5" thickBot="1">
-      <c r="D110" t="s">
+    <row r="133" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B133" t="s">
+        <v>631</v>
+      </c>
+      <c r="D133" t="s">
+        <v>690</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="E110" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5">
-      <c r="D111" t="s">
+    </row>
+    <row r="134" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B134" t="s">
+        <v>631</v>
+      </c>
+      <c r="D134" t="s">
         <v>692</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="4:5" ht="16.5" thickBot="1">
-      <c r="D112" t="s">
+    <row r="135" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B135" t="s">
+        <v>631</v>
+      </c>
+      <c r="D135" t="s">
+        <v>694</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E112" s="11" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="D113" t="s">
+    </row>
+    <row r="136" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B136" t="s">
+        <v>631</v>
+      </c>
+      <c r="D136" t="s">
         <v>696</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" t="s">
+        <v>631</v>
+      </c>
+      <c r="D137" t="s">
+        <v>698</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" t="s">
+        <v>631</v>
+      </c>
+      <c r="D138" t="s">
+        <v>700</v>
+      </c>
+      <c r="E138" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>631</v>
+      </c>
+      <c r="D139" t="s">
+        <v>702</v>
+      </c>
+      <c r="E139" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
+        <v>631</v>
+      </c>
+      <c r="D140" t="s">
+        <v>704</v>
+      </c>
+      <c r="E140" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" t="s">
+        <v>631</v>
+      </c>
+      <c r="D141" t="s">
+        <v>706</v>
+      </c>
+      <c r="E141" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B142" t="s">
+        <v>631</v>
+      </c>
+      <c r="D142" t="s">
+        <v>708</v>
+      </c>
+      <c r="E142" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" t="s">
+        <v>631</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" t="s">
+        <v>631</v>
+      </c>
+      <c r="D144" t="s">
+        <v>712</v>
+      </c>
+      <c r="E144" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>631</v>
+      </c>
+      <c r="D145" t="s">
+        <v>714</v>
+      </c>
+      <c r="E145" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>631</v>
+      </c>
+      <c r="D146" t="s">
+        <v>716</v>
+      </c>
+      <c r="E146" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B147" t="s">
+        <v>631</v>
+      </c>
+      <c r="D147" t="s">
+        <v>718</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B148" t="s">
+        <v>631</v>
+      </c>
+      <c r="D148" t="s">
+        <v>720</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B149" t="s">
+        <v>631</v>
+      </c>
+      <c r="D149" t="s">
+        <v>706</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>631</v>
+      </c>
+      <c r="D150" t="s">
+        <v>722</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B151" t="s">
+        <v>631</v>
+      </c>
+      <c r="D151" t="s">
+        <v>724</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>631</v>
+      </c>
+      <c r="D152" t="s">
+        <v>726</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B153" t="s">
+        <v>631</v>
+      </c>
+      <c r="D153" t="s">
+        <v>728</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>631</v>
+      </c>
+      <c r="D154" t="s">
+        <v>730</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B155" t="s">
+        <v>631</v>
+      </c>
+      <c r="D155" t="s">
+        <v>732</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>631</v>
+      </c>
+      <c r="D156" t="s">
+        <v>734</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" t="s">
+        <v>631</v>
+      </c>
+      <c r="D157" t="s">
+        <v>735</v>
+      </c>
+      <c r="E157" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>631</v>
+      </c>
+      <c r="D158" t="s">
+        <v>737</v>
+      </c>
+      <c r="E158" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" t="s">
+        <v>631</v>
+      </c>
+      <c r="D159" t="s">
+        <v>739</v>
+      </c>
+      <c r="E159" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" t="s">
+        <v>631</v>
+      </c>
+      <c r="D160" t="s">
+        <v>741</v>
+      </c>
+      <c r="E160" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B161" t="s">
+        <v>631</v>
+      </c>
+      <c r="D161" t="s">
+        <v>728</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" t="s">
+        <v>631</v>
+      </c>
+      <c r="D162" t="s">
+        <v>744</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" t="s">
+        <v>631</v>
+      </c>
+      <c r="D163" t="s">
+        <v>746</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B164" t="s">
+        <v>631</v>
+      </c>
+      <c r="D164" t="s">
+        <v>748</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B165" t="s">
+        <v>631</v>
+      </c>
+      <c r="D165" t="s">
+        <v>750</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B166" t="s">
+        <v>631</v>
+      </c>
+      <c r="D166" t="s">
+        <v>752</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B167" t="s">
+        <v>631</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B168" t="s">
+        <v>631</v>
+      </c>
+      <c r="D168" t="s">
+        <v>756</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B169" t="s">
+        <v>631</v>
+      </c>
+      <c r="D169" t="s">
+        <v>758</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B170" t="s">
+        <v>631</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B171" t="s">
+        <v>631</v>
+      </c>
+      <c r="D171" t="s">
+        <v>761</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B172" t="s">
+        <v>631</v>
+      </c>
+      <c r="D172" t="s">
+        <v>763</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B173" t="s">
+        <v>631</v>
+      </c>
+      <c r="D173" t="s">
+        <v>765</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B174" t="s">
+        <v>631</v>
+      </c>
+      <c r="D174" t="s">
+        <v>767</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" t="s">
+        <v>631</v>
+      </c>
+      <c r="D175" t="s">
+        <v>769</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B176" t="s">
+        <v>631</v>
+      </c>
+      <c r="D176" t="s">
+        <v>771</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B177" t="s">
+        <v>631</v>
+      </c>
+      <c r="D177" t="s">
+        <v>773</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B178" t="s">
+        <v>631</v>
+      </c>
+      <c r="D178" t="s">
+        <v>775</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B179" t="s">
+        <v>631</v>
+      </c>
+      <c r="D179" t="s">
+        <v>777</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B180" t="s">
+        <v>631</v>
+      </c>
+      <c r="D180" t="s">
+        <v>779</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" t="s">
+        <v>631</v>
+      </c>
+      <c r="D181" t="s">
+        <v>781</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -5203,24 +6415,96 @@
     <hyperlink ref="D67:D89" r:id="rId56" display="https://github.com/microservicesinpractice/Resteasy"/>
     <hyperlink ref="E90" r:id="rId57"/>
     <hyperlink ref="D90" r:id="rId58"/>
-    <hyperlink ref="E91" r:id="rId59" display="mailto:campergue@campergue.de"/>
-    <hyperlink ref="E92" r:id="rId60" display="mailto:wesolveitsolutions.hr@gmail.com"/>
-    <hyperlink ref="E93" r:id="rId61" display="mailto:ryan.bolton-smith@zopa.com"/>
-    <hyperlink ref="E94" r:id="rId62" display="mailto:kusum@calance.com"/>
-    <hyperlink ref="E95" r:id="rId63" display="mailto:sanjeebbose@yahoo.co.in"/>
-    <hyperlink ref="E103" r:id="rId64" display="mailto:airdata@abv.bg"/>
-    <hyperlink ref="E104" r:id="rId65" display="mailto:waajid21@yahoo.com"/>
-    <hyperlink ref="E105" r:id="rId66" display="mailto:colorfuleco@gmail.com"/>
-    <hyperlink ref="E106" r:id="rId67" display="mailto:hitechdinesh@gmail.com"/>
-    <hyperlink ref="E107" r:id="rId68" display="mailto:nick@squeezer.io"/>
-    <hyperlink ref="E108" r:id="rId69" display="mailto:demichev@gmail.com"/>
-    <hyperlink ref="E110" r:id="rId70" display="mailto:aetherboard@daemon.co.za"/>
-    <hyperlink ref="E111" r:id="rId71" display="mailto:chandan.tp@gmail.com"/>
-    <hyperlink ref="E112" r:id="rId72" display="mailto:hello@thisissoon.com"/>
-    <hyperlink ref="E113" r:id="rId73" display="mailto:mikejlyh@gmail.com"/>
+    <hyperlink ref="E91" r:id="rId59"/>
+    <hyperlink ref="D91" r:id="rId60"/>
+    <hyperlink ref="E92" r:id="rId61"/>
+    <hyperlink ref="D92" r:id="rId62"/>
+    <hyperlink ref="E93" r:id="rId63"/>
+    <hyperlink ref="D93" r:id="rId64"/>
+    <hyperlink ref="E94" r:id="rId65"/>
+    <hyperlink ref="D94" r:id="rId66"/>
+    <hyperlink ref="E95" r:id="rId67"/>
+    <hyperlink ref="D95" r:id="rId68"/>
+    <hyperlink ref="E96" r:id="rId69"/>
+    <hyperlink ref="E97" r:id="rId70"/>
+    <hyperlink ref="E98" r:id="rId71"/>
+    <hyperlink ref="E100" r:id="rId72"/>
+    <hyperlink ref="E101" r:id="rId73"/>
+    <hyperlink ref="E102" r:id="rId74"/>
+    <hyperlink ref="D96:D102" r:id="rId75" display="https://github.com/Mashape"/>
+    <hyperlink ref="E103" r:id="rId76"/>
+    <hyperlink ref="E104" r:id="rId77"/>
+    <hyperlink ref="E105" r:id="rId78"/>
+    <hyperlink ref="E106" r:id="rId79"/>
+    <hyperlink ref="E107" r:id="rId80"/>
+    <hyperlink ref="E108" r:id="rId81"/>
+    <hyperlink ref="E109" r:id="rId82"/>
+    <hyperlink ref="E110" r:id="rId83"/>
+    <hyperlink ref="E111" r:id="rId84"/>
+    <hyperlink ref="E112" r:id="rId85"/>
+    <hyperlink ref="E113" r:id="rId86"/>
+    <hyperlink ref="D103" r:id="rId87"/>
+    <hyperlink ref="D104:D113" r:id="rId88" display="https://github.com/Mashape/unirest-nodejs"/>
+    <hyperlink ref="E114" r:id="rId89"/>
+    <hyperlink ref="E115" r:id="rId90"/>
+    <hyperlink ref="E116" r:id="rId91"/>
+    <hyperlink ref="E117" r:id="rId92"/>
+    <hyperlink ref="E118" r:id="rId93"/>
+    <hyperlink ref="E119" r:id="rId94"/>
+    <hyperlink ref="E120" r:id="rId95"/>
+    <hyperlink ref="D114" r:id="rId96"/>
+    <hyperlink ref="D115:D120" r:id="rId97" display="https://github.com/Mashape/unirest-php"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E121" r:id="rId99" display="mailto:rinkuvatscs@gmail.com"/>
+    <hyperlink ref="E122" r:id="rId100" display="mailto:fals.xp@gmail.com"/>
+    <hyperlink ref="E123" r:id="rId101" display="mailto:preetham_reddy@hotmail.com"/>
+    <hyperlink ref="E126" r:id="rId102" display="mailto:edwardjrp@gmail.com"/>
+    <hyperlink ref="E127" r:id="rId103" display="mailto:pss1suporte@gmail.com"/>
+    <hyperlink ref="E128" r:id="rId104" display="mailto:dalareo@gmail.com"/>
+    <hyperlink ref="E129" r:id="rId105" display="mailto:juan.freire@gmail.com"/>
+    <hyperlink ref="E130" r:id="rId106" display="mailto:anton.lugovoi@outlook.com"/>
+    <hyperlink ref="E133" r:id="rId107" display="mailto:podotkos@gmail.com"/>
+    <hyperlink ref="E134" r:id="rId108" display="mailto:tndavidson@gmail.com"/>
+    <hyperlink ref="E135" r:id="rId109" display="mailto:chaokunyang@qq.com"/>
+    <hyperlink ref="E137" r:id="rId110" display="mailto:adam@boxxen.org"/>
+    <hyperlink ref="E136" r:id="rId111" display="mailto:github@josh.gl"/>
+    <hyperlink ref="E149" r:id="rId112" display="mailto:ochoaluis92@gmail.com"/>
+    <hyperlink ref="E148" r:id="rId113" display="mailto:rmzoni@gmail.com"/>
+    <hyperlink ref="E147" r:id="rId114" display="mailto:dschenck@redhat.com"/>
+    <hyperlink ref="E143" r:id="rId115" display="mailto:hi@stavros.io"/>
+    <hyperlink ref="E150" r:id="rId116" display="mailto:screspo@highcornergroup.com"/>
+    <hyperlink ref="E151" r:id="rId117" display="mailto:david.sun@devframe.org"/>
+    <hyperlink ref="E152" r:id="rId118" display="mailto:olaf@magnetic.io"/>
+    <hyperlink ref="E153" r:id="rId119"/>
+    <hyperlink ref="E154" r:id="rId120" display="mailto:ice.aaron@gmail.com"/>
+    <hyperlink ref="E155" r:id="rId121" display="mailto:yohany@gmail.com"/>
+    <hyperlink ref="E156" r:id="rId122" display="mailto:david.sun@devframe.org"/>
+    <hyperlink ref="E161" r:id="rId123"/>
+    <hyperlink ref="E162" r:id="rId124" display="mailto:slobodan@cloudhorizon.com"/>
+    <hyperlink ref="E163" r:id="rId125" display="mailto:alexander.simovic@gmail.com"/>
+    <hyperlink ref="E164" r:id="rId126"/>
+    <hyperlink ref="E165" r:id="rId127" display="mailto:marcelosouzav@gmail.com"/>
+    <hyperlink ref="E166" r:id="rId128" display="mailto:me@alexthiel.de"/>
+    <hyperlink ref="E167" r:id="rId129" display="mailto:dan9186@gmail.com"/>
+    <hyperlink ref="E168" r:id="rId130" display="mailto:mosny@zyg.li"/>
+    <hyperlink ref="E169" r:id="rId131" display="mailto:yun@yunspace.com"/>
+    <hyperlink ref="E170" r:id="rId132" display="mailto:wpreul@gmail.com"/>
+    <hyperlink ref="E171" r:id="rId133" display="mailto:mcdonnelldean@gmail.com"/>
+    <hyperlink ref="E172" r:id="rId134" display="mailto:glenkeane.94@gmail.com"/>
+    <hyperlink ref="E173" r:id="rId135" display="mailto:ldemailly@gmail.com"/>
+    <hyperlink ref="E174" r:id="rId136" display="mailto:liamwhite@uk.ibm.com"/>
+    <hyperlink ref="E175" r:id="rId137" display="mailto:aahmad1811@gmail.com"/>
+    <hyperlink ref="E176" r:id="rId138" display="mailto:yamiodymel@gmail.com"/>
+    <hyperlink ref="E177" r:id="rId139" display="mailto:gvenkat650@gmail.com"/>
+    <hyperlink ref="E178" r:id="rId140" display="mailto:federicogonzalez761@gmail.com"/>
+    <hyperlink ref="E179" r:id="rId141" display="mailto:madnificent@gmail.com"/>
+    <hyperlink ref="E180" r:id="rId142" display="mailto:flowofcontrol@gmail.com"/>
+    <hyperlink ref="E181" r:id="rId143" display="mailto:erika.pauwels@gmail.com"/>
+    <hyperlink ref="D167" r:id="rId144"/>
+    <hyperlink ref="D170" r:id="rId145"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
 </worksheet>
 </file>
 
@@ -5228,16 +6512,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="E61" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65:F72"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
-    <col min="4" max="4" width="54.125" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
@@ -6309,116 +7593,140 @@
         <v>563</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="16.5">
+    <row r="65" spans="2:6" ht="16.5">
+      <c r="B65" t="s">
+        <v>814</v>
+      </c>
       <c r="C65" t="s">
-        <v>628</v>
+        <v>783</v>
       </c>
       <c r="D65" t="s">
-        <v>627</v>
+        <v>784</v>
       </c>
       <c r="E65" t="s">
-        <v>626</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="16.5">
+        <v>785</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="16.5">
+      <c r="B66" t="s">
+        <v>814</v>
+      </c>
       <c r="C66" t="s">
-        <v>631</v>
+        <v>787</v>
       </c>
       <c r="D66" t="s">
-        <v>630</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>629</v>
+        <v>788</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>789</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="16.5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="16.5">
+      <c r="B67" t="s">
+        <v>814</v>
+      </c>
       <c r="C67" t="s">
-        <v>636</v>
+        <v>791</v>
       </c>
       <c r="D67" t="s">
-        <v>635</v>
+        <v>792</v>
       </c>
       <c r="E67" t="s">
-        <v>634</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="16.5">
+        <v>793</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="16.5">
+      <c r="B68" t="s">
+        <v>814</v>
+      </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>795</v>
       </c>
       <c r="D68" t="s">
-        <v>638</v>
+        <v>796</v>
       </c>
       <c r="E68" t="s">
-        <v>640</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="16.5">
+        <v>797</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="16.5">
+      <c r="B69" t="s">
+        <v>814</v>
+      </c>
       <c r="C69" t="s">
-        <v>643</v>
+        <v>799</v>
       </c>
       <c r="D69" t="s">
-        <v>642</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="16.5">
+        <v>800</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="16.5">
+      <c r="B70" t="s">
+        <v>814</v>
+      </c>
       <c r="C70" t="s">
-        <v>646</v>
+        <v>802</v>
       </c>
       <c r="D70" t="s">
-        <v>647</v>
+        <v>803</v>
       </c>
       <c r="E70" t="s">
-        <v>645</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="16.5">
+        <v>804</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="16.5">
+      <c r="B71" t="s">
+        <v>814</v>
+      </c>
       <c r="C71" t="s">
-        <v>650</v>
+        <v>806</v>
       </c>
       <c r="D71" t="s">
-        <v>651</v>
+        <v>807</v>
       </c>
       <c r="E71" t="s">
-        <v>649</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6">
+        <v>808</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>814</v>
+      </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>810</v>
       </c>
       <c r="D72" t="s">
-        <v>654</v>
+        <v>811</v>
       </c>
       <c r="E72" t="s">
-        <v>653</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>652</v>
+        <v>812</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="17610" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="招聘网站" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="858">
   <si>
     <t>微博账号</t>
   </si>
@@ -2719,11 +2720,183 @@
     <t>CSDN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mirkolofio@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kairat.jenishev@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>irfanevrens@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shashi@mashape.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ixineeringeverywhere@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason@kickroot.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/unirest-java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github@gnegg.ch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marcelocyreno@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/mockbin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr@garciaole.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/mashape-oauth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MerrifieldBrian@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adam.g.keenan@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>opyate@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/mashape-oauth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxc@me.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conradoplg@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmosnick07@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>armsteadj1@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thijs@thijsschreijer.nl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>robert@cryptobells.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aapo.talvensaari@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guillaume.v.sanchez@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaykemparaj@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>depay19@163.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>latchkey@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhruv.x@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryan@ryanbreen.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icharitopoulos@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pablofmorales@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github@qslw.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>badger@gitter.im</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaloveme@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -3135,7 +3308,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -3162,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" ht="15">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -3190,7 +3363,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -4297,11 +4470,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -4345,7 +4518,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -4383,13 +4556,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E181"/>
+  <dimension ref="B1:E211"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182:E211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -4556,7 +4729,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="16.5" thickBot="1">
+    <row r="18" spans="2:5" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -4600,7 +4773,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1">
+    <row r="22" spans="2:5" ht="15" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -4677,7 +4850,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16.5" thickBot="1">
+    <row r="29" spans="2:5" ht="15" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -4979,7 +5152,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1">
+    <row r="57" spans="2:5" ht="15" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -5683,7 +5856,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="16.5" thickBot="1">
+    <row r="121" spans="2:5" ht="15" thickBot="1">
       <c r="B121" t="s">
         <v>631</v>
       </c>
@@ -5694,7 +5867,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1">
+    <row r="122" spans="2:5" ht="15" thickBot="1">
       <c r="B122" t="s">
         <v>631</v>
       </c>
@@ -5727,7 +5900,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="16.5" thickBot="1">
+    <row r="125" spans="2:5" ht="15" thickBot="1">
       <c r="B125" t="s">
         <v>631</v>
       </c>
@@ -5738,7 +5911,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="16.5" thickBot="1">
+    <row r="126" spans="2:5" ht="15" thickBot="1">
       <c r="B126" t="s">
         <v>631</v>
       </c>
@@ -5749,7 +5922,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="16.5" thickBot="1">
+    <row r="127" spans="2:5" ht="15" thickBot="1">
       <c r="B127" t="s">
         <v>631</v>
       </c>
@@ -5760,7 +5933,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="16.5" thickBot="1">
+    <row r="128" spans="2:5" ht="15" thickBot="1">
       <c r="B128" t="s">
         <v>631</v>
       </c>
@@ -5771,7 +5944,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="16.5" thickBot="1">
+    <row r="129" spans="2:5" ht="15" thickBot="1">
       <c r="B129" t="s">
         <v>631</v>
       </c>
@@ -5782,7 +5955,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="16.5" thickBot="1">
+    <row r="130" spans="2:5" ht="15" thickBot="1">
       <c r="B130" t="s">
         <v>631</v>
       </c>
@@ -5804,7 +5977,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1">
+    <row r="132" spans="2:5" ht="15" thickBot="1">
       <c r="B132" t="s">
         <v>631</v>
       </c>
@@ -5815,7 +5988,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="16.5" thickBot="1">
+    <row r="133" spans="2:5" ht="15" thickBot="1">
       <c r="B133" t="s">
         <v>631</v>
       </c>
@@ -5826,7 +5999,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="16.5" thickBot="1">
+    <row r="134" spans="2:5" ht="15" thickBot="1">
       <c r="B134" t="s">
         <v>631</v>
       </c>
@@ -5837,7 +6010,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1">
+    <row r="135" spans="2:5" ht="15" thickBot="1">
       <c r="B135" t="s">
         <v>631</v>
       </c>
@@ -5848,7 +6021,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="16.5" thickBot="1">
+    <row r="136" spans="2:5" ht="15" thickBot="1">
       <c r="B136" t="s">
         <v>631</v>
       </c>
@@ -5914,7 +6087,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1">
+    <row r="142" spans="2:5" ht="15" thickBot="1">
       <c r="B142" t="s">
         <v>631</v>
       </c>
@@ -5969,7 +6142,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="16.5" thickBot="1">
+    <row r="147" spans="2:5" ht="15" thickBot="1">
       <c r="B147" t="s">
         <v>631</v>
       </c>
@@ -5980,7 +6153,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="16.5" thickBot="1">
+    <row r="148" spans="2:5" ht="15" thickBot="1">
       <c r="B148" t="s">
         <v>631</v>
       </c>
@@ -5991,7 +6164,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="16.5" thickBot="1">
+    <row r="149" spans="2:5" ht="15" thickBot="1">
       <c r="B149" t="s">
         <v>631</v>
       </c>
@@ -6013,7 +6186,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="16.5" thickBot="1">
+    <row r="151" spans="2:5" ht="15" thickBot="1">
       <c r="B151" t="s">
         <v>631</v>
       </c>
@@ -6035,7 +6208,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1">
+    <row r="153" spans="2:5" ht="15" thickBot="1">
       <c r="B153" t="s">
         <v>631</v>
       </c>
@@ -6057,7 +6230,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="16.5" thickBot="1">
+    <row r="155" spans="2:5" ht="15" thickBot="1">
       <c r="B155" t="s">
         <v>631</v>
       </c>
@@ -6123,7 +6296,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1">
+    <row r="161" spans="2:5" ht="15" thickBot="1">
       <c r="B161" t="s">
         <v>631</v>
       </c>
@@ -6156,7 +6329,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1">
+    <row r="164" spans="2:5" ht="15" thickBot="1">
       <c r="B164" t="s">
         <v>631</v>
       </c>
@@ -6167,7 +6340,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="16.5" thickBot="1">
+    <row r="165" spans="2:5" ht="15" thickBot="1">
       <c r="B165" t="s">
         <v>631</v>
       </c>
@@ -6178,7 +6351,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="16.5" thickBot="1">
+    <row r="166" spans="2:5" ht="15" thickBot="1">
       <c r="B166" t="s">
         <v>631</v>
       </c>
@@ -6189,7 +6362,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="16.5" thickBot="1">
+    <row r="167" spans="2:5" ht="15" thickBot="1">
       <c r="B167" t="s">
         <v>631</v>
       </c>
@@ -6200,7 +6373,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1">
+    <row r="168" spans="2:5" ht="15" thickBot="1">
       <c r="B168" t="s">
         <v>631</v>
       </c>
@@ -6211,7 +6384,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="16.5" thickBot="1">
+    <row r="169" spans="2:5" ht="15" thickBot="1">
       <c r="B169" t="s">
         <v>631</v>
       </c>
@@ -6222,7 +6395,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="16.5" thickBot="1">
+    <row r="170" spans="2:5" ht="15" thickBot="1">
       <c r="B170" t="s">
         <v>631</v>
       </c>
@@ -6233,7 +6406,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="16.5" thickBot="1">
+    <row r="171" spans="2:5" ht="15" thickBot="1">
       <c r="B171" t="s">
         <v>631</v>
       </c>
@@ -6244,7 +6417,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="16.5" thickBot="1">
+    <row r="172" spans="2:5" ht="15" thickBot="1">
       <c r="B172" t="s">
         <v>631</v>
       </c>
@@ -6255,7 +6428,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="16.5" thickBot="1">
+    <row r="173" spans="2:5" ht="15" thickBot="1">
       <c r="B173" t="s">
         <v>631</v>
       </c>
@@ -6266,7 +6439,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="16.5" thickBot="1">
+    <row r="174" spans="2:5" ht="15" thickBot="1">
       <c r="B174" t="s">
         <v>631</v>
       </c>
@@ -6288,7 +6461,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1">
+    <row r="176" spans="2:5" ht="15" thickBot="1">
       <c r="B176" t="s">
         <v>631</v>
       </c>
@@ -6299,7 +6472,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="16.5" thickBot="1">
+    <row r="177" spans="2:5" ht="15" thickBot="1">
       <c r="B177" t="s">
         <v>631</v>
       </c>
@@ -6310,7 +6483,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="16.5" thickBot="1">
+    <row r="178" spans="2:5" ht="15" thickBot="1">
       <c r="B178" t="s">
         <v>631</v>
       </c>
@@ -6321,7 +6494,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1">
+    <row r="179" spans="2:5" ht="15" thickBot="1">
       <c r="B179" t="s">
         <v>631</v>
       </c>
@@ -6332,7 +6505,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="16.5" thickBot="1">
+    <row r="180" spans="2:5" ht="15" thickBot="1">
       <c r="B180" t="s">
         <v>631</v>
       </c>
@@ -6352,6 +6525,336 @@
       </c>
       <c r="E181" s="6" t="s">
         <v>782</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" t="s">
+        <v>815</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" t="s">
+        <v>818</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" t="s">
+        <v>818</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" t="s">
+        <v>818</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" t="s">
+        <v>823</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" t="s">
+        <v>823</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" t="s">
+        <v>827</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" t="s">
+        <v>827</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" t="s">
+        <v>827</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
+        <v>823</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" t="s">
+        <v>823</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>823</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>827</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>827</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>827</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>827</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>827</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>823</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" t="s">
+        <v>823</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" t="s">
+        <v>823</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" t="s">
+        <v>823</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" t="s">
+        <v>823</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" t="s">
+        <v>823</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
+        <v>823</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" t="s">
+        <v>823</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
+        <v>823</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
+        <v>823</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" t="s">
+        <v>823</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" t="s">
+        <v>827</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" t="s">
+        <v>827</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -6502,9 +7005,47 @@
     <hyperlink ref="E181" r:id="rId143" display="mailto:erika.pauwels@gmail.com"/>
     <hyperlink ref="D167" r:id="rId144"/>
     <hyperlink ref="D170" r:id="rId145"/>
+    <hyperlink ref="E182" r:id="rId146"/>
+    <hyperlink ref="E183" r:id="rId147"/>
+    <hyperlink ref="E184" r:id="rId148"/>
+    <hyperlink ref="D182:D184" r:id="rId149" display="https://github.com/Mashape/unirest-php"/>
+    <hyperlink ref="E185" r:id="rId150"/>
+    <hyperlink ref="E186" r:id="rId151"/>
+    <hyperlink ref="E187" r:id="rId152"/>
+    <hyperlink ref="E188" r:id="rId153"/>
+    <hyperlink ref="E189" r:id="rId154"/>
+    <hyperlink ref="D185" r:id="rId155"/>
+    <hyperlink ref="D186:D189" r:id="rId156" display="https://github.com/Mashape/unirest-java"/>
+    <hyperlink ref="E190" r:id="rId157"/>
+    <hyperlink ref="D190" r:id="rId158"/>
+    <hyperlink ref="E191" r:id="rId159"/>
+    <hyperlink ref="E192" r:id="rId160"/>
+    <hyperlink ref="E193" r:id="rId161"/>
+    <hyperlink ref="E194" r:id="rId162"/>
+    <hyperlink ref="E195" r:id="rId163"/>
+    <hyperlink ref="E196" r:id="rId164"/>
+    <hyperlink ref="E197" r:id="rId165"/>
+    <hyperlink ref="D191" r:id="rId166"/>
+    <hyperlink ref="D192:D197" r:id="rId167" display="https://github.com/Mashape/mashape-oauth"/>
+    <hyperlink ref="E198" r:id="rId168"/>
+    <hyperlink ref="E199" r:id="rId169"/>
+    <hyperlink ref="E200" r:id="rId170"/>
+    <hyperlink ref="E201" r:id="rId171"/>
+    <hyperlink ref="E202" r:id="rId172"/>
+    <hyperlink ref="E203" r:id="rId173"/>
+    <hyperlink ref="E204" r:id="rId174"/>
+    <hyperlink ref="E205" r:id="rId175"/>
+    <hyperlink ref="E206" r:id="rId176"/>
+    <hyperlink ref="E207" r:id="rId177"/>
+    <hyperlink ref="E208" r:id="rId178"/>
+    <hyperlink ref="E209" r:id="rId179"/>
+    <hyperlink ref="E210" r:id="rId180"/>
+    <hyperlink ref="E211" r:id="rId181"/>
+    <hyperlink ref="D198" r:id="rId182"/>
+    <hyperlink ref="D199:D211" r:id="rId183" display="https://github.com/Mashape/kong"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId184"/>
 </worksheet>
 </file>
 
@@ -6516,7 +7057,7 @@
       <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -7712,7 +8253,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" ht="15">
       <c r="B72" t="s">
         <v>814</v>
       </c>
@@ -7796,7 +8337,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -7826,7 +8367,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -22,7 +22,6 @@
     <sheet name="招聘网站" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="907">
   <si>
     <t>微博账号</t>
   </si>
@@ -2890,6 +2889,201 @@
   </si>
   <si>
     <t>javaloveme@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheald@gmail.com</t>
+  </si>
+  <si>
+    <t>contact@thomas-jouannic.fr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bvanwinkle@expedia.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi@plukevdh.me</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sicard.christophe+github@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>neil@mansilla.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbarrau@classy.org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me@lewisjellis.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github@simongrondin.name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ybv.kris@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdr@gdr.name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rafaelchacon@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Mashape/kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chris@christopherbiscardi.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selva4210@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/hraban</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hraban@0brg.net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/aatibudhi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aswini.atbd@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/daviddawson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me@daviddawson.me</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ms-stuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservices.stuff@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/crgimenes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crg@crg.eti.br</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/arangodb-foxx/demo-aye-aye</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frank@arangodb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/arangodb-foxx/demo-itzpapalotl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thomas.karl.richter@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/yunspace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yun@yunspace.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/clardeur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clem.lardeur@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/joseconstela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>joseconstela@icloud.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zebulonj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zebulonj@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/gondor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeremy@containx.io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/depcon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github@trevor.joynson.io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sawanoboriyu@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahmet2mir+github@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emjeburns@gmail.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4556,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E211"/>
+  <dimension ref="B1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182:E211"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212:E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6855,6 +7049,336 @@
       </c>
       <c r="E211" s="1" t="s">
         <v>857</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" t="s">
+        <v>858</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E212" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" t="s">
+        <v>441</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214" t="s">
+        <v>441</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="B215" t="s">
+        <v>441</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" t="s">
+        <v>441</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" t="s">
+        <v>441</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" t="s">
+        <v>441</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219" t="s">
+        <v>441</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" t="s">
+        <v>441</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5">
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222" t="s">
+        <v>441</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" t="s">
+        <v>872</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225" t="s">
+        <v>872</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226" t="s">
+        <v>872</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227" t="s">
+        <v>872</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5">
+      <c r="B228" t="s">
+        <v>872</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" t="s">
+        <v>872</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" t="s">
+        <v>872</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231" t="s">
+        <v>872</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5">
+      <c r="B232" t="s">
+        <v>872</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" t="s">
+        <v>872</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234" t="s">
+        <v>441</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" t="s">
+        <v>894</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236" t="s">
+        <v>894</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237" t="s">
+        <v>894</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238" t="s">
+        <v>894</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="B239" t="s">
+        <v>894</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240" t="s">
+        <v>894</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" t="s">
+        <v>894</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -7043,9 +7567,54 @@
     <hyperlink ref="E211" r:id="rId181"/>
     <hyperlink ref="D198" r:id="rId182"/>
     <hyperlink ref="D199:D211" r:id="rId183" display="https://github.com/Mashape/kong"/>
+    <hyperlink ref="E213" r:id="rId184"/>
+    <hyperlink ref="E214" r:id="rId185"/>
+    <hyperlink ref="E215" r:id="rId186"/>
+    <hyperlink ref="E216" r:id="rId187"/>
+    <hyperlink ref="E217" r:id="rId188"/>
+    <hyperlink ref="E218" r:id="rId189"/>
+    <hyperlink ref="E219" r:id="rId190"/>
+    <hyperlink ref="E220" r:id="rId191"/>
+    <hyperlink ref="E221" r:id="rId192"/>
+    <hyperlink ref="E222" r:id="rId193"/>
+    <hyperlink ref="E223" r:id="rId194"/>
+    <hyperlink ref="E224" r:id="rId195"/>
+    <hyperlink ref="E225" r:id="rId196"/>
+    <hyperlink ref="D212:D225" r:id="rId197" display="https://github.com/Mashape/kong"/>
+    <hyperlink ref="E226" r:id="rId198"/>
+    <hyperlink ref="E227" r:id="rId199"/>
+    <hyperlink ref="E228" r:id="rId200"/>
+    <hyperlink ref="D228" r:id="rId201"/>
+    <hyperlink ref="D226" r:id="rId202"/>
+    <hyperlink ref="D227" r:id="rId203"/>
+    <hyperlink ref="E229" r:id="rId204"/>
+    <hyperlink ref="D229" r:id="rId205"/>
+    <hyperlink ref="E230" r:id="rId206"/>
+    <hyperlink ref="D230" r:id="rId207"/>
+    <hyperlink ref="E231" r:id="rId208"/>
+    <hyperlink ref="D231" r:id="rId209"/>
+    <hyperlink ref="E232" r:id="rId210"/>
+    <hyperlink ref="D232" r:id="rId211"/>
+    <hyperlink ref="E233" r:id="rId212"/>
+    <hyperlink ref="D233" r:id="rId213"/>
+    <hyperlink ref="E234" r:id="rId214"/>
+    <hyperlink ref="D234" r:id="rId215"/>
+    <hyperlink ref="E235" r:id="rId216"/>
+    <hyperlink ref="D235" r:id="rId217"/>
+    <hyperlink ref="E236" r:id="rId218"/>
+    <hyperlink ref="D236" r:id="rId219"/>
+    <hyperlink ref="E237" r:id="rId220"/>
+    <hyperlink ref="D237" r:id="rId221"/>
+    <hyperlink ref="E238" r:id="rId222"/>
+    <hyperlink ref="D238" r:id="rId223"/>
+    <hyperlink ref="E239" r:id="rId224"/>
+    <hyperlink ref="E240" r:id="rId225"/>
+    <hyperlink ref="D239:D240" r:id="rId226" display="https://github.com/ContainX/depcon"/>
+    <hyperlink ref="E241" r:id="rId227"/>
+    <hyperlink ref="D241" r:id="rId228"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId184"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
 </worksheet>
 </file>
 

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="18540" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="948">
   <si>
     <t>微博账号</t>
   </si>
@@ -3086,11 +3086,134 @@
     <t>emjeburns@gmail.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>richard@resolveconsulting.nl</t>
+  </si>
+  <si>
+    <t>https://github.com/richmeij</t>
+  </si>
+  <si>
+    <t>ean@baristalabs.io</t>
+  </si>
+  <si>
+    <t>https://github.com/Oceanswave</t>
+  </si>
+  <si>
+    <t> janchinz@gmail.com</t>
+  </si>
+  <si>
+    <t>janchinz@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/AthenasCap</t>
+  </si>
+  <si>
+    <t>briansodano@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/codemouse</t>
+  </si>
+  <si>
+    <t> kibernick@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/kibernick</t>
+  </si>
+  <si>
+    <t>borzou@theboeffect.com</t>
+  </si>
+  <si>
+    <t>https://github.com/theBoEffect</t>
+  </si>
+  <si>
+    <t>bilchuck@me.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Bilchuck</t>
+  </si>
+  <si>
+    <t>phopkins@nstech.co.uk</t>
+  </si>
+  <si>
+    <t>https://github.com/paulhopkins11</t>
+  </si>
+  <si>
+    <t>rollokb+github@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/rollokb</t>
+  </si>
+  <si>
+    <t>ashraf.sar7an@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ashrafsarhan</t>
+  </si>
+  <si>
+    <t>mjtpena@outlook.com</t>
+  </si>
+  <si>
+    <t>https://github.com/search?p=19&amp;q=microservice&amp;type=Users&amp;utf8=%E2%9C%93</t>
+  </si>
+  <si>
+    <t>jeanepaul@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Hokutosei</t>
+  </si>
+  <si>
+    <t>elle.florio@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/elleFlorio</t>
+  </si>
+  <si>
+    <t>geert.vanlaethem@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/GeertVL</t>
+  </si>
+  <si>
+    <t>schnabel@us.ibm.com</t>
+  </si>
+  <si>
+    <t>https://github.com/ebullient</t>
+  </si>
+  <si>
+    <t>edoardo849@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/edoardo849</t>
+  </si>
+  <si>
+    <t>info@pavelzelezny.cz</t>
+  </si>
+  <si>
+    <t>https://github.com/zeleznypa</t>
+  </si>
+  <si>
+    <t>owenspencer@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/spuder</t>
+  </si>
+  <si>
+    <t>moser.luca@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/luca-moser</t>
+  </si>
+  <si>
+    <t>kamoljan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/microservices-today</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -3502,7 +3625,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -3529,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -3557,7 +3680,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -4668,7 +4791,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -4712,7 +4835,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -4750,13 +4873,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E241"/>
+  <dimension ref="B1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212:E241"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="E262" sqref="E242:E262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -4923,7 +5046,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1">
+    <row r="18" spans="2:5" ht="16.5" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -4967,7 +5090,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -5044,7 +5167,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1">
+    <row r="29" spans="2:5" ht="16.5" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -5346,7 +5469,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -6050,7 +6173,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="15" thickBot="1">
+    <row r="121" spans="2:5" ht="16.5" thickBot="1">
       <c r="B121" t="s">
         <v>631</v>
       </c>
@@ -6061,7 +6184,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="15" thickBot="1">
+    <row r="122" spans="2:5" ht="16.5" thickBot="1">
       <c r="B122" t="s">
         <v>631</v>
       </c>
@@ -6094,7 +6217,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="15" thickBot="1">
+    <row r="125" spans="2:5" ht="16.5" thickBot="1">
       <c r="B125" t="s">
         <v>631</v>
       </c>
@@ -6105,7 +6228,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15" thickBot="1">
+    <row r="126" spans="2:5" ht="16.5" thickBot="1">
       <c r="B126" t="s">
         <v>631</v>
       </c>
@@ -6116,7 +6239,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15" thickBot="1">
+    <row r="127" spans="2:5" ht="16.5" thickBot="1">
       <c r="B127" t="s">
         <v>631</v>
       </c>
@@ -6127,7 +6250,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="15" thickBot="1">
+    <row r="128" spans="2:5" ht="16.5" thickBot="1">
       <c r="B128" t="s">
         <v>631</v>
       </c>
@@ -6138,7 +6261,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="15" thickBot="1">
+    <row r="129" spans="2:5" ht="16.5" thickBot="1">
       <c r="B129" t="s">
         <v>631</v>
       </c>
@@ -6149,7 +6272,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="15" thickBot="1">
+    <row r="130" spans="2:5" ht="16.5" thickBot="1">
       <c r="B130" t="s">
         <v>631</v>
       </c>
@@ -6171,7 +6294,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="15" thickBot="1">
+    <row r="132" spans="2:5" ht="16.5" thickBot="1">
       <c r="B132" t="s">
         <v>631</v>
       </c>
@@ -6182,7 +6305,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="15" thickBot="1">
+    <row r="133" spans="2:5" ht="16.5" thickBot="1">
       <c r="B133" t="s">
         <v>631</v>
       </c>
@@ -6193,7 +6316,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="15" thickBot="1">
+    <row r="134" spans="2:5" ht="16.5" thickBot="1">
       <c r="B134" t="s">
         <v>631</v>
       </c>
@@ -6204,7 +6327,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" thickBot="1">
+    <row r="135" spans="2:5" ht="16.5" thickBot="1">
       <c r="B135" t="s">
         <v>631</v>
       </c>
@@ -6215,7 +6338,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" thickBot="1">
+    <row r="136" spans="2:5" ht="16.5" thickBot="1">
       <c r="B136" t="s">
         <v>631</v>
       </c>
@@ -6281,7 +6404,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="15" thickBot="1">
+    <row r="142" spans="2:5" ht="16.5" thickBot="1">
       <c r="B142" t="s">
         <v>631</v>
       </c>
@@ -6336,7 +6459,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="15" thickBot="1">
+    <row r="147" spans="2:5" ht="16.5" thickBot="1">
       <c r="B147" t="s">
         <v>631</v>
       </c>
@@ -6347,7 +6470,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="15" thickBot="1">
+    <row r="148" spans="2:5" ht="16.5" thickBot="1">
       <c r="B148" t="s">
         <v>631</v>
       </c>
@@ -6358,7 +6481,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="15" thickBot="1">
+    <row r="149" spans="2:5" ht="16.5" thickBot="1">
       <c r="B149" t="s">
         <v>631</v>
       </c>
@@ -6380,7 +6503,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="15" thickBot="1">
+    <row r="151" spans="2:5" ht="16.5" thickBot="1">
       <c r="B151" t="s">
         <v>631</v>
       </c>
@@ -6402,7 +6525,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="15" thickBot="1">
+    <row r="153" spans="2:5" ht="16.5" thickBot="1">
       <c r="B153" t="s">
         <v>631</v>
       </c>
@@ -6424,7 +6547,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="15" thickBot="1">
+    <row r="155" spans="2:5" ht="16.5" thickBot="1">
       <c r="B155" t="s">
         <v>631</v>
       </c>
@@ -6490,7 +6613,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="15" thickBot="1">
+    <row r="161" spans="2:5" ht="16.5" thickBot="1">
       <c r="B161" t="s">
         <v>631</v>
       </c>
@@ -6523,7 +6646,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="15" thickBot="1">
+    <row r="164" spans="2:5" ht="16.5" thickBot="1">
       <c r="B164" t="s">
         <v>631</v>
       </c>
@@ -6534,7 +6657,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="15" thickBot="1">
+    <row r="165" spans="2:5" ht="16.5" thickBot="1">
       <c r="B165" t="s">
         <v>631</v>
       </c>
@@ -6545,7 +6668,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="15" thickBot="1">
+    <row r="166" spans="2:5" ht="16.5" thickBot="1">
       <c r="B166" t="s">
         <v>631</v>
       </c>
@@ -6556,7 +6679,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="15" thickBot="1">
+    <row r="167" spans="2:5" ht="16.5" thickBot="1">
       <c r="B167" t="s">
         <v>631</v>
       </c>
@@ -6567,7 +6690,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="15" thickBot="1">
+    <row r="168" spans="2:5" ht="16.5" thickBot="1">
       <c r="B168" t="s">
         <v>631</v>
       </c>
@@ -6578,7 +6701,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="15" thickBot="1">
+    <row r="169" spans="2:5" ht="16.5" thickBot="1">
       <c r="B169" t="s">
         <v>631</v>
       </c>
@@ -6589,7 +6712,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="15" thickBot="1">
+    <row r="170" spans="2:5" ht="16.5" thickBot="1">
       <c r="B170" t="s">
         <v>631</v>
       </c>
@@ -6600,7 +6723,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="15" thickBot="1">
+    <row r="171" spans="2:5" ht="16.5" thickBot="1">
       <c r="B171" t="s">
         <v>631</v>
       </c>
@@ -6611,7 +6734,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="15" thickBot="1">
+    <row r="172" spans="2:5" ht="16.5" thickBot="1">
       <c r="B172" t="s">
         <v>631</v>
       </c>
@@ -6622,7 +6745,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="15" thickBot="1">
+    <row r="173" spans="2:5" ht="16.5" thickBot="1">
       <c r="B173" t="s">
         <v>631</v>
       </c>
@@ -6633,7 +6756,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="15" thickBot="1">
+    <row r="174" spans="2:5" ht="16.5" thickBot="1">
       <c r="B174" t="s">
         <v>631</v>
       </c>
@@ -6655,7 +6778,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="15" thickBot="1">
+    <row r="176" spans="2:5" ht="16.5" thickBot="1">
       <c r="B176" t="s">
         <v>631</v>
       </c>
@@ -6666,7 +6789,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="15" thickBot="1">
+    <row r="177" spans="2:5" ht="16.5" thickBot="1">
       <c r="B177" t="s">
         <v>631</v>
       </c>
@@ -6677,7 +6800,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="15" thickBot="1">
+    <row r="178" spans="2:5" ht="16.5" thickBot="1">
       <c r="B178" t="s">
         <v>631</v>
       </c>
@@ -6688,7 +6811,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="15" thickBot="1">
+    <row r="179" spans="2:5" ht="16.5" thickBot="1">
       <c r="B179" t="s">
         <v>631</v>
       </c>
@@ -6699,7 +6822,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="15" thickBot="1">
+    <row r="180" spans="2:5" ht="16.5" thickBot="1">
       <c r="B180" t="s">
         <v>631</v>
       </c>
@@ -7379,6 +7502,234 @@
       </c>
       <c r="E241" s="1" t="s">
         <v>906</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" t="s">
+        <v>441</v>
+      </c>
+      <c r="D242" t="s">
+        <v>908</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" t="s">
+        <v>441</v>
+      </c>
+      <c r="D243" t="s">
+        <v>910</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>441</v>
+      </c>
+      <c r="D244" t="s">
+        <v>913</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" t="s">
+        <v>441</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" t="s">
+        <v>441</v>
+      </c>
+      <c r="D246" t="s">
+        <v>915</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B247" t="s">
+        <v>441</v>
+      </c>
+      <c r="D247" t="s">
+        <v>917</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B248" t="s">
+        <v>441</v>
+      </c>
+      <c r="D248" t="s">
+        <v>919</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" t="s">
+        <v>441</v>
+      </c>
+      <c r="D249" t="s">
+        <v>921</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" t="s">
+        <v>441</v>
+      </c>
+      <c r="D250" t="s">
+        <v>923</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" t="s">
+        <v>441</v>
+      </c>
+      <c r="D251" t="s">
+        <v>925</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" t="s">
+        <v>441</v>
+      </c>
+      <c r="D252" t="s">
+        <v>927</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" t="s">
+        <v>441</v>
+      </c>
+      <c r="D253" t="s">
+        <v>929</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B254" t="s">
+        <v>441</v>
+      </c>
+      <c r="D254" t="s">
+        <v>931</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" t="s">
+        <v>441</v>
+      </c>
+      <c r="D255" t="s">
+        <v>933</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B256" t="s">
+        <v>441</v>
+      </c>
+      <c r="D256" t="s">
+        <v>935</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>441</v>
+      </c>
+      <c r="D257" t="s">
+        <v>937</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B258" t="s">
+        <v>441</v>
+      </c>
+      <c r="D258" t="s">
+        <v>939</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>441</v>
+      </c>
+      <c r="D259" t="s">
+        <v>941</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B260" t="s">
+        <v>441</v>
+      </c>
+      <c r="D260" t="s">
+        <v>943</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>441</v>
+      </c>
+      <c r="D261" t="s">
+        <v>945</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" t="s">
+        <v>441</v>
+      </c>
+      <c r="D262" t="s">
+        <v>947</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -7612,9 +7963,30 @@
     <hyperlink ref="D239:D240" r:id="rId226" display="https://github.com/ContainX/depcon"/>
     <hyperlink ref="E241" r:id="rId227"/>
     <hyperlink ref="D241" r:id="rId228"/>
+    <hyperlink ref="E242" r:id="rId229" display="mailto:richard@resolveconsulting.nl"/>
+    <hyperlink ref="E243" r:id="rId230" display="mailto:sean@baristalabs.io"/>
+    <hyperlink ref="E245" r:id="rId231" display="mailto:janchinz@gmail.com"/>
+    <hyperlink ref="E244" r:id="rId232" display="mailto:janchinz@gmail.com"/>
+    <hyperlink ref="E246" r:id="rId233" display="mailto:briansodano@gmail.com"/>
+    <hyperlink ref="E247" r:id="rId234" display="mailto:kibernick@gmail.com"/>
+    <hyperlink ref="E248" r:id="rId235" display="mailto:borzou@theboeffect.com"/>
+    <hyperlink ref="E249" r:id="rId236" display="mailto:bilchuck@me.com"/>
+    <hyperlink ref="E250" r:id="rId237" display="mailto:phopkins@nstech.co.uk"/>
+    <hyperlink ref="E251" r:id="rId238" display="mailto:rollokb+github@gmail.com"/>
+    <hyperlink ref="E252" r:id="rId239" display="mailto:ashraf.sar7an@gmail.com"/>
+    <hyperlink ref="E253" r:id="rId240" display="mailto:mjtpena@outlook.com"/>
+    <hyperlink ref="E254" r:id="rId241" display="mailto:jeanepaul@gmail.com"/>
+    <hyperlink ref="E255" r:id="rId242" display="mailto:elle.florio@gmail.com"/>
+    <hyperlink ref="E256" r:id="rId243" display="mailto:geert.vanlaethem@gmail.com"/>
+    <hyperlink ref="E257" r:id="rId244" display="mailto:schnabel@us.ibm.com"/>
+    <hyperlink ref="E258" r:id="rId245" display="mailto:edoardo849@gmail.com"/>
+    <hyperlink ref="E259" r:id="rId246" display="mailto:info@pavelzelezny.cz"/>
+    <hyperlink ref="E260" r:id="rId247" display="mailto:owenspencer@gmail.com"/>
+    <hyperlink ref="E261" r:id="rId248" display="mailto:moser.luca@gmail.com"/>
+    <hyperlink ref="E262" r:id="rId249" display="mailto:kamoljan@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId250"/>
 </worksheet>
 </file>
 
@@ -7626,7 +7998,7 @@
       <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -8822,7 +9194,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15">
+    <row r="72" spans="2:6">
       <c r="B72" t="s">
         <v>814</v>
       </c>
@@ -8906,7 +9278,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -8936,7 +9308,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="952">
   <si>
     <t>微博账号</t>
   </si>
@@ -3085,6 +3085,183 @@
   <si>
     <t>emjeburns@gmail.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhang.yufei@99cloud.net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>magix.yu@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ashleykasim1@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peter.nordquist@pnnl.gov</t>
+  </si>
+  <si>
+    <t>wzz@inspur.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseman@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aninhacostaribeiro@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evgenyf@radware.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyunsun.moon@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peter.gardfjall.work@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liujunpeng@inspur.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>juno.yoon@navercorp.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion@51lion.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>david@ayala.io</t>
+  </si>
+  <si>
+    <t>atticcat@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erik.ringsmuth@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aseev.miron@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianguang.zhou@outlook.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>simonkollberg@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>formanite07@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/spuder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>owenspencer@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/edoardo849</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edoardo849@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/stackhut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandeep@nstack.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collin@collingreen.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/edwardgeorge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edwardgeorge@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/logging-effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ollie@ocharles.org.uk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/hiring-test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickedwardpollard@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/segmentio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roma@ro-che.info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/rpm-ostree-toolbox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walters@verbum.org</t>
   </si>
 </sst>
 </file>
@@ -4750,10 +4927,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E241"/>
+  <dimension ref="B1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212:E241"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242:E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7379,6 +7556,336 @@
       </c>
       <c r="E241" s="1" t="s">
         <v>906</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" t="s">
+        <v>907</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" t="s">
+        <v>907</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>907</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" t="s">
+        <v>907</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E245" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" t="s">
+        <v>907</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" t="s">
+        <v>907</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" t="s">
+        <v>907</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" t="s">
+        <v>907</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" t="s">
+        <v>907</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" t="s">
+        <v>918</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" t="s">
+        <v>918</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" t="s">
+        <v>918</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" t="s">
+        <v>918</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" t="s">
+        <v>918</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E255" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" t="s">
+        <v>918</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>926</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>926</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>926</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" t="s">
+        <v>931</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>931</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" t="s">
+        <v>931</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" t="s">
+        <v>926</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>918</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>918</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>918</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>918</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>918</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>918</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>918</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>918</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E271" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -7612,9 +8119,66 @@
     <hyperlink ref="D239:D240" r:id="rId226" display="https://github.com/ContainX/depcon"/>
     <hyperlink ref="E241" r:id="rId227"/>
     <hyperlink ref="D241" r:id="rId228"/>
+    <hyperlink ref="E242" r:id="rId229"/>
+    <hyperlink ref="E243" r:id="rId230"/>
+    <hyperlink ref="E244" r:id="rId231"/>
+    <hyperlink ref="E246" r:id="rId232"/>
+    <hyperlink ref="E247" r:id="rId233"/>
+    <hyperlink ref="E248" r:id="rId234"/>
+    <hyperlink ref="E249" r:id="rId235"/>
+    <hyperlink ref="E250" r:id="rId236"/>
+    <hyperlink ref="E251" r:id="rId237"/>
+    <hyperlink ref="E252" r:id="rId238"/>
+    <hyperlink ref="E253" r:id="rId239"/>
+    <hyperlink ref="E254" r:id="rId240"/>
+    <hyperlink ref="E256" r:id="rId241"/>
+    <hyperlink ref="E257" r:id="rId242"/>
+    <hyperlink ref="E258" r:id="rId243"/>
+    <hyperlink ref="E259" r:id="rId244"/>
+    <hyperlink ref="E260" r:id="rId245"/>
+    <hyperlink ref="E261" r:id="rId246"/>
+    <hyperlink ref="D242" r:id="rId247"/>
+    <hyperlink ref="D243" r:id="rId248"/>
+    <hyperlink ref="D244" r:id="rId249"/>
+    <hyperlink ref="D245" r:id="rId250"/>
+    <hyperlink ref="D246" r:id="rId251"/>
+    <hyperlink ref="D247" r:id="rId252"/>
+    <hyperlink ref="D248" r:id="rId253"/>
+    <hyperlink ref="D249" r:id="rId254"/>
+    <hyperlink ref="D250" r:id="rId255"/>
+    <hyperlink ref="D251" r:id="rId256"/>
+    <hyperlink ref="D252" r:id="rId257"/>
+    <hyperlink ref="D253" r:id="rId258"/>
+    <hyperlink ref="D254" r:id="rId259"/>
+    <hyperlink ref="D255" r:id="rId260"/>
+    <hyperlink ref="D256" r:id="rId261"/>
+    <hyperlink ref="D257" r:id="rId262"/>
+    <hyperlink ref="D258" r:id="rId263"/>
+    <hyperlink ref="D259" r:id="rId264"/>
+    <hyperlink ref="D260" r:id="rId265"/>
+    <hyperlink ref="D261" r:id="rId266"/>
+    <hyperlink ref="D262" r:id="rId267"/>
+    <hyperlink ref="D263" r:id="rId268"/>
+    <hyperlink ref="D264" r:id="rId269"/>
+    <hyperlink ref="E262" r:id="rId270"/>
+    <hyperlink ref="E263" r:id="rId271"/>
+    <hyperlink ref="E264" r:id="rId272"/>
+    <hyperlink ref="E265" r:id="rId273"/>
+    <hyperlink ref="D265" r:id="rId274"/>
+    <hyperlink ref="E266" r:id="rId275"/>
+    <hyperlink ref="D266" r:id="rId276"/>
+    <hyperlink ref="E267" r:id="rId277"/>
+    <hyperlink ref="D267" r:id="rId278"/>
+    <hyperlink ref="E268" r:id="rId279"/>
+    <hyperlink ref="D268" r:id="rId280"/>
+    <hyperlink ref="D269" r:id="rId281"/>
+    <hyperlink ref="E270" r:id="rId282"/>
+    <hyperlink ref="D270" r:id="rId283"/>
+    <hyperlink ref="E269" r:id="rId284"/>
+    <hyperlink ref="D271" r:id="rId285"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId286"/>
 </worksheet>
 </file>
 

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="995">
   <si>
     <t>微博账号</t>
   </si>
@@ -3209,11 +3209,196 @@
   <si>
     <t>https://github.com/microservices-today</t>
   </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emjeburns@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhang.yufei@99cloud.net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>magix.yu@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ashleykasim1@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peter.nordquist@pnnl.gov</t>
+  </si>
+  <si>
+    <t>wzz@inspur.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseman@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aninhacostaribeiro@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evgenyf@radware.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyunsun.moon@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peter.gardfjall.work@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liujunpeng@inspur.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>juno.yoon@navercorp.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion@51lion.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>david@ayala.io</t>
+  </si>
+  <si>
+    <t>atticcat@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ContainX/openstack4j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erik.ringsmuth@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aseev.miron@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianguang.zhou@outlook.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>simonkollberg@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>formanite07@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/spuder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>owenspencer@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/edoardo849</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edoardo849@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/stackhut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandeep@nstack.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collin@collingreen.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/edwardgeorge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edwardgeorge@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/logging-effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ollie@ocharles.org.uk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/hiring-test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandeep@nstack.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickedwardpollard@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/segmentio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roma@ro-che.info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nstack/rpm-ostree-toolbox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walters@verbum.org</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -3625,7 +3810,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -3652,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" ht="15">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -3680,7 +3865,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -4791,7 +4976,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -4835,7 +5020,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -4873,13 +5058,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E262"/>
+  <dimension ref="B1:E293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="E262" sqref="E242:E262"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263:E293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -5046,7 +5231,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="16.5" thickBot="1">
+    <row r="18" spans="2:5" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -5090,7 +5275,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1">
+    <row r="22" spans="2:5" ht="15" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -5167,7 +5352,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16.5" thickBot="1">
+    <row r="29" spans="2:5" ht="15" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -5469,7 +5654,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1">
+    <row r="57" spans="2:5" ht="15" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -6173,7 +6358,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="16.5" thickBot="1">
+    <row r="121" spans="2:5" ht="15" thickBot="1">
       <c r="B121" t="s">
         <v>631</v>
       </c>
@@ -6184,7 +6369,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1">
+    <row r="122" spans="2:5" ht="15" thickBot="1">
       <c r="B122" t="s">
         <v>631</v>
       </c>
@@ -6217,7 +6402,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="16.5" thickBot="1">
+    <row r="125" spans="2:5" ht="15" thickBot="1">
       <c r="B125" t="s">
         <v>631</v>
       </c>
@@ -6228,7 +6413,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="16.5" thickBot="1">
+    <row r="126" spans="2:5" ht="15" thickBot="1">
       <c r="B126" t="s">
         <v>631</v>
       </c>
@@ -6239,7 +6424,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="16.5" thickBot="1">
+    <row r="127" spans="2:5" ht="15" thickBot="1">
       <c r="B127" t="s">
         <v>631</v>
       </c>
@@ -6250,7 +6435,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="16.5" thickBot="1">
+    <row r="128" spans="2:5" ht="15" thickBot="1">
       <c r="B128" t="s">
         <v>631</v>
       </c>
@@ -6261,7 +6446,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="16.5" thickBot="1">
+    <row r="129" spans="2:5" ht="15" thickBot="1">
       <c r="B129" t="s">
         <v>631</v>
       </c>
@@ -6272,7 +6457,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="16.5" thickBot="1">
+    <row r="130" spans="2:5" ht="15" thickBot="1">
       <c r="B130" t="s">
         <v>631</v>
       </c>
@@ -6294,7 +6479,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1">
+    <row r="132" spans="2:5" ht="15" thickBot="1">
       <c r="B132" t="s">
         <v>631</v>
       </c>
@@ -6305,7 +6490,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="16.5" thickBot="1">
+    <row r="133" spans="2:5" ht="15" thickBot="1">
       <c r="B133" t="s">
         <v>631</v>
       </c>
@@ -6316,7 +6501,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="16.5" thickBot="1">
+    <row r="134" spans="2:5" ht="15" thickBot="1">
       <c r="B134" t="s">
         <v>631</v>
       </c>
@@ -6327,7 +6512,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1">
+    <row r="135" spans="2:5" ht="15" thickBot="1">
       <c r="B135" t="s">
         <v>631</v>
       </c>
@@ -6338,7 +6523,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="16.5" thickBot="1">
+    <row r="136" spans="2:5" ht="15" thickBot="1">
       <c r="B136" t="s">
         <v>631</v>
       </c>
@@ -6404,7 +6589,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1">
+    <row r="142" spans="2:5" ht="15" thickBot="1">
       <c r="B142" t="s">
         <v>631</v>
       </c>
@@ -6459,7 +6644,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="16.5" thickBot="1">
+    <row r="147" spans="2:5" ht="15" thickBot="1">
       <c r="B147" t="s">
         <v>631</v>
       </c>
@@ -6470,7 +6655,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="16.5" thickBot="1">
+    <row r="148" spans="2:5" ht="15" thickBot="1">
       <c r="B148" t="s">
         <v>631</v>
       </c>
@@ -6481,7 +6666,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="16.5" thickBot="1">
+    <row r="149" spans="2:5" ht="15" thickBot="1">
       <c r="B149" t="s">
         <v>631</v>
       </c>
@@ -6503,7 +6688,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="16.5" thickBot="1">
+    <row r="151" spans="2:5" ht="15" thickBot="1">
       <c r="B151" t="s">
         <v>631</v>
       </c>
@@ -6525,7 +6710,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1">
+    <row r="153" spans="2:5" ht="15" thickBot="1">
       <c r="B153" t="s">
         <v>631</v>
       </c>
@@ -6547,7 +6732,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="16.5" thickBot="1">
+    <row r="155" spans="2:5" ht="15" thickBot="1">
       <c r="B155" t="s">
         <v>631</v>
       </c>
@@ -6613,7 +6798,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1">
+    <row r="161" spans="2:5" ht="15" thickBot="1">
       <c r="B161" t="s">
         <v>631</v>
       </c>
@@ -6646,7 +6831,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1">
+    <row r="164" spans="2:5" ht="15" thickBot="1">
       <c r="B164" t="s">
         <v>631</v>
       </c>
@@ -6657,7 +6842,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="16.5" thickBot="1">
+    <row r="165" spans="2:5" ht="15" thickBot="1">
       <c r="B165" t="s">
         <v>631</v>
       </c>
@@ -6668,7 +6853,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="16.5" thickBot="1">
+    <row r="166" spans="2:5" ht="15" thickBot="1">
       <c r="B166" t="s">
         <v>631</v>
       </c>
@@ -6679,7 +6864,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="16.5" thickBot="1">
+    <row r="167" spans="2:5" ht="15" thickBot="1">
       <c r="B167" t="s">
         <v>631</v>
       </c>
@@ -6690,7 +6875,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1">
+    <row r="168" spans="2:5" ht="15" thickBot="1">
       <c r="B168" t="s">
         <v>631</v>
       </c>
@@ -6701,7 +6886,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="16.5" thickBot="1">
+    <row r="169" spans="2:5" ht="15" thickBot="1">
       <c r="B169" t="s">
         <v>631</v>
       </c>
@@ -6712,7 +6897,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="16.5" thickBot="1">
+    <row r="170" spans="2:5" ht="15" thickBot="1">
       <c r="B170" t="s">
         <v>631</v>
       </c>
@@ -6723,7 +6908,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="16.5" thickBot="1">
+    <row r="171" spans="2:5" ht="15" thickBot="1">
       <c r="B171" t="s">
         <v>631</v>
       </c>
@@ -6734,7 +6919,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="16.5" thickBot="1">
+    <row r="172" spans="2:5" ht="15" thickBot="1">
       <c r="B172" t="s">
         <v>631</v>
       </c>
@@ -6745,7 +6930,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="16.5" thickBot="1">
+    <row r="173" spans="2:5" ht="15" thickBot="1">
       <c r="B173" t="s">
         <v>631</v>
       </c>
@@ -6756,7 +6941,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="16.5" thickBot="1">
+    <row r="174" spans="2:5" ht="15" thickBot="1">
       <c r="B174" t="s">
         <v>631</v>
       </c>
@@ -6778,7 +6963,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1">
+    <row r="176" spans="2:5" ht="15" thickBot="1">
       <c r="B176" t="s">
         <v>631</v>
       </c>
@@ -6789,7 +6974,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="16.5" thickBot="1">
+    <row r="177" spans="2:5" ht="15" thickBot="1">
       <c r="B177" t="s">
         <v>631</v>
       </c>
@@ -6800,7 +6985,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="16.5" thickBot="1">
+    <row r="178" spans="2:5" ht="15" thickBot="1">
       <c r="B178" t="s">
         <v>631</v>
       </c>
@@ -6811,7 +6996,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1">
+    <row r="179" spans="2:5" ht="15" thickBot="1">
       <c r="B179" t="s">
         <v>631</v>
       </c>
@@ -6822,7 +7007,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="16.5" thickBot="1">
+    <row r="180" spans="2:5" ht="15" thickBot="1">
       <c r="B180" t="s">
         <v>631</v>
       </c>
@@ -7556,7 +7741,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="16.5" thickBot="1">
+    <row r="247" spans="2:5" ht="15" thickBot="1">
       <c r="B247" t="s">
         <v>441</v>
       </c>
@@ -7567,7 +7752,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="16.5" thickBot="1">
+    <row r="248" spans="2:5" ht="15" thickBot="1">
       <c r="B248" t="s">
         <v>441</v>
       </c>
@@ -7633,7 +7818,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="16.5" thickBot="1">
+    <row r="254" spans="2:5" ht="15" thickBot="1">
       <c r="B254" t="s">
         <v>441</v>
       </c>
@@ -7655,7 +7840,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="16.5" thickBot="1">
+    <row r="256" spans="2:5" ht="15" thickBot="1">
       <c r="B256" t="s">
         <v>441</v>
       </c>
@@ -7677,7 +7862,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="16.5" thickBot="1">
+    <row r="258" spans="2:5" ht="15" thickBot="1">
       <c r="B258" t="s">
         <v>441</v>
       </c>
@@ -7699,7 +7884,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="16.5" thickBot="1">
+    <row r="260" spans="2:5" ht="15" thickBot="1">
       <c r="B260" t="s">
         <v>441</v>
       </c>
@@ -7730,6 +7915,347 @@
       </c>
       <c r="E262" s="1" t="s">
         <v>946</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" t="s">
+        <v>948</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>948</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>948</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>948</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>948</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E267" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>948</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>948</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>948</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>948</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" t="s">
+        <v>948</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" t="s">
+        <v>948</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" t="s">
+        <v>948</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" t="s">
+        <v>962</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" t="s">
+        <v>962</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" t="s">
+        <v>962</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E277" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" t="s">
+        <v>962</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" t="s">
+        <v>968</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" t="s">
+        <v>968</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" t="s">
+        <v>968</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" t="s">
+        <v>968</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283" t="s">
+        <v>968</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="B284" t="s">
+        <v>968</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="B285" t="s">
+        <v>962</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="B286" t="s">
+        <v>979</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287" t="s">
+        <v>979</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="B288" t="s">
+        <v>983</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="B289" t="s">
+        <v>983</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5">
+      <c r="B290" t="s">
+        <v>983</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5">
+      <c r="B291" t="s">
+        <v>983</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5">
+      <c r="B292" t="s">
+        <v>983</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5">
+      <c r="B293" t="s">
+        <v>983</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E293" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -7984,9 +8510,68 @@
     <hyperlink ref="E260" r:id="rId247" display="mailto:owenspencer@gmail.com"/>
     <hyperlink ref="E261" r:id="rId248" display="mailto:moser.luca@gmail.com"/>
     <hyperlink ref="E262" r:id="rId249" display="mailto:kamoljan@gmail.com"/>
+    <hyperlink ref="E263" r:id="rId250"/>
+    <hyperlink ref="E264" r:id="rId251"/>
+    <hyperlink ref="E265" r:id="rId252"/>
+    <hyperlink ref="E266" r:id="rId253"/>
+    <hyperlink ref="E268" r:id="rId254"/>
+    <hyperlink ref="E269" r:id="rId255"/>
+    <hyperlink ref="E270" r:id="rId256"/>
+    <hyperlink ref="E271" r:id="rId257"/>
+    <hyperlink ref="E272" r:id="rId258"/>
+    <hyperlink ref="E273" r:id="rId259"/>
+    <hyperlink ref="E274" r:id="rId260"/>
+    <hyperlink ref="E275" r:id="rId261"/>
+    <hyperlink ref="E276" r:id="rId262"/>
+    <hyperlink ref="E278" r:id="rId263"/>
+    <hyperlink ref="E279" r:id="rId264"/>
+    <hyperlink ref="E280" r:id="rId265"/>
+    <hyperlink ref="E281" r:id="rId266"/>
+    <hyperlink ref="E282" r:id="rId267"/>
+    <hyperlink ref="E283" r:id="rId268"/>
+    <hyperlink ref="D263" r:id="rId269"/>
+    <hyperlink ref="D264" r:id="rId270"/>
+    <hyperlink ref="D265" r:id="rId271"/>
+    <hyperlink ref="D266" r:id="rId272"/>
+    <hyperlink ref="D267" r:id="rId273"/>
+    <hyperlink ref="D268" r:id="rId274"/>
+    <hyperlink ref="D269" r:id="rId275"/>
+    <hyperlink ref="D270" r:id="rId276"/>
+    <hyperlink ref="D271" r:id="rId277"/>
+    <hyperlink ref="D272" r:id="rId278"/>
+    <hyperlink ref="D273" r:id="rId279"/>
+    <hyperlink ref="D274" r:id="rId280"/>
+    <hyperlink ref="D275" r:id="rId281"/>
+    <hyperlink ref="D276" r:id="rId282"/>
+    <hyperlink ref="D277" r:id="rId283"/>
+    <hyperlink ref="D278" r:id="rId284"/>
+    <hyperlink ref="D279" r:id="rId285"/>
+    <hyperlink ref="D280" r:id="rId286"/>
+    <hyperlink ref="D281" r:id="rId287"/>
+    <hyperlink ref="D282" r:id="rId288"/>
+    <hyperlink ref="D283" r:id="rId289"/>
+    <hyperlink ref="D284" r:id="rId290"/>
+    <hyperlink ref="D285" r:id="rId291"/>
+    <hyperlink ref="D286" r:id="rId292"/>
+    <hyperlink ref="E284" r:id="rId293"/>
+    <hyperlink ref="E285" r:id="rId294"/>
+    <hyperlink ref="E286" r:id="rId295"/>
+    <hyperlink ref="E287" r:id="rId296"/>
+    <hyperlink ref="D287" r:id="rId297"/>
+    <hyperlink ref="E288" r:id="rId298"/>
+    <hyperlink ref="D288" r:id="rId299"/>
+    <hyperlink ref="E289" r:id="rId300"/>
+    <hyperlink ref="D289" r:id="rId301"/>
+    <hyperlink ref="E290" r:id="rId302"/>
+    <hyperlink ref="D290" r:id="rId303"/>
+    <hyperlink ref="D291" r:id="rId304"/>
+    <hyperlink ref="E292" r:id="rId305"/>
+    <hyperlink ref="D292" r:id="rId306"/>
+    <hyperlink ref="E291" r:id="rId307"/>
+    <hyperlink ref="D293" r:id="rId308"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId250"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
 </worksheet>
 </file>
 
@@ -7998,7 +8583,7 @@
       <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -9194,7 +9779,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" ht="15">
       <c r="B72" t="s">
         <v>814</v>
       </c>
@@ -9278,7 +9863,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -9308,7 +9893,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\workspace_microservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\workspace_microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="19605" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1046">
   <si>
     <t>微博账号</t>
   </si>
@@ -3394,11 +3394,164 @@
   <si>
     <t>walters@verbum.org</t>
   </si>
+  <si>
+    <t>kswiber@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/kevinswiber</t>
+  </si>
+  <si>
+    <t>kkleva@llbean.com</t>
+  </si>
+  <si>
+    <t>https://github.com/klevak</t>
+  </si>
+  <si>
+    <t>david.winterbottom@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/codeinthehole</t>
+  </si>
+  <si>
+    <t>vaquar.cna@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/vaquarkhan</t>
+  </si>
+  <si>
+    <t>sebas@mannem.nl</t>
+  </si>
+  <si>
+    <t>https://github.com/sebasmannem</t>
+  </si>
+  <si>
+    <t>info@saturn72.com</t>
+  </si>
+  <si>
+    <t>https://github.com/saturn72</t>
+  </si>
+  <si>
+    <t>me@sandile.io</t>
+  </si>
+  <si>
+    <t>https://github.com/skeswa</t>
+  </si>
+  <si>
+    <t>zack.smith@temple.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/ZacharyThomas</t>
+  </si>
+  <si>
+    <t>bmullan91@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/bmullan91</t>
+  </si>
+  <si>
+    <t>matteo.collina@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/mcollina</t>
+  </si>
+  <si>
+    <t>david.p.wood@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Codesleuth</t>
+  </si>
+  <si>
+    <t>hello@dominykas.com</t>
+  </si>
+  <si>
+    <t>https://github.com/dominykas</t>
+  </si>
+  <si>
+    <t>wildfiction@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/guyellis</t>
+  </si>
+  <si>
+    <t>jake@jakepruitt.com</t>
+  </si>
+  <si>
+    <t>https://github.com/jakepruitt</t>
+  </si>
+  <si>
+    <t>thomas.treffry@nearform.com</t>
+  </si>
+  <si>
+    <t>https://github.com/lpww</t>
+  </si>
+  <si>
+    <t>nicolas@morel.io</t>
+  </si>
+  <si>
+    <t>https://github.com/Marsup</t>
+  </si>
+  <si>
+    <t>mikeal.rogers@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/mikeal</t>
+  </si>
+  <si>
+    <t>https://github.com/synoa</t>
+  </si>
+  <si>
+    <t>timpietrusky@gmail.com</t>
+  </si>
+  <si>
+    <t>brettbeatty@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/byu-oit-appdev</t>
+  </si>
+  <si>
+    <t>bwinterton@gmail.com</t>
+  </si>
+  <si>
+    <t>devin.durtschi@gmail.com</t>
+  </si>
+  <si>
+    <t>eric.w.nord@gmail.com</t>
+  </si>
+  <si>
+    <t>dmoses@upei.ca</t>
+  </si>
+  <si>
+    <t>https://github.com/roblib</t>
+  </si>
+  <si>
+    <t>paul.pound@gmail.com</t>
+  </si>
+  <si>
+    <t>gukaiqiang@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/KerwinKoo</t>
+  </si>
+  <si>
+    <t>smarru@apache.org</t>
+  </si>
+  <si>
+    <t>https://github.com/smarru</t>
+  </si>
+  <si>
+    <t>dylankolson@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/acesinc/training-conference-notes</t>
+  </si>
+  <si>
+    <t>chris@hogan.io</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -3462,15 +3615,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3487,12 +3646,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEAECEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3523,6 +3691,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3810,7 +3984,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -3837,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>277</v>
       </c>
@@ -3865,7 +4039,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -4976,7 +5150,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -5020,7 +5194,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -5058,13 +5232,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E293"/>
+  <dimension ref="B1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263:E293"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293:B320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -5231,7 +5405,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1">
+    <row r="18" spans="2:5" ht="16.5" thickBot="1">
       <c r="B18" t="s">
         <v>272</v>
       </c>
@@ -5275,7 +5449,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1">
       <c r="B22" t="s">
         <v>272</v>
       </c>
@@ -5352,7 +5526,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1">
+    <row r="29" spans="2:5" ht="16.5" thickBot="1">
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -5654,7 +5828,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1">
       <c r="B57" t="s">
         <v>441</v>
       </c>
@@ -6358,7 +6532,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="15" thickBot="1">
+    <row r="121" spans="2:5" ht="16.5" thickBot="1">
       <c r="B121" t="s">
         <v>631</v>
       </c>
@@ -6369,7 +6543,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="15" thickBot="1">
+    <row r="122" spans="2:5" ht="16.5" thickBot="1">
       <c r="B122" t="s">
         <v>631</v>
       </c>
@@ -6402,7 +6576,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="15" thickBot="1">
+    <row r="125" spans="2:5" ht="16.5" thickBot="1">
       <c r="B125" t="s">
         <v>631</v>
       </c>
@@ -6413,7 +6587,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15" thickBot="1">
+    <row r="126" spans="2:5" ht="16.5" thickBot="1">
       <c r="B126" t="s">
         <v>631</v>
       </c>
@@ -6424,7 +6598,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15" thickBot="1">
+    <row r="127" spans="2:5" ht="16.5" thickBot="1">
       <c r="B127" t="s">
         <v>631</v>
       </c>
@@ -6435,7 +6609,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="15" thickBot="1">
+    <row r="128" spans="2:5" ht="16.5" thickBot="1">
       <c r="B128" t="s">
         <v>631</v>
       </c>
@@ -6446,7 +6620,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="15" thickBot="1">
+    <row r="129" spans="2:5" ht="16.5" thickBot="1">
       <c r="B129" t="s">
         <v>631</v>
       </c>
@@ -6457,7 +6631,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="15" thickBot="1">
+    <row r="130" spans="2:5" ht="16.5" thickBot="1">
       <c r="B130" t="s">
         <v>631</v>
       </c>
@@ -6479,7 +6653,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="15" thickBot="1">
+    <row r="132" spans="2:5" ht="16.5" thickBot="1">
       <c r="B132" t="s">
         <v>631</v>
       </c>
@@ -6490,7 +6664,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="15" thickBot="1">
+    <row r="133" spans="2:5" ht="16.5" thickBot="1">
       <c r="B133" t="s">
         <v>631</v>
       </c>
@@ -6501,7 +6675,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="15" thickBot="1">
+    <row r="134" spans="2:5" ht="16.5" thickBot="1">
       <c r="B134" t="s">
         <v>631</v>
       </c>
@@ -6512,7 +6686,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" thickBot="1">
+    <row r="135" spans="2:5" ht="16.5" thickBot="1">
       <c r="B135" t="s">
         <v>631</v>
       </c>
@@ -6523,7 +6697,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" thickBot="1">
+    <row r="136" spans="2:5" ht="16.5" thickBot="1">
       <c r="B136" t="s">
         <v>631</v>
       </c>
@@ -6589,7 +6763,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="15" thickBot="1">
+    <row r="142" spans="2:5" ht="16.5" thickBot="1">
       <c r="B142" t="s">
         <v>631</v>
       </c>
@@ -6644,7 +6818,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="15" thickBot="1">
+    <row r="147" spans="2:5" ht="16.5" thickBot="1">
       <c r="B147" t="s">
         <v>631</v>
       </c>
@@ -6655,7 +6829,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="15" thickBot="1">
+    <row r="148" spans="2:5" ht="16.5" thickBot="1">
       <c r="B148" t="s">
         <v>631</v>
       </c>
@@ -6666,7 +6840,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="15" thickBot="1">
+    <row r="149" spans="2:5" ht="16.5" thickBot="1">
       <c r="B149" t="s">
         <v>631</v>
       </c>
@@ -6688,7 +6862,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="15" thickBot="1">
+    <row r="151" spans="2:5" ht="16.5" thickBot="1">
       <c r="B151" t="s">
         <v>631</v>
       </c>
@@ -6710,7 +6884,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="15" thickBot="1">
+    <row r="153" spans="2:5" ht="16.5" thickBot="1">
       <c r="B153" t="s">
         <v>631</v>
       </c>
@@ -6732,7 +6906,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="15" thickBot="1">
+    <row r="155" spans="2:5" ht="16.5" thickBot="1">
       <c r="B155" t="s">
         <v>631</v>
       </c>
@@ -6798,7 +6972,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="15" thickBot="1">
+    <row r="161" spans="2:5" ht="16.5" thickBot="1">
       <c r="B161" t="s">
         <v>631</v>
       </c>
@@ -6831,7 +7005,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="15" thickBot="1">
+    <row r="164" spans="2:5" ht="16.5" thickBot="1">
       <c r="B164" t="s">
         <v>631</v>
       </c>
@@ -6842,7 +7016,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="15" thickBot="1">
+    <row r="165" spans="2:5" ht="16.5" thickBot="1">
       <c r="B165" t="s">
         <v>631</v>
       </c>
@@ -6853,7 +7027,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="15" thickBot="1">
+    <row r="166" spans="2:5" ht="16.5" thickBot="1">
       <c r="B166" t="s">
         <v>631</v>
       </c>
@@ -6864,7 +7038,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="15" thickBot="1">
+    <row r="167" spans="2:5" ht="16.5" thickBot="1">
       <c r="B167" t="s">
         <v>631</v>
       </c>
@@ -6875,7 +7049,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="15" thickBot="1">
+    <row r="168" spans="2:5" ht="16.5" thickBot="1">
       <c r="B168" t="s">
         <v>631</v>
       </c>
@@ -6886,7 +7060,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="15" thickBot="1">
+    <row r="169" spans="2:5" ht="16.5" thickBot="1">
       <c r="B169" t="s">
         <v>631</v>
       </c>
@@ -6897,7 +7071,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="15" thickBot="1">
+    <row r="170" spans="2:5" ht="16.5" thickBot="1">
       <c r="B170" t="s">
         <v>631</v>
       </c>
@@ -6908,7 +7082,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="15" thickBot="1">
+    <row r="171" spans="2:5" ht="16.5" thickBot="1">
       <c r="B171" t="s">
         <v>631</v>
       </c>
@@ -6919,7 +7093,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="15" thickBot="1">
+    <row r="172" spans="2:5" ht="16.5" thickBot="1">
       <c r="B172" t="s">
         <v>631</v>
       </c>
@@ -6930,7 +7104,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="15" thickBot="1">
+    <row r="173" spans="2:5" ht="16.5" thickBot="1">
       <c r="B173" t="s">
         <v>631</v>
       </c>
@@ -6941,7 +7115,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="15" thickBot="1">
+    <row r="174" spans="2:5" ht="16.5" thickBot="1">
       <c r="B174" t="s">
         <v>631</v>
       </c>
@@ -6963,7 +7137,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="15" thickBot="1">
+    <row r="176" spans="2:5" ht="16.5" thickBot="1">
       <c r="B176" t="s">
         <v>631</v>
       </c>
@@ -6974,7 +7148,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="15" thickBot="1">
+    <row r="177" spans="2:5" ht="16.5" thickBot="1">
       <c r="B177" t="s">
         <v>631</v>
       </c>
@@ -6985,7 +7159,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="15" thickBot="1">
+    <row r="178" spans="2:5" ht="16.5" thickBot="1">
       <c r="B178" t="s">
         <v>631</v>
       </c>
@@ -6996,7 +7170,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="15" thickBot="1">
+    <row r="179" spans="2:5" ht="16.5" thickBot="1">
       <c r="B179" t="s">
         <v>631</v>
       </c>
@@ -7007,7 +7181,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="15" thickBot="1">
+    <row r="180" spans="2:5" ht="16.5" thickBot="1">
       <c r="B180" t="s">
         <v>631</v>
       </c>
@@ -7741,7 +7915,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="15" thickBot="1">
+    <row r="247" spans="2:5" ht="16.5" thickBot="1">
       <c r="B247" t="s">
         <v>441</v>
       </c>
@@ -7752,7 +7926,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="15" thickBot="1">
+    <row r="248" spans="2:5" ht="16.5" thickBot="1">
       <c r="B248" t="s">
         <v>441</v>
       </c>
@@ -7818,7 +7992,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="15" thickBot="1">
+    <row r="254" spans="2:5" ht="16.5" thickBot="1">
       <c r="B254" t="s">
         <v>441</v>
       </c>
@@ -7840,7 +8014,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="15" thickBot="1">
+    <row r="256" spans="2:5" ht="16.5" thickBot="1">
       <c r="B256" t="s">
         <v>441</v>
       </c>
@@ -7862,7 +8036,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="15" thickBot="1">
+    <row r="258" spans="2:5" ht="16.5" thickBot="1">
       <c r="B258" t="s">
         <v>441</v>
       </c>
@@ -7884,7 +8058,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="15" thickBot="1">
+    <row r="260" spans="2:5" ht="16.5" thickBot="1">
       <c r="B260" t="s">
         <v>441</v>
       </c>
@@ -8256,6 +8430,308 @@
       </c>
       <c r="E293" t="s">
         <v>994</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5">
+      <c r="B294" t="s">
+        <v>441</v>
+      </c>
+      <c r="D294" t="s">
+        <v>996</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295" t="s">
+        <v>441</v>
+      </c>
+      <c r="D295" t="s">
+        <v>998</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5">
+      <c r="B296" t="s">
+        <v>441</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5">
+      <c r="B297" t="s">
+        <v>441</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5">
+      <c r="B298" t="s">
+        <v>441</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E298" s="17" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5">
+      <c r="B299" t="s">
+        <v>441</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E299" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5">
+      <c r="B300" t="s">
+        <v>441</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5">
+      <c r="B301" t="s">
+        <v>441</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E301" s="16" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5">
+      <c r="B302" t="s">
+        <v>441</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E302" s="16" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" t="s">
+        <v>441</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E303" s="16" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304" t="s">
+        <v>441</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E304" s="16" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305" t="s">
+        <v>441</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E305" s="16" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306" t="s">
+        <v>441</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E306" s="16" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="B307" t="s">
+        <v>441</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E307" s="16" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308" t="s">
+        <v>441</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" t="s">
+        <v>441</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5">
+      <c r="B310" t="s">
+        <v>441</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
+      <c r="B311" t="s">
+        <v>441</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E311" s="16" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5">
+      <c r="B312" t="s">
+        <v>441</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E312" s="16" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5">
+      <c r="B313" t="s">
+        <v>441</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="B314" t="s">
+        <v>441</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="B315" t="s">
+        <v>441</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5">
+      <c r="B316" t="s">
+        <v>441</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E316" s="16" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5">
+      <c r="B317" t="s">
+        <v>441</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5">
+      <c r="B318" t="s">
+        <v>441</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="B319" t="s">
+        <v>441</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E319" s="16" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5">
+      <c r="B320" t="s">
+        <v>441</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" s="16" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -8569,9 +9045,37 @@
     <hyperlink ref="D292" r:id="rId306"/>
     <hyperlink ref="E291" r:id="rId307"/>
     <hyperlink ref="D293" r:id="rId308"/>
+    <hyperlink ref="E294" r:id="rId309" display="mailto:kswiber@gmail.com"/>
+    <hyperlink ref="E295" r:id="rId310" display="mailto:kkleva@llbean.com"/>
+    <hyperlink ref="E296" r:id="rId311" display="mailto:david.winterbottom@gmail.com"/>
+    <hyperlink ref="E298" r:id="rId312" display="mailto:vaquar.cna@gmail.com"/>
+    <hyperlink ref="E297" r:id="rId313" display="mailto:sebas@mannem.nl"/>
+    <hyperlink ref="E299" r:id="rId314" display="mailto:info@saturn72.com"/>
+    <hyperlink ref="E300" r:id="rId315" display="mailto:me@sandile.io"/>
+    <hyperlink ref="E301" r:id="rId316" display="mailto:zack.smith@temple.edu"/>
+    <hyperlink ref="E302" r:id="rId317" display="mailto:bmullan91@gmail.com"/>
+    <hyperlink ref="E303" r:id="rId318" display="mailto:matteo.collina@gmail.com"/>
+    <hyperlink ref="E304" r:id="rId319" display="mailto:david.p.wood@gmail.com"/>
+    <hyperlink ref="E305" r:id="rId320" display="mailto:hello@dominykas.com"/>
+    <hyperlink ref="E306" r:id="rId321" display="mailto:wildfiction@gmail.com"/>
+    <hyperlink ref="E307" r:id="rId322" display="mailto:jake@jakepruitt.com"/>
+    <hyperlink ref="E308" r:id="rId323" display="mailto:thomas.treffry@nearform.com"/>
+    <hyperlink ref="E309" r:id="rId324" display="mailto:nicolas@morel.io"/>
+    <hyperlink ref="E310" r:id="rId325" display="mailto:mikeal.rogers@gmail.com"/>
+    <hyperlink ref="E311" r:id="rId326" display="mailto:timpietrusky@gmail.com"/>
+    <hyperlink ref="E312" r:id="rId327" display="mailto:brettbeatty@gmail.com"/>
+    <hyperlink ref="E313" r:id="rId328" display="mailto:bwinterton@gmail.com"/>
+    <hyperlink ref="E314" r:id="rId329" display="mailto:devin.durtschi@gmail.com"/>
+    <hyperlink ref="E315" r:id="rId330" display="mailto:eric.w.nord@gmail.com"/>
+    <hyperlink ref="E316" r:id="rId331" display="mailto:dmoses@upei.ca"/>
+    <hyperlink ref="E317" r:id="rId332" display="mailto:paul.pound@gmail.com"/>
+    <hyperlink ref="E318" r:id="rId333" display="mailto:gukaiqiang@gmail.com"/>
+    <hyperlink ref="E319" r:id="rId334" display="mailto:smarru@apache.org"/>
+    <hyperlink ref="E320" r:id="rId335" display="mailto:dylankolson@gmail.com"/>
+    <hyperlink ref="E321" r:id="rId336" display="mailto:chris@hogan.io"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId337"/>
 </worksheet>
 </file>
 
@@ -8583,7 +9087,7 @@
       <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -9779,7 +10283,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15">
+    <row r="72" spans="2:6">
       <c r="B72" t="s">
         <v>814</v>
       </c>
@@ -9863,7 +10367,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -9893,7 +10397,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>

--- a/questionair.xlsx
+++ b/questionair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19605" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="20670" yWindow="1845" windowWidth="6600" windowHeight="5925" tabRatio="822" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学术论文" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1086">
   <si>
     <t>微博账号</t>
   </si>
@@ -3546,6 +3546,126 @@
   </si>
   <si>
     <t>chris@hogan.io</t>
+  </si>
+  <si>
+    <t>alex@howells.me</t>
+  </si>
+  <si>
+    <t>sns@livelinktechnology.net</t>
+  </si>
+  <si>
+    <t>btm@loftninjas.org</t>
+  </si>
+  <si>
+    <t>cwebberops@gmail.com</t>
+  </si>
+  <si>
+    <t>dan@kallistec.com</t>
+  </si>
+  <si>
+    <t>dsahni@chef.io</t>
+  </si>
+  <si>
+    <t>jmschu02@gmail.com</t>
+  </si>
+  <si>
+    <t>erjohnso@google.com</t>
+  </si>
+  <si>
+    <t>estebistec@gmail.com</t>
+  </si>
+  <si>
+    <t>fnichol@nichol.ca</t>
+  </si>
+  <si>
+    <t>gmiranda@opscode.com</t>
+  </si>
+  <si>
+    <t>chris@hippiehacker.org</t>
+  </si>
+  <si>
+    <t>james@chef.io</t>
+  </si>
+  <si>
+    <t>phil@ipom.com</t>
+  </si>
+  <si>
+    <t>jj@chef.io</t>
+  </si>
+  <si>
+    <t>john@johnkeiser.com</t>
+  </si>
+  <si>
+    <t>jon@morrowmail.com</t>
+  </si>
+  <si>
+    <t>kevinreedy@gmail.com</t>
+  </si>
+  <si>
+    <t>mark@chef.io</t>
+  </si>
+  <si>
+    <t>matt@chef.io</t>
+  </si>
+  <si>
+    <t>mpgoetz@gmail.com</t>
+  </si>
+  <si>
+    <t>matt@mattwrock.com</t>
+  </si>
+  <si>
+    <t>nathen.harvey@gmail.com</t>
+  </si>
+  <si>
+    <t>paul@getchef.com</t>
+  </si>
+  <si>
+    <t>ranjib@linux.com</t>
+  </si>
+  <si>
+    <t>reset@chef.io</t>
+  </si>
+  <si>
+    <t>robb@thekidds.org</t>
+  </si>
+  <si>
+    <t>schisamo@chef.io</t>
+  </si>
+  <si>
+    <t>scott@scott-christopherson.com</t>
+  </si>
+  <si>
+    <t>seth@chef.io</t>
+  </si>
+  <si>
+    <t>siddh_more16@hotmail.com</t>
+  </si>
+  <si>
+    <t>yvo.vandoorn@gmail.com</t>
+  </si>
+  <si>
+    <t>wk8.github@gmail.com</t>
+  </si>
+  <si>
+    <t>inbox@trevorbramble.com</t>
+  </si>
+  <si>
+    <t>tpetchel@gmail.com</t>
+  </si>
+  <si>
+    <t>tsmith@chef.io</t>
+  </si>
+  <si>
+    <t>stuart@chef.io</t>
+  </si>
+  <si>
+    <t>steve@chef.io</t>
+  </si>
+  <si>
+    <t>smith@nlsmith.com</t>
+  </si>
+  <si>
+    <t>https://github.com/chef</t>
   </si>
 </sst>
 </file>
@@ -5232,10 +5352,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E321"/>
+  <dimension ref="B1:E360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293:B320"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321:D360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8729,9 +8849,444 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="321" spans="5:5">
+    <row r="321" spans="2:5">
+      <c r="B321" t="s">
+        <v>441</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1085</v>
+      </c>
       <c r="E321" s="16" t="s">
         <v>1045</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5">
+      <c r="B322" t="s">
+        <v>441</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E322" s="16" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5">
+      <c r="B323" t="s">
+        <v>441</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E323" s="16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5">
+      <c r="B324" t="s">
+        <v>441</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E324" s="16" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5">
+      <c r="B325" t="s">
+        <v>441</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E325" s="16" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5">
+      <c r="B326" t="s">
+        <v>441</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E326" s="16" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5">
+      <c r="B327" t="s">
+        <v>441</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E327" s="16" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5">
+      <c r="B328" t="s">
+        <v>441</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E328" s="16" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5">
+      <c r="B329" t="s">
+        <v>441</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5">
+      <c r="B330" t="s">
+        <v>441</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5">
+      <c r="B331" t="s">
+        <v>441</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5">
+      <c r="B332" t="s">
+        <v>441</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5">
+      <c r="B333" t="s">
+        <v>441</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5">
+      <c r="B334" t="s">
+        <v>441</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5">
+      <c r="B335" t="s">
+        <v>441</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5">
+      <c r="B336" t="s">
+        <v>441</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5">
+      <c r="B337" t="s">
+        <v>441</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5">
+      <c r="B338" t="s">
+        <v>441</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E338" s="16" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5">
+      <c r="B339" t="s">
+        <v>441</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E339" s="16" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5">
+      <c r="B340" t="s">
+        <v>441</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E340" s="16" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5">
+      <c r="B341" t="s">
+        <v>441</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5">
+      <c r="B342" t="s">
+        <v>441</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="B343" t="s">
+        <v>441</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E343" s="16" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="B344" t="s">
+        <v>441</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5">
+      <c r="B345" t="s">
+        <v>441</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="B346" t="s">
+        <v>441</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="B347" t="s">
+        <v>441</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E347" s="16" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="B348" t="s">
+        <v>441</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E348" s="16" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="B349" t="s">
+        <v>441</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E349" s="16" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="B350" t="s">
+        <v>441</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E350" s="16" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="B351" t="s">
+        <v>441</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E351" s="17" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="B352" t="s">
+        <v>441</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E352" s="16" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="B353" t="s">
+        <v>441</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E353" s="16" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="B354" t="s">
+        <v>441</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E354" s="16" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355" t="s">
+        <v>441</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E355" s="16" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5">
+      <c r="B356" t="s">
+        <v>441</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E356" s="16" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5">
+      <c r="B357" t="s">
+        <v>441</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5">
+      <c r="B358" t="s">
+        <v>441</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5">
+      <c r="B359" t="s">
+        <v>441</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5">
+      <c r="B360" t="s">
+        <v>441</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -9073,9 +9628,48 @@
     <hyperlink ref="E319" r:id="rId334" display="mailto:smarru@apache.org"/>
     <hyperlink ref="E320" r:id="rId335" display="mailto:dylankolson@gmail.com"/>
     <hyperlink ref="E321" r:id="rId336" display="mailto:chris@hogan.io"/>
+    <hyperlink ref="E322" r:id="rId337" display="mailto:alex@howells.me"/>
+    <hyperlink ref="E323" r:id="rId338" display="mailto:sns@livelinktechnology.net"/>
+    <hyperlink ref="E324" r:id="rId339" display="mailto:btm@loftninjas.org"/>
+    <hyperlink ref="E325" r:id="rId340" display="mailto:cwebberops@gmail.com"/>
+    <hyperlink ref="E326" r:id="rId341" display="mailto:dan@kallistec.com"/>
+    <hyperlink ref="E327" r:id="rId342" display="mailto:dsahni@chef.io"/>
+    <hyperlink ref="E328" r:id="rId343" display="mailto:jmschu02@gmail.com"/>
+    <hyperlink ref="E329" r:id="rId344" display="mailto:erjohnso@google.com"/>
+    <hyperlink ref="E330" r:id="rId345" display="mailto:estebistec@gmail.com"/>
+    <hyperlink ref="E331" r:id="rId346" display="mailto:fnichol@nichol.ca"/>
+    <hyperlink ref="E332" r:id="rId347" display="mailto:gmiranda@opscode.com"/>
+    <hyperlink ref="E333" r:id="rId348" display="mailto:chris@hippiehacker.org"/>
+    <hyperlink ref="E334" r:id="rId349" display="mailto:james@chef.io"/>
+    <hyperlink ref="E335" r:id="rId350" display="mailto:phil@ipom.com"/>
+    <hyperlink ref="E336" r:id="rId351" display="mailto:jj@chef.io"/>
+    <hyperlink ref="E337" r:id="rId352" display="mailto:john@johnkeiser.com"/>
+    <hyperlink ref="E338" r:id="rId353" display="mailto:jon@morrowmail.com"/>
+    <hyperlink ref="E339" r:id="rId354" display="mailto:kevinreedy@gmail.com"/>
+    <hyperlink ref="E340" r:id="rId355" display="mailto:mark@chef.io"/>
+    <hyperlink ref="E341" r:id="rId356" display="mailto:matt@chef.io"/>
+    <hyperlink ref="E342" r:id="rId357" display="mailto:mpgoetz@gmail.com"/>
+    <hyperlink ref="E343" r:id="rId358" display="mailto:matt@mattwrock.com"/>
+    <hyperlink ref="E344" r:id="rId359" display="mailto:nathen.harvey@gmail.com"/>
+    <hyperlink ref="E345" r:id="rId360" display="mailto:paul@getchef.com"/>
+    <hyperlink ref="E346" r:id="rId361" display="mailto:ranjib@linux.com"/>
+    <hyperlink ref="E347" r:id="rId362" display="mailto:reset@chef.io"/>
+    <hyperlink ref="E348" r:id="rId363" display="mailto:robb@thekidds.org"/>
+    <hyperlink ref="E349" r:id="rId364" display="mailto:schisamo@chef.io"/>
+    <hyperlink ref="E351" r:id="rId365" display="mailto:scott@scott-christopherson.com"/>
+    <hyperlink ref="E350" r:id="rId366" display="mailto:seth@chef.io"/>
+    <hyperlink ref="E352" r:id="rId367" display="mailto:siddh_more16@hotmail.com"/>
+    <hyperlink ref="E353" r:id="rId368" display="mailto:yvo.vandoorn@gmail.com"/>
+    <hyperlink ref="E354" r:id="rId369" display="mailto:wk8.github@gmail.com"/>
+    <hyperlink ref="E355" r:id="rId370" display="mailto:inbox@trevorbramble.com"/>
+    <hyperlink ref="E356" r:id="rId371" display="mailto:tpetchel@gmail.com"/>
+    <hyperlink ref="E357" r:id="rId372" display="mailto:tsmith@chef.io"/>
+    <hyperlink ref="E358" r:id="rId373" display="mailto:stuart@chef.io"/>
+    <hyperlink ref="E359" r:id="rId374" display="mailto:steve@chef.io"/>
+    <hyperlink ref="E360" r:id="rId375" display="mailto:smith@nlsmith.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId337"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId376"/>
 </worksheet>
 </file>
 
